--- a/Technical/Testing/TestPlan.xlsx
+++ b/Technical/Testing/TestPlan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GradProjects\Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FlyNet\Technical\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -702,9 +702,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -754,24 +772,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1465,7 +1465,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,14 +1485,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="J1" s="34" t="s">
+      <c r="H1" s="16"/>
+      <c r="J1" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="34"/>
+      <c r="K1" s="16"/>
       <c r="M1" t="s">
         <v>87</v>
       </c>
@@ -1550,19 +1550,19 @@
         <f>B9</f>
         <v>Initial Camera Test</v>
       </c>
-      <c r="I3" s="35">
+      <c r="I3" s="18">
         <f>AVERAGE(AVERAGE(F3:F6),A5,AVERAGE(F3:F6),AVERAGE(F3:F6))</f>
         <v>0</v>
       </c>
-      <c r="J3" s="22" t="str">
+      <c r="J3" s="28" t="str">
         <f>B5</f>
         <v>Guidance Subsystem</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="17">
         <f>AVERAGE(AVERAGE(I3,I8,I16,I24,I29),A3,AVERAGE(I3,I8,I16,I24,I29),AVERAGE(I3,I8,I16,I24,I29))</f>
         <v>0</v>
       </c>
-      <c r="M3" s="17" t="str">
+      <c r="M3" s="23" t="str">
         <f>B3</f>
         <v>End of Semester Test Demo</v>
       </c>
@@ -1588,10 +1588,10 @@
         <f>B10</f>
         <v>Target Imaging</v>
       </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="23"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="29"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="24"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
@@ -1615,10 +1615,10 @@
         <v>Obstacle Perceived</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="23"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="29"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="24"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
@@ -1642,10 +1642,10 @@
         <v>Obstacle Map</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="24"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="30"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="24"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
@@ -1660,8 +1660,8 @@
       <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="18"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="24"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
@@ -1684,16 +1684,16 @@
         <f>B11</f>
         <v>Human Target ID</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="19">
         <f>AVERAGE(AVERAGE(F8:F14),A4,AVERAGE(F8:F14),AVERAGE(F8:F14))</f>
         <v>0</v>
       </c>
-      <c r="J8" s="25" t="str">
+      <c r="J8" s="31" t="str">
         <f>B4</f>
         <v>Tracking/ID Subsystem</v>
       </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="18"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="24"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
@@ -1719,10 +1719,10 @@
         <f t="shared" si="0"/>
         <v>Target Estimation</v>
       </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="26"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="18"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="32"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="24"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
@@ -1748,10 +1748,10 @@
         <f t="shared" si="0"/>
         <v>Multiple targets</v>
       </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="26"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="18"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="32"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="24"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
@@ -1777,10 +1777,10 @@
         <f t="shared" si="0"/>
         <v>Target Estimate Update</v>
       </c>
-      <c r="I11" s="37"/>
-      <c r="J11" s="26"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="18"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="32"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="24"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
@@ -1806,10 +1806,10 @@
         <f t="shared" si="1"/>
         <v>Target tag identification</v>
       </c>
-      <c r="I12" s="37"/>
-      <c r="J12" s="26"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="18"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="32"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="24"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
@@ -1835,10 +1835,10 @@
         <f t="shared" si="1"/>
         <v>Target Accuracy and Range</v>
       </c>
-      <c r="I13" s="37"/>
-      <c r="J13" s="26"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="18"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="32"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="24"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
@@ -1864,10 +1864,10 @@
         <f t="shared" si="1"/>
         <v>Unique Target Tags</v>
       </c>
-      <c r="I14" s="37"/>
-      <c r="J14" s="27"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="18"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="33"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="24"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
@@ -1885,8 +1885,8 @@
       <c r="E15" t="s">
         <v>85</v>
       </c>
-      <c r="L15" s="16"/>
-      <c r="M15" s="18"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="24"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
@@ -1909,16 +1909,16 @@
         <f t="shared" si="2"/>
         <v>Collision Correction</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="17">
         <f>AVERAGE(AVERAGE(F16:F22),A6,AVERAGE(F16:F22),AVERAGE(F16:F22))</f>
         <v>0</v>
       </c>
-      <c r="J16" s="31" t="str">
+      <c r="J16" s="37" t="str">
         <f>B6</f>
         <v>Planning Subsystem</v>
       </c>
-      <c r="L16" s="16"/>
-      <c r="M16" s="18"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="24"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
@@ -1941,10 +1941,10 @@
         <f t="shared" si="2"/>
         <v>Trajectory Test</v>
       </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="32"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="18"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="38"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="24"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
@@ -1970,10 +1970,10 @@
         <f t="shared" si="2"/>
         <v>Obstacle Avoidance</v>
       </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="32"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="18"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="38"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="24"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
@@ -1996,10 +1996,10 @@
         <f t="shared" si="3"/>
         <v>Delivery Zone</v>
       </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="32"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="18"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="38"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="24"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
@@ -2022,10 +2022,10 @@
         <f t="shared" si="3"/>
         <v>Payload Delivery</v>
       </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="32"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="18"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="38"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="24"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
@@ -2048,10 +2048,10 @@
         <f t="shared" si="3"/>
         <v>Receive &amp; Transmit Test</v>
       </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="32"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="18"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="38"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="24"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
@@ -2074,10 +2074,10 @@
         <f>B26</f>
         <v>Communications</v>
       </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="33"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="18"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="39"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="24"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
@@ -2092,8 +2092,8 @@
       <c r="D23" t="s">
         <v>61</v>
       </c>
-      <c r="L23" s="16"/>
-      <c r="M23" s="18"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="24"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
@@ -2116,16 +2116,16 @@
         <f t="shared" si="4"/>
         <v>Collision Correction</v>
       </c>
-      <c r="I24" s="38">
+      <c r="I24" s="21">
         <f>AVERAGE(AVERAGE(F24:F27),A7,AVERAGE(F24:F27),AVERAGE(F24:F27))</f>
         <v>0</v>
       </c>
-      <c r="J24" s="28" t="str">
+      <c r="J24" s="34" t="str">
         <f>B7</f>
         <v>Controls Subsystem</v>
       </c>
-      <c r="L24" s="16"/>
-      <c r="M24" s="18"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="24"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
@@ -2148,10 +2148,10 @@
         <f t="shared" si="4"/>
         <v>Trajectory Test</v>
       </c>
-      <c r="I25" s="39"/>
-      <c r="J25" s="29"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="18"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="35"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="24"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
@@ -2177,10 +2177,10 @@
         <f t="shared" si="4"/>
         <v>Obstacle Avoidance</v>
       </c>
-      <c r="I26" s="39"/>
-      <c r="J26" s="29"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="18"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="35"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="24"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
@@ -2203,10 +2203,10 @@
         <f>B19</f>
         <v>Autonomous Takeoff &amp; Landing</v>
       </c>
-      <c r="I27" s="39"/>
-      <c r="J27" s="30"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="18"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="36"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="24"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
@@ -2224,8 +2224,8 @@
       <c r="E28" t="s">
         <v>85</v>
       </c>
-      <c r="L28" s="16"/>
-      <c r="M28" s="18"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="24"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
@@ -2248,16 +2248,16 @@
         <f>B15</f>
         <v>Durataion</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="17">
         <f>AVERAGE(AVERAGE(F29:F30),A8,AVERAGE(F29:F30),AVERAGE(F29:F30))</f>
         <v>0</v>
       </c>
-      <c r="J29" s="20" t="str">
+      <c r="J29" s="26" t="str">
         <f>B8</f>
         <v>Hardware Subsystem</v>
       </c>
-      <c r="L29" s="16"/>
-      <c r="M29" s="18"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="24"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F30" s="12">
@@ -2268,10 +2268,10 @@
         <f>B20</f>
         <v>Payload</v>
       </c>
-      <c r="I30" s="16"/>
-      <c r="J30" s="21"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="19"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="27"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="25"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J31" s="13"/>
@@ -2279,6 +2279,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="L3:L30"/>
+    <mergeCell ref="M3:M30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="J8:J14"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="J16:J22"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="I29:I30"/>
@@ -2286,13 +2293,6 @@
     <mergeCell ref="I8:I14"/>
     <mergeCell ref="I24:I27"/>
     <mergeCell ref="I16:I22"/>
-    <mergeCell ref="L3:L30"/>
-    <mergeCell ref="M3:M30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="J3:J6"/>
-    <mergeCell ref="J8:J14"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="J16:J22"/>
   </mergeCells>
   <conditionalFormatting sqref="G3">
     <cfRule type="colorScale" priority="46">

--- a/Technical/Testing/TestPlan.xlsx
+++ b/Technical/Testing/TestPlan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="93">
   <si>
     <t>Test</t>
   </si>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t xml:space="preserve">Correctly locate targets 95% of time </t>
+  </si>
+  <si>
+    <t>Pushed To Next Semester</t>
   </si>
 </sst>
 </file>
@@ -340,12 +343,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="26">
@@ -675,7 +684,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -702,6 +711,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1465,7 +1477,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,14 +1497,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="J1" s="16" t="s">
+      <c r="H1" s="19"/>
+      <c r="J1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="16"/>
+      <c r="K1" s="19"/>
       <c r="M1" t="s">
         <v>87</v>
       </c>
@@ -1550,19 +1562,19 @@
         <f>B9</f>
         <v>Initial Camera Test</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="21">
         <f>AVERAGE(AVERAGE(F3:F6),A5,AVERAGE(F3:F6),AVERAGE(F3:F6))</f>
         <v>0</v>
       </c>
-      <c r="J3" s="28" t="str">
+      <c r="J3" s="31" t="str">
         <f>B5</f>
         <v>Guidance Subsystem</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="20">
         <f>AVERAGE(AVERAGE(I3,I8,I16,I24,I29),A3,AVERAGE(I3,I8,I16,I24,I29),AVERAGE(I3,I8,I16,I24,I29))</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="23" t="str">
+        <v>1.4062499999999999E-2</v>
+      </c>
+      <c r="M3" s="26" t="str">
         <f>B3</f>
         <v>End of Semester Test Demo</v>
       </c>
@@ -1588,10 +1600,10 @@
         <f>B10</f>
         <v>Target Imaging</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="29"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="24"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="32"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="27"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
@@ -1615,10 +1627,10 @@
         <v>Obstacle Perceived</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="29"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="24"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="32"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="27"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
@@ -1642,10 +1654,10 @@
         <v>Obstacle Map</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="30"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="24"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="33"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="27"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
@@ -1660,8 +1672,8 @@
       <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="17"/>
-      <c r="M7" s="24"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="27"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
@@ -1684,16 +1696,16 @@
         <f>B11</f>
         <v>Human Target ID</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="22">
         <f>AVERAGE(AVERAGE(F8:F14),A4,AVERAGE(F8:F14),AVERAGE(F8:F14))</f>
         <v>0</v>
       </c>
-      <c r="J8" s="31" t="str">
+      <c r="J8" s="34" t="str">
         <f>B4</f>
         <v>Tracking/ID Subsystem</v>
       </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="24"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
@@ -1719,10 +1731,10 @@
         <f t="shared" si="0"/>
         <v>Target Estimation</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="32"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="24"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="35"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="27"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
@@ -1748,10 +1760,10 @@
         <f t="shared" si="0"/>
         <v>Multiple targets</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="32"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="24"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="35"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="27"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
@@ -1777,10 +1789,10 @@
         <f t="shared" si="0"/>
         <v>Target Estimate Update</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="32"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="24"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="35"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="27"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
@@ -1806,10 +1818,10 @@
         <f t="shared" si="1"/>
         <v>Target tag identification</v>
       </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="32"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="24"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="35"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="27"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
@@ -1835,10 +1847,10 @@
         <f t="shared" si="1"/>
         <v>Target Accuracy and Range</v>
       </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="32"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="24"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="35"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="27"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
@@ -1864,10 +1876,10 @@
         <f t="shared" si="1"/>
         <v>Unique Target Tags</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="33"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="24"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="36"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="27"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
@@ -1885,8 +1897,8 @@
       <c r="E15" t="s">
         <v>85</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="24"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="27"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
@@ -1909,16 +1921,16 @@
         <f t="shared" si="2"/>
         <v>Collision Correction</v>
       </c>
-      <c r="I16" s="17">
-        <f>AVERAGE(AVERAGE(F16:F22),A6,AVERAGE(F16:F22),AVERAGE(F16:F22))</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="37" t="str">
+      <c r="I16" s="20">
+        <f>AVERAGE(AVERAGE(F16:F21),A6,AVERAGE(F16:F21),AVERAGE(F16:F21))</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="40" t="str">
         <f>B6</f>
         <v>Planning Subsystem</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="24"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="27"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
@@ -1941,10 +1953,10 @@
         <f t="shared" si="2"/>
         <v>Trajectory Test</v>
       </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="38"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="24"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="41"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="27"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
@@ -1970,14 +1982,14 @@
         <f t="shared" si="2"/>
         <v>Obstacle Avoidance</v>
       </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="38"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="24"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="41"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="27"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>48</v>
@@ -1996,10 +2008,10 @@
         <f t="shared" si="3"/>
         <v>Delivery Zone</v>
       </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="38"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="24"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="41"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="27"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
@@ -2015,17 +2027,16 @@
         <v>50</v>
       </c>
       <c r="F20" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>Payload Delivery</v>
-      </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="38"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="24"/>
+        <f>A26</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="20"/>
+      <c r="J20" s="41"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="27"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
@@ -2048,16 +2059,16 @@
         <f t="shared" si="3"/>
         <v>Receive &amp; Transmit Test</v>
       </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="38"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="24"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="41"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="27"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>0</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="16" t="s">
         <v>56</v>
       </c>
       <c r="C22" t="s">
@@ -2067,17 +2078,16 @@
         <v>58</v>
       </c>
       <c r="F22" s="12">
-        <f>A26</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="7" t="str">
-        <f>B26</f>
-        <v>Communications</v>
-      </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="39"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="24"/>
+        <f>A22</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="20"/>
+      <c r="J22" s="42"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="27"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
@@ -2092,8 +2102,8 @@
       <c r="D23" t="s">
         <v>61</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="24"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="27"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
@@ -2116,16 +2126,16 @@
         <f t="shared" si="4"/>
         <v>Collision Correction</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="24">
         <f>AVERAGE(AVERAGE(F24:F27),A7,AVERAGE(F24:F27),AVERAGE(F24:F27))</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="34" t="str">
+        <v>9.375E-2</v>
+      </c>
+      <c r="J24" s="37" t="str">
         <f>B7</f>
         <v>Controls Subsystem</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="24"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="27"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
@@ -2148,10 +2158,10 @@
         <f t="shared" si="4"/>
         <v>Trajectory Test</v>
       </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="35"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="24"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="38"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="27"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
@@ -2177,10 +2187,10 @@
         <f t="shared" si="4"/>
         <v>Obstacle Avoidance</v>
       </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="35"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="24"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="38"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="27"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
@@ -2197,16 +2207,16 @@
       </c>
       <c r="F27" s="12">
         <f>A19</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G27" s="8" t="str">
         <f>B19</f>
         <v>Autonomous Takeoff &amp; Landing</v>
       </c>
-      <c r="I27" s="22"/>
-      <c r="J27" s="36"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="24"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="39"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="27"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
@@ -2224,8 +2234,8 @@
       <c r="E28" t="s">
         <v>85</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="24"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="27"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
@@ -2248,16 +2258,16 @@
         <f>B15</f>
         <v>Durataion</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="20">
         <f>AVERAGE(AVERAGE(F29:F30),A8,AVERAGE(F29:F30),AVERAGE(F29:F30))</f>
         <v>0</v>
       </c>
-      <c r="J29" s="26" t="str">
+      <c r="J29" s="29" t="str">
         <f>B8</f>
         <v>Hardware Subsystem</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="24"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="27"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F30" s="12">
@@ -2268,12 +2278,15 @@
         <f>B20</f>
         <v>Payload</v>
       </c>
-      <c r="I30" s="17"/>
-      <c r="J30" s="27"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="25"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="30"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="28"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="17" t="s">
+        <v>92</v>
+      </c>
       <c r="J31" s="13"/>
       <c r="M31" s="13"/>
     </row>

--- a/Technical/Testing/TestPlan.xlsx
+++ b/Technical/Testing/TestPlan.xlsx
@@ -714,12 +714,63 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -733,57 +784,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1477,7 +1477,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1497,14 +1497,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="J1" s="19" t="s">
+      <c r="H1" s="37"/>
+      <c r="J1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="19"/>
+      <c r="K1" s="37"/>
       <c r="M1" t="s">
         <v>87</v>
       </c>
@@ -1556,25 +1556,25 @@
       </c>
       <c r="F3" s="12">
         <f>A9</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G3" s="3" t="str">
         <f>B9</f>
         <v>Initial Camera Test</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="38">
         <f>AVERAGE(AVERAGE(F3:F6),A5,AVERAGE(F3:F6),AVERAGE(F3:F6))</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="31" t="str">
+        <v>0.13124999999999998</v>
+      </c>
+      <c r="J3" s="25" t="str">
         <f>B5</f>
         <v>Guidance Subsystem</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="19">
         <f>AVERAGE(AVERAGE(I3,I8,I16,I24,I29),A3,AVERAGE(I3,I8,I16,I24,I29),AVERAGE(I3,I8,I16,I24,I29))</f>
-        <v>1.4062499999999999E-2</v>
-      </c>
-      <c r="M3" s="26" t="str">
+        <v>9.2678571428571443E-2</v>
+      </c>
+      <c r="M3" s="20" t="str">
         <f>B3</f>
         <v>End of Semester Test Demo</v>
       </c>
@@ -1600,10 +1600,10 @@
         <f>B10</f>
         <v>Target Imaging</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="32"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="27"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="26"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="21"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
@@ -1620,17 +1620,17 @@
       </c>
       <c r="F5" s="12">
         <f>A24</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G5" s="4" t="str">
         <f>B24</f>
         <v>Obstacle Perceived</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="32"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="27"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="26"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="21"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="F6" s="12">
         <f>A25</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G6" s="4" t="str">
         <f>B25</f>
         <v>Obstacle Map</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="33"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="27"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="27"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="21"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
@@ -1672,8 +1672,8 @@
       <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="20"/>
-      <c r="M7" s="27"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="21"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
@@ -1696,20 +1696,20 @@
         <f>B11</f>
         <v>Human Target ID</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="39">
         <f>AVERAGE(AVERAGE(F8:F14),A4,AVERAGE(F8:F14),AVERAGE(F8:F14))</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="34" t="str">
+        <v>8.0357142857142849E-2</v>
+      </c>
+      <c r="J8" s="28" t="str">
         <f>B4</f>
         <v>Tracking/ID Subsystem</v>
       </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="27"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="21"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>19</v>
@@ -1725,16 +1725,16 @@
       </c>
       <c r="F9" s="12">
         <f t="shared" ref="F9:G11" si="0">A16</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Target Estimation</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="35"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="27"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="29"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="21"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
@@ -1754,16 +1754,16 @@
       </c>
       <c r="F10" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Multiple targets</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="35"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="27"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="29"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="21"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
@@ -1789,10 +1789,10 @@
         <f t="shared" si="0"/>
         <v>Target Estimate Update</v>
       </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="35"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="27"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="29"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="21"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
@@ -1818,14 +1818,14 @@
         <f t="shared" si="1"/>
         <v>Target tag identification</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="35"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="27"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="29"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="21"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>30</v>
@@ -1841,16 +1841,16 @@
       </c>
       <c r="F13" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G13" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Target Accuracy and Range</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="35"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="27"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="29"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="21"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
@@ -1876,14 +1876,14 @@
         <f t="shared" si="1"/>
         <v>Unique Target Tags</v>
       </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="36"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="27"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="30"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="21"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>36</v>
@@ -1897,12 +1897,12 @@
       <c r="E15" t="s">
         <v>85</v>
       </c>
-      <c r="L15" s="20"/>
-      <c r="M15" s="27"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="21"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>39</v>
@@ -1921,20 +1921,20 @@
         <f t="shared" si="2"/>
         <v>Collision Correction</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="19">
         <f>AVERAGE(AVERAGE(F16:F21),A6,AVERAGE(F16:F21),AVERAGE(F16:F21))</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="40" t="str">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="J16" s="34" t="str">
         <f>B6</f>
         <v>Planning Subsystem</v>
       </c>
-      <c r="L16" s="20"/>
-      <c r="M16" s="27"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="21"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>42</v>
@@ -1947,16 +1947,16 @@
       </c>
       <c r="F17" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G17" s="7" t="str">
         <f t="shared" si="2"/>
         <v>Trajectory Test</v>
       </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="41"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="27"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="35"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="21"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
@@ -1982,10 +1982,10 @@
         <f t="shared" si="2"/>
         <v>Obstacle Avoidance</v>
       </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="41"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="27"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="35"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="21"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
@@ -2008,14 +2008,14 @@
         <f t="shared" si="3"/>
         <v>Delivery Zone</v>
       </c>
-      <c r="I19" s="20"/>
-      <c r="J19" s="41"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="27"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="35"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="21"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>51</v>
@@ -2033,10 +2033,10 @@
       <c r="G20" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="41"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="27"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="35"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="21"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
@@ -2059,10 +2059,10 @@
         <f t="shared" si="3"/>
         <v>Receive &amp; Transmit Test</v>
       </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="41"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="27"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="35"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="21"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
@@ -2084,10 +2084,10 @@
       <c r="G22" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="42"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="27"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="36"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="21"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
@@ -2102,12 +2102,12 @@
       <c r="D23" t="s">
         <v>61</v>
       </c>
-      <c r="L23" s="20"/>
-      <c r="M23" s="27"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="21"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>62</v>
@@ -2126,20 +2126,20 @@
         <f t="shared" si="4"/>
         <v>Collision Correction</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I24" s="41">
         <f>AVERAGE(AVERAGE(F24:F27),A7,AVERAGE(F24:F27),AVERAGE(F24:F27))</f>
-        <v>9.375E-2</v>
-      </c>
-      <c r="J24" s="37" t="str">
+        <v>0.11249999999999999</v>
+      </c>
+      <c r="J24" s="31" t="str">
         <f>B7</f>
         <v>Controls Subsystem</v>
       </c>
-      <c r="L24" s="20"/>
-      <c r="M24" s="27"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="21"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>65</v>
@@ -2152,16 +2152,16 @@
       </c>
       <c r="F25" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G25" s="8" t="str">
         <f t="shared" si="4"/>
         <v>Trajectory Test</v>
       </c>
-      <c r="I25" s="25"/>
-      <c r="J25" s="38"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="27"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="32"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="21"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
@@ -2187,10 +2187,10 @@
         <f t="shared" si="4"/>
         <v>Obstacle Avoidance</v>
       </c>
-      <c r="I26" s="25"/>
-      <c r="J26" s="38"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="27"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="32"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="21"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
@@ -2213,14 +2213,14 @@
         <f>B19</f>
         <v>Autonomous Takeoff &amp; Landing</v>
       </c>
-      <c r="I27" s="25"/>
-      <c r="J27" s="39"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="27"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="33"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="21"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>74</v>
@@ -2234,8 +2234,8 @@
       <c r="E28" t="s">
         <v>85</v>
       </c>
-      <c r="L28" s="20"/>
-      <c r="M28" s="27"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="21"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
@@ -2252,36 +2252,36 @@
       </c>
       <c r="F29" s="12">
         <f>A15</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G29" s="9" t="str">
         <f>B15</f>
         <v>Durataion</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I29" s="19">
         <f>AVERAGE(AVERAGE(F29:F30),A8,AVERAGE(F29:F30),AVERAGE(F29:F30))</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="29" t="str">
+        <v>0.28125</v>
+      </c>
+      <c r="J29" s="23" t="str">
         <f>B8</f>
         <v>Hardware Subsystem</v>
       </c>
-      <c r="L29" s="20"/>
-      <c r="M29" s="27"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="21"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F30" s="12">
         <f>A20</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G30" s="9" t="str">
         <f>B20</f>
         <v>Payload</v>
       </c>
-      <c r="I30" s="20"/>
-      <c r="J30" s="30"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="28"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="24"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="22"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" s="17" t="s">
@@ -2292,6 +2292,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="I8:I14"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="I16:I22"/>
     <mergeCell ref="L3:L30"/>
     <mergeCell ref="M3:M30"/>
     <mergeCell ref="J29:J30"/>
@@ -2299,13 +2306,6 @@
     <mergeCell ref="J8:J14"/>
     <mergeCell ref="J24:J27"/>
     <mergeCell ref="J16:J22"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="I8:I14"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="I16:I22"/>
   </mergeCells>
   <conditionalFormatting sqref="G3">
     <cfRule type="colorScale" priority="46">

--- a/Technical/Testing/TestPlan.xlsx
+++ b/Technical/Testing/TestPlan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="95">
   <si>
     <t>Test</t>
   </si>
@@ -305,6 +305,12 @@
   </si>
   <si>
     <t>Pushed To Next Semester</t>
+  </si>
+  <si>
+    <t>Receive and Transmit Test</t>
+  </si>
+  <si>
+    <t>Target Tag Identification</t>
   </si>
 </sst>
 </file>
@@ -684,7 +690,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -714,9 +720,27 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -768,24 +792,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1477,7 +1484,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1497,14 +1504,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="J1" s="37" t="s">
+      <c r="H1" s="19"/>
+      <c r="J1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="37"/>
+      <c r="K1" s="19"/>
       <c r="M1" t="s">
         <v>87</v>
       </c>
@@ -1556,25 +1563,25 @@
       </c>
       <c r="F3" s="12">
         <f>A9</f>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G3" s="3" t="str">
         <f>B9</f>
         <v>Initial Camera Test</v>
       </c>
-      <c r="I3" s="38">
+      <c r="I3" s="21">
         <f>AVERAGE(AVERAGE(F3:F6),A5,AVERAGE(F3:F6),AVERAGE(F3:F6))</f>
-        <v>0.13124999999999998</v>
-      </c>
-      <c r="J3" s="25" t="str">
+        <v>0.1875</v>
+      </c>
+      <c r="J3" s="31" t="str">
         <f>B5</f>
         <v>Guidance Subsystem</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="20">
         <f>AVERAGE(AVERAGE(I3,I8,I16,I24,I29),A3,AVERAGE(I3,I8,I16,I24,I29),AVERAGE(I3,I8,I16,I24,I29))</f>
-        <v>9.2678571428571443E-2</v>
-      </c>
-      <c r="M3" s="20" t="str">
+        <v>0.14774999999999999</v>
+      </c>
+      <c r="M3" s="26" t="str">
         <f>B3</f>
         <v>End of Semester Test Demo</v>
       </c>
@@ -1594,16 +1601,16 @@
       </c>
       <c r="F4" s="12">
         <f>A10</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G4" s="4" t="str">
         <f>B10</f>
         <v>Target Imaging</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="26"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="32"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="27"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
@@ -1627,10 +1634,10 @@
         <v>Obstacle Perceived</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="26"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="32"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="27"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
@@ -1654,10 +1661,10 @@
         <v>Obstacle Map</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="27"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="33"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="27"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
@@ -1672,12 +1679,12 @@
       <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="21"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="27"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>9</v>
@@ -1690,26 +1697,26 @@
       </c>
       <c r="F8" s="12">
         <f>A11</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G8" s="6" t="str">
         <f>B11</f>
         <v>Human Target ID</v>
       </c>
-      <c r="I8" s="39">
-        <f>AVERAGE(AVERAGE(F8:F14),A4,AVERAGE(F8:F14),AVERAGE(F8:F14))</f>
-        <v>8.0357142857142849E-2</v>
-      </c>
-      <c r="J8" s="28" t="str">
+      <c r="I8" s="22">
+        <f>AVERAGE(AVERAGE(F8:F12),A4,AVERAGE(F8:F12),AVERAGE(F8:F12))</f>
+        <v>0.14250000000000002</v>
+      </c>
+      <c r="J8" s="34" t="str">
         <f>B4</f>
         <v>Tracking/ID Subsystem</v>
       </c>
-      <c r="L8" s="19"/>
-      <c r="M8" s="21"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>19</v>
@@ -1731,14 +1738,14 @@
         <f t="shared" si="0"/>
         <v>Target Estimation</v>
       </c>
-      <c r="I9" s="40"/>
-      <c r="J9" s="29"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="21"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="35"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="27"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>22</v>
@@ -1760,14 +1767,14 @@
         <f t="shared" si="0"/>
         <v>Multiple targets</v>
       </c>
-      <c r="I10" s="40"/>
-      <c r="J10" s="29"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="21"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="35"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="27"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>24</v>
@@ -1783,20 +1790,20 @@
       </c>
       <c r="F11" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="G11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Target Estimate Update</v>
       </c>
-      <c r="I11" s="40"/>
-      <c r="J11" s="29"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="21"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="35"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="27"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>33</v>
@@ -1811,17 +1818,17 @@
         <v>85</v>
       </c>
       <c r="F12" s="12">
-        <f t="shared" ref="F12:G14" si="1">A27</f>
-        <v>0</v>
+        <f>A28</f>
+        <v>0.25</v>
       </c>
       <c r="G12" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Target tag identification</v>
-      </c>
-      <c r="I12" s="40"/>
-      <c r="J12" s="29"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="21"/>
+        <f>B28</f>
+        <v>Target Accuracy and Range</v>
+      </c>
+      <c r="I12" s="23"/>
+      <c r="J12" s="35"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="27"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
@@ -1840,21 +1847,20 @@
         <v>85</v>
       </c>
       <c r="F13" s="12">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="G13" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Target Accuracy and Range</v>
-      </c>
-      <c r="I13" s="40"/>
-      <c r="J13" s="29"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="21"/>
+        <f>A27</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="35"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="27"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>27</v>
@@ -1869,17 +1875,17 @@
         <v>85</v>
       </c>
       <c r="F14" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F12:G14" si="1">A29</f>
         <v>0</v>
       </c>
-      <c r="G14" s="6" t="str">
+      <c r="G14" s="43" t="str">
         <f t="shared" si="1"/>
         <v>Unique Target Tags</v>
       </c>
-      <c r="I14" s="40"/>
-      <c r="J14" s="30"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="21"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="36"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="27"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
@@ -1897,8 +1903,8 @@
       <c r="E15" t="s">
         <v>85</v>
       </c>
-      <c r="L15" s="19"/>
-      <c r="M15" s="21"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="27"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
@@ -1915,22 +1921,22 @@
       </c>
       <c r="F16" s="12">
         <f t="shared" ref="F16:G18" si="2">A12</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G16" s="7" t="str">
         <f t="shared" si="2"/>
         <v>Collision Correction</v>
       </c>
-      <c r="I16" s="19">
-        <f>AVERAGE(AVERAGE(F16:F21),A6,AVERAGE(F16:F21),AVERAGE(F16:F21))</f>
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="J16" s="34" t="str">
+      <c r="I16" s="20">
+        <f>AVERAGE(AVERAGE(F16:F20),A6,AVERAGE(F16:F20),AVERAGE(F16:F20))</f>
+        <v>0.10499999999999998</v>
+      </c>
+      <c r="J16" s="40" t="str">
         <f>B6</f>
         <v>Planning Subsystem</v>
       </c>
-      <c r="L16" s="19"/>
-      <c r="M16" s="21"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="27"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
@@ -1953,14 +1959,14 @@
         <f t="shared" si="2"/>
         <v>Trajectory Test</v>
       </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="35"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="21"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="41"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="27"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>45</v>
@@ -1976,16 +1982,16 @@
       </c>
       <c r="F18" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G18" s="7" t="str">
         <f t="shared" si="2"/>
         <v>Obstacle Avoidance</v>
       </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="35"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="21"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="41"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="27"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
@@ -2001,17 +2007,16 @@
         <v>50</v>
       </c>
       <c r="F19" s="12">
-        <f t="shared" ref="F19:G21" si="3">A21</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>Delivery Zone</v>
-      </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="35"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="21"/>
+        <f>A23</f>
+        <v>0.1</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19" s="20"/>
+      <c r="J19" s="41"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="27"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
@@ -2033,16 +2038,16 @@
       <c r="G20" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="35"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="21"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="41"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="27"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>0</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C21" t="s">
@@ -2052,17 +2057,17 @@
         <v>55</v>
       </c>
       <c r="F21" s="12">
-        <f t="shared" si="3"/>
+        <f>A21</f>
         <v>0</v>
       </c>
-      <c r="G21" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>Receive &amp; Transmit Test</v>
-      </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="35"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="21"/>
+      <c r="G21" s="18" t="str">
+        <f>B21</f>
+        <v>Delivery Zone</v>
+      </c>
+      <c r="I21" s="20"/>
+      <c r="J21" s="41"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="27"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
@@ -2084,14 +2089,14 @@
       <c r="G22" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="36"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="21"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="42"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="27"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>59</v>
@@ -2102,8 +2107,8 @@
       <c r="D23" t="s">
         <v>61</v>
       </c>
-      <c r="L23" s="19"/>
-      <c r="M23" s="21"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="27"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
@@ -2119,23 +2124,23 @@
         <v>64</v>
       </c>
       <c r="F24" s="12">
-        <f t="shared" ref="F24:G26" si="4">A12</f>
-        <v>0</v>
+        <f t="shared" ref="F24:G26" si="3">A12</f>
+        <v>0.25</v>
       </c>
       <c r="G24" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Collision Correction</v>
       </c>
-      <c r="I24" s="41">
+      <c r="I24" s="24">
         <f>AVERAGE(AVERAGE(F24:F27),A7,AVERAGE(F24:F27),AVERAGE(F24:F27))</f>
-        <v>0.11249999999999999</v>
-      </c>
-      <c r="J24" s="31" t="str">
+        <v>0.20625000000000002</v>
+      </c>
+      <c r="J24" s="37" t="str">
         <f>B7</f>
         <v>Controls Subsystem</v>
       </c>
-      <c r="L24" s="19"/>
-      <c r="M24" s="21"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="27"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
@@ -2151,17 +2156,17 @@
         <v>67</v>
       </c>
       <c r="F25" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="G25" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Trajectory Test</v>
       </c>
-      <c r="I25" s="42"/>
-      <c r="J25" s="32"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="21"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="38"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="27"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
@@ -2180,23 +2185,23 @@
         <v>85</v>
       </c>
       <c r="F26" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.25</v>
       </c>
       <c r="G26" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Obstacle Avoidance</v>
       </c>
-      <c r="I26" s="42"/>
-      <c r="J26" s="32"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="21"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="38"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="27"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>0</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C27" t="s">
@@ -2213,10 +2218,10 @@
         <f>B19</f>
         <v>Autonomous Takeoff &amp; Landing</v>
       </c>
-      <c r="I27" s="42"/>
-      <c r="J27" s="33"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="21"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="39"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="27"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
@@ -2234,14 +2239,14 @@
       <c r="E28" t="s">
         <v>85</v>
       </c>
-      <c r="L28" s="19"/>
-      <c r="M28" s="21"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="27"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>0</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="16" t="s">
         <v>77</v>
       </c>
       <c r="C29" t="s">
@@ -2258,16 +2263,16 @@
         <f>B15</f>
         <v>Durataion</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="20">
         <f>AVERAGE(AVERAGE(F29:F30),A8,AVERAGE(F29:F30),AVERAGE(F29:F30))</f>
-        <v>0.28125</v>
-      </c>
-      <c r="J29" s="23" t="str">
+        <v>0.34375</v>
+      </c>
+      <c r="J29" s="29" t="str">
         <f>B8</f>
         <v>Hardware Subsystem</v>
       </c>
-      <c r="L29" s="19"/>
-      <c r="M29" s="21"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="27"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F30" s="12">
@@ -2278,10 +2283,10 @@
         <f>B20</f>
         <v>Payload</v>
       </c>
-      <c r="I30" s="19"/>
-      <c r="J30" s="24"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="22"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="30"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="28"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" s="17" t="s">
@@ -2292,6 +2297,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="L3:L30"/>
+    <mergeCell ref="M3:M30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="J8:J14"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="J16:J22"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="I29:I30"/>
@@ -2299,13 +2311,6 @@
     <mergeCell ref="I8:I14"/>
     <mergeCell ref="I24:I27"/>
     <mergeCell ref="I16:I22"/>
-    <mergeCell ref="L3:L30"/>
-    <mergeCell ref="M3:M30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="J3:J6"/>
-    <mergeCell ref="J8:J14"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="J16:J22"/>
   </mergeCells>
   <conditionalFormatting sqref="G3">
     <cfRule type="colorScale" priority="46">

--- a/Technical/Testing/TestPlan.xlsx
+++ b/Technical/Testing/TestPlan.xlsx
@@ -295,9 +295,6 @@
     <t>November 19- December 2</t>
   </si>
   <si>
-    <t>Current-November 18</t>
-  </si>
-  <si>
     <t>End of Semester Test Demo</t>
   </si>
   <si>
@@ -311,6 +308,9 @@
   </si>
   <si>
     <t>Target Tag Identification</t>
+  </si>
+  <si>
+    <t>Current</t>
   </si>
 </sst>
 </file>
@@ -720,12 +720,64 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -741,58 +793,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1484,7 +1484,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,14 +1504,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G1" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" s="19"/>
-      <c r="J1" s="19" t="s">
+      <c r="G1" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="38"/>
+      <c r="J1" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="19"/>
+      <c r="K1" s="38"/>
       <c r="M1" t="s">
         <v>87</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -1569,19 +1569,19 @@
         <f>B9</f>
         <v>Initial Camera Test</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="39">
         <f>AVERAGE(AVERAGE(F3:F6),A5,AVERAGE(F3:F6),AVERAGE(F3:F6))</f>
         <v>0.1875</v>
       </c>
-      <c r="J3" s="31" t="str">
+      <c r="J3" s="26" t="str">
         <f>B5</f>
         <v>Guidance Subsystem</v>
       </c>
       <c r="L3" s="20">
         <f>AVERAGE(AVERAGE(I3,I8,I16,I24,I29),A3,AVERAGE(I3,I8,I16,I24,I29),AVERAGE(I3,I8,I16,I24,I29))</f>
-        <v>0.14774999999999999</v>
-      </c>
-      <c r="M3" s="26" t="str">
+        <v>0.15168749999999998</v>
+      </c>
+      <c r="M3" s="21" t="str">
         <f>B3</f>
         <v>End of Semester Test Demo</v>
       </c>
@@ -1607,10 +1607,10 @@
         <f>B10</f>
         <v>Target Imaging</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="32"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="27"/>
       <c r="L4" s="20"/>
-      <c r="M4" s="27"/>
+      <c r="M4" s="22"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
@@ -1634,10 +1634,10 @@
         <v>Obstacle Perceived</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="32"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="27"/>
       <c r="L5" s="20"/>
-      <c r="M5" s="27"/>
+      <c r="M5" s="22"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
@@ -1661,10 +1661,10 @@
         <v>Obstacle Map</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="33"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="28"/>
       <c r="L6" s="20"/>
-      <c r="M6" s="27"/>
+      <c r="M6" s="22"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
@@ -1680,7 +1680,7 @@
         <v>17</v>
       </c>
       <c r="L7" s="20"/>
-      <c r="M7" s="27"/>
+      <c r="M7" s="22"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
@@ -1703,16 +1703,16 @@
         <f>B11</f>
         <v>Human Target ID</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="40">
         <f>AVERAGE(AVERAGE(F8:F12),A4,AVERAGE(F8:F12),AVERAGE(F8:F12))</f>
         <v>0.14250000000000002</v>
       </c>
-      <c r="J8" s="34" t="str">
+      <c r="J8" s="29" t="str">
         <f>B4</f>
         <v>Tracking/ID Subsystem</v>
       </c>
       <c r="L8" s="20"/>
-      <c r="M8" s="27"/>
+      <c r="M8" s="22"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
@@ -1738,10 +1738,10 @@
         <f t="shared" si="0"/>
         <v>Target Estimation</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="35"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="30"/>
       <c r="L9" s="20"/>
-      <c r="M9" s="27"/>
+      <c r="M9" s="22"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
@@ -1754,7 +1754,7 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
         <v>85</v>
@@ -1767,10 +1767,10 @@
         <f t="shared" si="0"/>
         <v>Multiple targets</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="35"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="30"/>
       <c r="L10" s="20"/>
-      <c r="M10" s="27"/>
+      <c r="M10" s="22"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
@@ -1796,10 +1796,10 @@
         <f t="shared" si="0"/>
         <v>Target Estimate Update</v>
       </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="35"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="30"/>
       <c r="L11" s="20"/>
-      <c r="M11" s="27"/>
+      <c r="M11" s="22"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
@@ -1825,10 +1825,10 @@
         <f>B28</f>
         <v>Target Accuracy and Range</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="35"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="30"/>
       <c r="L12" s="20"/>
-      <c r="M12" s="27"/>
+      <c r="M12" s="22"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
@@ -1850,13 +1850,13 @@
         <f>A27</f>
         <v>0</v>
       </c>
-      <c r="G13" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="35"/>
+      <c r="G13" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="41"/>
+      <c r="J13" s="30"/>
       <c r="L13" s="20"/>
-      <c r="M13" s="27"/>
+      <c r="M13" s="22"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
@@ -1875,17 +1875,17 @@
         <v>85</v>
       </c>
       <c r="F14" s="12">
-        <f t="shared" ref="F12:G14" si="1">A29</f>
+        <f t="shared" ref="F14:G14" si="1">A29</f>
         <v>0</v>
       </c>
-      <c r="G14" s="43" t="str">
+      <c r="G14" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Unique Target Tags</v>
       </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="36"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="31"/>
       <c r="L14" s="20"/>
-      <c r="M14" s="27"/>
+      <c r="M14" s="22"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
@@ -1904,7 +1904,7 @@
         <v>85</v>
       </c>
       <c r="L15" s="20"/>
-      <c r="M15" s="27"/>
+      <c r="M15" s="22"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
@@ -1928,15 +1928,15 @@
         <v>Collision Correction</v>
       </c>
       <c r="I16" s="20">
-        <f>AVERAGE(AVERAGE(F16:F20),A6,AVERAGE(F16:F20),AVERAGE(F16:F20))</f>
-        <v>0.10499999999999998</v>
-      </c>
-      <c r="J16" s="40" t="str">
+        <f>AVERAGE(AVERAGE(F16:F19),A6,AVERAGE(F16:F19),AVERAGE(F16:F19))</f>
+        <v>0.13124999999999998</v>
+      </c>
+      <c r="J16" s="35" t="str">
         <f>B6</f>
         <v>Planning Subsystem</v>
       </c>
       <c r="L16" s="20"/>
-      <c r="M16" s="27"/>
+      <c r="M16" s="22"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
@@ -1960,9 +1960,9 @@
         <v>Trajectory Test</v>
       </c>
       <c r="I17" s="20"/>
-      <c r="J17" s="41"/>
+      <c r="J17" s="36"/>
       <c r="L17" s="20"/>
-      <c r="M17" s="27"/>
+      <c r="M17" s="22"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
@@ -1989,9 +1989,9 @@
         <v>Obstacle Avoidance</v>
       </c>
       <c r="I18" s="20"/>
-      <c r="J18" s="41"/>
+      <c r="J18" s="36"/>
       <c r="L18" s="20"/>
-      <c r="M18" s="27"/>
+      <c r="M18" s="22"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
@@ -2011,12 +2011,12 @@
         <v>0.1</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I19" s="20"/>
-      <c r="J19" s="41"/>
+      <c r="J19" s="36"/>
       <c r="L19" s="20"/>
-      <c r="M19" s="27"/>
+      <c r="M19" s="22"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
@@ -2035,13 +2035,13 @@
         <f>A26</f>
         <v>0</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="18" t="s">
         <v>68</v>
       </c>
       <c r="I20" s="20"/>
-      <c r="J20" s="41"/>
+      <c r="J20" s="36"/>
       <c r="L20" s="20"/>
-      <c r="M20" s="27"/>
+      <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
@@ -2065,9 +2065,9 @@
         <v>Delivery Zone</v>
       </c>
       <c r="I21" s="20"/>
-      <c r="J21" s="41"/>
+      <c r="J21" s="36"/>
       <c r="L21" s="20"/>
-      <c r="M21" s="27"/>
+      <c r="M21" s="22"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
@@ -2090,15 +2090,15 @@
         <v>56</v>
       </c>
       <c r="I22" s="20"/>
-      <c r="J22" s="42"/>
+      <c r="J22" s="37"/>
       <c r="L22" s="20"/>
-      <c r="M22" s="27"/>
+      <c r="M22" s="22"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>0.1</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>59</v>
       </c>
       <c r="C23" t="s">
@@ -2108,7 +2108,7 @@
         <v>61</v>
       </c>
       <c r="L23" s="20"/>
-      <c r="M23" s="27"/>
+      <c r="M23" s="22"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
@@ -2131,16 +2131,16 @@
         <f t="shared" si="3"/>
         <v>Collision Correction</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I24" s="42">
         <f>AVERAGE(AVERAGE(F24:F27),A7,AVERAGE(F24:F27),AVERAGE(F24:F27))</f>
         <v>0.20625000000000002</v>
       </c>
-      <c r="J24" s="37" t="str">
+      <c r="J24" s="32" t="str">
         <f>B7</f>
         <v>Controls Subsystem</v>
       </c>
       <c r="L24" s="20"/>
-      <c r="M24" s="27"/>
+      <c r="M24" s="22"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
@@ -2163,16 +2163,16 @@
         <f t="shared" si="3"/>
         <v>Trajectory Test</v>
       </c>
-      <c r="I25" s="25"/>
-      <c r="J25" s="38"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="33"/>
       <c r="L25" s="20"/>
-      <c r="M25" s="27"/>
+      <c r="M25" s="22"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>0</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="16" t="s">
         <v>68</v>
       </c>
       <c r="C26" t="s">
@@ -2192,10 +2192,10 @@
         <f t="shared" si="3"/>
         <v>Obstacle Avoidance</v>
       </c>
-      <c r="I26" s="25"/>
-      <c r="J26" s="38"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="33"/>
       <c r="L26" s="20"/>
-      <c r="M26" s="27"/>
+      <c r="M26" s="22"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
@@ -2218,10 +2218,10 @@
         <f>B19</f>
         <v>Autonomous Takeoff &amp; Landing</v>
       </c>
-      <c r="I27" s="25"/>
-      <c r="J27" s="39"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="34"/>
       <c r="L27" s="20"/>
-      <c r="M27" s="27"/>
+      <c r="M27" s="22"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
@@ -2240,7 +2240,7 @@
         <v>85</v>
       </c>
       <c r="L28" s="20"/>
-      <c r="M28" s="27"/>
+      <c r="M28" s="22"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
@@ -2267,12 +2267,12 @@
         <f>AVERAGE(AVERAGE(F29:F30),A8,AVERAGE(F29:F30),AVERAGE(F29:F30))</f>
         <v>0.34375</v>
       </c>
-      <c r="J29" s="29" t="str">
+      <c r="J29" s="24" t="str">
         <f>B8</f>
         <v>Hardware Subsystem</v>
       </c>
       <c r="L29" s="20"/>
-      <c r="M29" s="27"/>
+      <c r="M29" s="22"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F30" s="12">
@@ -2284,19 +2284,26 @@
         <v>Payload</v>
       </c>
       <c r="I30" s="20"/>
-      <c r="J30" s="30"/>
+      <c r="J30" s="25"/>
       <c r="L30" s="20"/>
-      <c r="M30" s="28"/>
+      <c r="M30" s="23"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J31" s="13"/>
       <c r="M31" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="I8:I14"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="I16:I22"/>
     <mergeCell ref="L3:L30"/>
     <mergeCell ref="M3:M30"/>
     <mergeCell ref="J29:J30"/>
@@ -2304,13 +2311,6 @@
     <mergeCell ref="J8:J14"/>
     <mergeCell ref="J24:J27"/>
     <mergeCell ref="J16:J22"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="I8:I14"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="I16:I22"/>
   </mergeCells>
   <conditionalFormatting sqref="G3">
     <cfRule type="colorScale" priority="46">

--- a/Technical/Testing/TestPlan.xlsx
+++ b/Technical/Testing/TestPlan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="97">
   <si>
     <t>Test</t>
   </si>
@@ -311,6 +311,12 @@
   </si>
   <si>
     <t>Current</t>
+  </si>
+  <si>
+    <t>Position/Localization Accuracy</t>
+  </si>
+  <si>
+    <t>SLAM accuracy and positioning</t>
   </si>
 </sst>
 </file>
@@ -690,7 +696,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -721,9 +727,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -775,24 +799,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1481,10 +1488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,14 +1511,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="J1" s="38" t="s">
+      <c r="H1" s="20"/>
+      <c r="J1" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="38"/>
+      <c r="K1" s="20"/>
       <c r="M1" t="s">
         <v>87</v>
       </c>
@@ -1569,19 +1576,19 @@
         <f>B9</f>
         <v>Initial Camera Test</v>
       </c>
-      <c r="I3" s="39">
-        <f>AVERAGE(AVERAGE(F3:F6),A5,AVERAGE(F3:F6),AVERAGE(F3:F6))</f>
-        <v>0.1875</v>
-      </c>
-      <c r="J3" s="26" t="str">
+      <c r="I3" s="22">
+        <f>AVERAGE(AVERAGE(F3:F7),A5,AVERAGE(F3:F7),AVERAGE(F3:F7))</f>
+        <v>0.16500000000000004</v>
+      </c>
+      <c r="J3" s="32" t="str">
         <f>B5</f>
         <v>Guidance Subsystem</v>
       </c>
-      <c r="L3" s="20">
-        <f>AVERAGE(AVERAGE(I3,I8,I16,I24,I29),A3,AVERAGE(I3,I8,I16,I24,I29),AVERAGE(I3,I8,I16,I24,I29))</f>
-        <v>0.15168749999999998</v>
-      </c>
-      <c r="M3" s="21" t="str">
+      <c r="L3" s="21">
+        <f>AVERAGE(AVERAGE(I3,I9,I17,I25,I30),A3,AVERAGE(I3,I9,I17,I25,I30),AVERAGE(I3,I9,I17,I25,I30))</f>
+        <v>0.14831250000000001</v>
+      </c>
+      <c r="M3" s="27" t="str">
         <f>B3</f>
         <v>End of Semester Test Demo</v>
       </c>
@@ -1607,10 +1614,10 @@
         <f>B10</f>
         <v>Target Imaging</v>
       </c>
-      <c r="I4" s="39"/>
-      <c r="J4" s="27"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="33"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="28"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
@@ -1634,12 +1641,12 @@
         <v>Obstacle Perceived</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="27"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="22"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I5" s="22"/>
+      <c r="J5" s="33"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="28"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>0</v>
       </c>
@@ -1661,10 +1668,10 @@
         <v>Obstacle Map</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="28"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="33"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="28"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
@@ -1679,10 +1686,21 @@
       <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="20"/>
-      <c r="M7" s="22"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F7" s="12">
+        <f>A30</f>
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="4" t="str">
+        <f>B30</f>
+        <v>Position/Localization Accuracy</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="34"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="28"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>0.25</v>
       </c>
@@ -1695,24 +1713,8 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="12">
-        <f>A11</f>
-        <v>0.05</v>
-      </c>
-      <c r="G8" s="6" t="str">
-        <f>B11</f>
-        <v>Human Target ID</v>
-      </c>
-      <c r="I8" s="40">
-        <f>AVERAGE(AVERAGE(F8:F12),A4,AVERAGE(F8:F12),AVERAGE(F8:F12))</f>
-        <v>0.14250000000000002</v>
-      </c>
-      <c r="J8" s="29" t="str">
-        <f>B4</f>
-        <v>Tracking/ID Subsystem</v>
-      </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="22"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="28"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
@@ -1727,21 +1729,24 @@
       <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" t="s">
-        <v>85</v>
-      </c>
       <c r="F9" s="12">
-        <f t="shared" ref="F9:G11" si="0">A16</f>
-        <v>0.25</v>
+        <f>A11</f>
+        <v>0.05</v>
       </c>
       <c r="G9" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Target Estimation</v>
-      </c>
-      <c r="I9" s="41"/>
-      <c r="J9" s="30"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="22"/>
+        <f>B11</f>
+        <v>Human Target ID</v>
+      </c>
+      <c r="I9" s="23">
+        <f>AVERAGE(AVERAGE(F9:F13),A4,AVERAGE(F9:F13),AVERAGE(F9:F13))</f>
+        <v>0.14250000000000002</v>
+      </c>
+      <c r="J9" s="35" t="str">
+        <f>B4</f>
+        <v>Tracking/ID Subsystem</v>
+      </c>
+      <c r="L9" s="21"/>
+      <c r="M9" s="28"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
@@ -1760,17 +1765,17 @@
         <v>85</v>
       </c>
       <c r="F10" s="12">
-        <f t="shared" si="0"/>
+        <f>A16</f>
         <v>0.25</v>
       </c>
       <c r="G10" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Multiple targets</v>
-      </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="30"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="22"/>
+        <f>B16</f>
+        <v>Target Estimation</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="36"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="28"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
@@ -1789,17 +1794,17 @@
         <v>85</v>
       </c>
       <c r="F11" s="12">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
+        <f>A17</f>
+        <v>0.25</v>
       </c>
       <c r="G11" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Target Estimate Update</v>
-      </c>
-      <c r="I11" s="41"/>
-      <c r="J11" s="30"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="22"/>
+        <f>B17</f>
+        <v>Multiple targets</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="36"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="28"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
@@ -1818,17 +1823,17 @@
         <v>85</v>
       </c>
       <c r="F12" s="12">
-        <f>A28</f>
-        <v>0.25</v>
+        <f>A18</f>
+        <v>0.15</v>
       </c>
       <c r="G12" s="6" t="str">
-        <f>B28</f>
-        <v>Target Accuracy and Range</v>
-      </c>
-      <c r="I12" s="41"/>
-      <c r="J12" s="30"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="22"/>
+        <f>B18</f>
+        <v>Target Estimate Update</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" s="36"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="28"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
@@ -1847,45 +1852,45 @@
         <v>85</v>
       </c>
       <c r="F13" s="12">
+        <f>A28</f>
+        <v>0.25</v>
+      </c>
+      <c r="G13" s="6" t="str">
+        <f>B28</f>
+        <v>Target Accuracy and Range</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="36"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="28"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="12">
         <f>A27</f>
         <v>0</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G14" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="I13" s="41"/>
-      <c r="J13" s="30"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="22"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="12">
-        <f t="shared" ref="F14:G14" si="1">A29</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>Unique Target Tags</v>
-      </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="31"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="22"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="36"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="28"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
@@ -1903,10 +1908,20 @@
       <c r="E15" t="s">
         <v>85</v>
       </c>
-      <c r="L15" s="20"/>
-      <c r="M15" s="22"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F15" s="12">
+        <f>A29</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="19" t="str">
+        <f>B29</f>
+        <v>Unique Target Tags</v>
+      </c>
+      <c r="I15" s="24"/>
+      <c r="J15" s="37"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="28"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>0.25</v>
       </c>
@@ -1919,24 +1934,11 @@
       <c r="D16" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="12">
-        <f t="shared" ref="F16:G18" si="2">A12</f>
-        <v>0.25</v>
-      </c>
-      <c r="G16" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>Collision Correction</v>
-      </c>
-      <c r="I16" s="20">
-        <f>AVERAGE(AVERAGE(F16:F19),A6,AVERAGE(F16:F19),AVERAGE(F16:F19))</f>
-        <v>0.13124999999999998</v>
-      </c>
-      <c r="J16" s="35" t="str">
-        <f>B6</f>
-        <v>Planning Subsystem</v>
-      </c>
-      <c r="L16" s="20"/>
-      <c r="M16" s="22"/>
+      <c r="E16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L16" s="21"/>
+      <c r="M16" s="28"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
@@ -1952,17 +1954,23 @@
         <v>44</v>
       </c>
       <c r="F17" s="12">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
+        <f>A12</f>
+        <v>0.25</v>
       </c>
       <c r="G17" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>Trajectory Test</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="36"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="22"/>
+        <f>B12</f>
+        <v>Collision Correction</v>
+      </c>
+      <c r="I17" s="21">
+        <f>AVERAGE(AVERAGE(F17:F20),A6,AVERAGE(F17:F20),AVERAGE(F17:F20))</f>
+        <v>0.13124999999999998</v>
+      </c>
+      <c r="J17" s="41" t="str">
+        <f>B6</f>
+        <v>Planning Subsystem</v>
+      </c>
+      <c r="L17" s="21"/>
+      <c r="M17" s="28"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
@@ -1977,21 +1985,18 @@
       <c r="D18" t="s">
         <v>47</v>
       </c>
-      <c r="E18" t="s">
-        <v>85</v>
-      </c>
       <c r="F18" s="12">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
+        <f>A13</f>
+        <v>0.1</v>
       </c>
       <c r="G18" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>Obstacle Avoidance</v>
-      </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="36"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="22"/>
+        <f>B13</f>
+        <v>Trajectory Test</v>
+      </c>
+      <c r="I18" s="21"/>
+      <c r="J18" s="42"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="28"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
@@ -2006,17 +2011,21 @@
       <c r="D19" t="s">
         <v>50</v>
       </c>
+      <c r="E19" t="s">
+        <v>85</v>
+      </c>
       <c r="F19" s="12">
-        <f>A23</f>
-        <v>0.1</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="I19" s="20"/>
-      <c r="J19" s="36"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="22"/>
+        <f>A14</f>
+        <v>0.25</v>
+      </c>
+      <c r="G19" s="7" t="str">
+        <f>B14</f>
+        <v>Obstacle Avoidance</v>
+      </c>
+      <c r="I19" s="21"/>
+      <c r="J19" s="42"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="28"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
@@ -2032,16 +2041,16 @@
         <v>50</v>
       </c>
       <c r="F20" s="12">
-        <f>A26</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="36"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="22"/>
+        <f>A23</f>
+        <v>0.1</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" s="21"/>
+      <c r="J20" s="42"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="28"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
@@ -2057,42 +2066,42 @@
         <v>55</v>
       </c>
       <c r="F21" s="12">
+        <f>A26</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" s="21"/>
+      <c r="J21" s="42"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="28"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>0</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="12">
         <f>A21</f>
         <v>0</v>
       </c>
-      <c r="G21" s="18" t="str">
+      <c r="G22" s="18" t="str">
         <f>B21</f>
         <v>Delivery Zone</v>
       </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="36"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="22"/>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12">
-        <v>0</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="12">
-        <f>A22</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="37"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="22"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="42"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="28"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
@@ -2107,10 +2116,19 @@
       <c r="D23" t="s">
         <v>61</v>
       </c>
-      <c r="L23" s="20"/>
-      <c r="M23" s="22"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F23" s="12">
+        <f>A22</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="21"/>
+      <c r="J23" s="43"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="28"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>0.1</v>
       </c>
@@ -2123,24 +2141,8 @@
       <c r="D24" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="12">
-        <f t="shared" ref="F24:G26" si="3">A12</f>
-        <v>0.25</v>
-      </c>
-      <c r="G24" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Collision Correction</v>
-      </c>
-      <c r="I24" s="42">
-        <f>AVERAGE(AVERAGE(F24:F27),A7,AVERAGE(F24:F27),AVERAGE(F24:F27))</f>
-        <v>0.20625000000000002</v>
-      </c>
-      <c r="J24" s="32" t="str">
-        <f>B7</f>
-        <v>Controls Subsystem</v>
-      </c>
-      <c r="L24" s="20"/>
-      <c r="M24" s="22"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="28"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
@@ -2156,17 +2158,23 @@
         <v>67</v>
       </c>
       <c r="F25" s="12">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>A12</f>
+        <v>0.25</v>
       </c>
       <c r="G25" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Trajectory Test</v>
-      </c>
-      <c r="I25" s="43"/>
-      <c r="J25" s="33"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="22"/>
+        <f>B12</f>
+        <v>Collision Correction</v>
+      </c>
+      <c r="I25" s="25">
+        <f>AVERAGE(AVERAGE(F25:F28),A7,AVERAGE(F25:F28),AVERAGE(F25:F28))</f>
+        <v>0.20625000000000002</v>
+      </c>
+      <c r="J25" s="38" t="str">
+        <f>B7</f>
+        <v>Controls Subsystem</v>
+      </c>
+      <c r="L25" s="21"/>
+      <c r="M25" s="28"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
@@ -2181,23 +2189,20 @@
       <c r="D26" t="s">
         <v>70</v>
       </c>
-      <c r="E26" t="s">
-        <v>85</v>
-      </c>
       <c r="F26" s="12">
-        <f t="shared" si="3"/>
-        <v>0.25</v>
+        <f>A13</f>
+        <v>0.1</v>
       </c>
       <c r="G26" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Obstacle Avoidance</v>
-      </c>
-      <c r="I26" s="43"/>
-      <c r="J26" s="33"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="22"/>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f>B13</f>
+        <v>Trajectory Test</v>
+      </c>
+      <c r="I26" s="26"/>
+      <c r="J26" s="39"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="28"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>0</v>
       </c>
@@ -2210,18 +2215,21 @@
       <c r="D27" t="s">
         <v>73</v>
       </c>
+      <c r="E27" t="s">
+        <v>85</v>
+      </c>
       <c r="F27" s="12">
-        <f>A19</f>
-        <v>0.5</v>
+        <f>A14</f>
+        <v>0.25</v>
       </c>
       <c r="G27" s="8" t="str">
-        <f>B19</f>
-        <v>Autonomous Takeoff &amp; Landing</v>
-      </c>
-      <c r="I27" s="43"/>
-      <c r="J27" s="34"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="22"/>
+        <f>B14</f>
+        <v>Obstacle Avoidance</v>
+      </c>
+      <c r="I27" s="26"/>
+      <c r="J27" s="39"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="28"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
@@ -2236,13 +2244,20 @@
       <c r="D28" t="s">
         <v>76</v>
       </c>
-      <c r="E28" t="s">
-        <v>85</v>
-      </c>
-      <c r="L28" s="20"/>
-      <c r="M28" s="22"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F28" s="12">
+        <f>A19</f>
+        <v>0.5</v>
+      </c>
+      <c r="G28" s="8" t="str">
+        <f>B19</f>
+        <v>Autonomous Takeoff &amp; Landing</v>
+      </c>
+      <c r="I28" s="26"/>
+      <c r="J28" s="40"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="28"/>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>0</v>
       </c>
@@ -2255,62 +2270,78 @@
       <c r="D29" t="s">
         <v>79</v>
       </c>
-      <c r="F29" s="12">
+      <c r="E29" t="s">
+        <v>85</v>
+      </c>
+      <c r="L29" s="21"/>
+      <c r="M29" s="28"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="12">
         <f>A15</f>
         <v>0.5</v>
       </c>
-      <c r="G29" s="9" t="str">
+      <c r="G30" s="9" t="str">
         <f>B15</f>
         <v>Durataion</v>
       </c>
-      <c r="I29" s="20">
-        <f>AVERAGE(AVERAGE(F29:F30),A8,AVERAGE(F29:F30),AVERAGE(F29:F30))</f>
+      <c r="I30" s="21">
+        <f>AVERAGE(AVERAGE(F30:F31),A8,AVERAGE(F30:F31),AVERAGE(F30:F31))</f>
         <v>0.34375</v>
       </c>
-      <c r="J29" s="24" t="str">
+      <c r="J30" s="30" t="str">
         <f>B8</f>
         <v>Hardware Subsystem</v>
       </c>
-      <c r="L29" s="20"/>
-      <c r="M29" s="22"/>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F30" s="12">
+      <c r="L30" s="21"/>
+      <c r="M30" s="28"/>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="12">
         <f>A20</f>
         <v>0.25</v>
       </c>
-      <c r="G30" s="9" t="str">
+      <c r="G31" s="9" t="str">
         <f>B20</f>
         <v>Payload</v>
       </c>
-      <c r="I30" s="20"/>
-      <c r="J30" s="25"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="23"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="17" t="s">
+      <c r="I31" s="21"/>
+      <c r="J31" s="31"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="29"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="J31" s="13"/>
-      <c r="M31" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="M32" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="L3:L31"/>
+    <mergeCell ref="M3:M31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J9:J15"/>
+    <mergeCell ref="J25:J28"/>
+    <mergeCell ref="J17:J23"/>
+    <mergeCell ref="J3:J7"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="I8:I14"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="I16:I22"/>
-    <mergeCell ref="L3:L30"/>
-    <mergeCell ref="M3:M30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="J3:J6"/>
-    <mergeCell ref="J8:J14"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="J16:J22"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I9:I15"/>
+    <mergeCell ref="I25:I28"/>
+    <mergeCell ref="I17:I23"/>
+    <mergeCell ref="I3:I7"/>
   </mergeCells>
   <conditionalFormatting sqref="G3">
     <cfRule type="colorScale" priority="46">
@@ -2324,12 +2355,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6 F29:F30 F22">
+  <conditionalFormatting sqref="F3:F7 F30:F31 F23">
     <cfRule type="cellIs" dxfId="39" priority="45" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F29:F30 F22">
+  <conditionalFormatting sqref="F3 F30:F31 F23">
     <cfRule type="cellIs" dxfId="38" priority="41" operator="between">
       <formula>0.06</formula>
       <formula>0.99</formula>
@@ -2342,7 +2373,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F6">
+  <conditionalFormatting sqref="F4:F7">
     <cfRule type="cellIs" dxfId="35" priority="38" operator="between">
       <formula>0.06</formula>
       <formula>0.99</formula>
@@ -2355,7 +2386,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F6">
+  <conditionalFormatting sqref="F4:F7">
     <cfRule type="cellIs" dxfId="32" priority="35" operator="between">
       <formula>0.06</formula>
       <formula>0.99</formula>
@@ -2368,12 +2399,12 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F14">
+  <conditionalFormatting sqref="F9:F15">
     <cfRule type="cellIs" dxfId="29" priority="34" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F14">
+  <conditionalFormatting sqref="F9:F15">
     <cfRule type="cellIs" dxfId="28" priority="31" operator="between">
       <formula>0.06</formula>
       <formula>0.99</formula>
@@ -2386,12 +2417,12 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16:F21">
+  <conditionalFormatting sqref="F17:F22">
     <cfRule type="cellIs" dxfId="25" priority="30" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16:F21">
+  <conditionalFormatting sqref="F17:F22">
     <cfRule type="cellIs" dxfId="24" priority="27" operator="between">
       <formula>0.06</formula>
       <formula>0.99</formula>
@@ -2404,12 +2435,12 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24:F27">
+  <conditionalFormatting sqref="F25:F28">
     <cfRule type="cellIs" dxfId="21" priority="26" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24:F27">
+  <conditionalFormatting sqref="F25:F28">
     <cfRule type="cellIs" dxfId="20" priority="23" operator="between">
       <formula>0.06</formula>
       <formula>0.99</formula>
@@ -2422,7 +2453,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I6">
+  <conditionalFormatting sqref="I3">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -2434,7 +2465,7 @@
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I14">
+  <conditionalFormatting sqref="I9:I15">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -2446,7 +2477,7 @@
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
+  <conditionalFormatting sqref="I17">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -2458,7 +2489,7 @@
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24:I27">
+  <conditionalFormatting sqref="I25:I28">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -2470,7 +2501,7 @@
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
+  <conditionalFormatting sqref="I30">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -2522,8 +2553,9 @@
     <hyperlink ref="B27" r:id="rId25"/>
     <hyperlink ref="B28" r:id="rId26"/>
     <hyperlink ref="B29" r:id="rId27"/>
+    <hyperlink ref="B30" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId28"/>
+  <pageSetup orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
--- a/Technical/Testing/TestPlan.xlsx
+++ b/Technical/Testing/TestPlan.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FlyNet\Technical\Testing\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23160" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23160" windowHeight="13960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -628,23 +626,23 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -652,14 +650,14 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,79 +725,79 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1268,7 +1266,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1303,7 +1301,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1480,7 +1478,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1490,40 +1488,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.42578125" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G1" s="20" t="s">
+    <row r="1" spans="1:13">
+      <c r="G1" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="J1" s="20" t="s">
+      <c r="H1" s="39"/>
+      <c r="J1" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="20"/>
+      <c r="K1" s="39"/>
       <c r="M1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="29" thickBot="1">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -1555,7 +1553,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="12">
         <v>0</v>
       </c>
@@ -1576,24 +1574,24 @@
         <f>B9</f>
         <v>Initial Camera Test</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="44">
         <f>AVERAGE(AVERAGE(F3:F7),A5,AVERAGE(F3:F7),AVERAGE(F3:F7))</f>
         <v>0.16500000000000004</v>
       </c>
-      <c r="J3" s="32" t="str">
+      <c r="J3" s="36" t="str">
         <f>B5</f>
         <v>Guidance Subsystem</v>
       </c>
       <c r="L3" s="21">
         <f>AVERAGE(AVERAGE(I3,I9,I17,I25,I30),A3,AVERAGE(I3,I9,I17,I25,I30),AVERAGE(I3,I9,I17,I25,I30))</f>
-        <v>0.14831250000000001</v>
-      </c>
-      <c r="M3" s="27" t="str">
+        <v>0.16237499999999999</v>
+      </c>
+      <c r="M3" s="22" t="str">
         <f>B3</f>
         <v>End of Semester Test Demo</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="12">
         <v>0</v>
       </c>
@@ -1614,12 +1612,12 @@
         <f>B10</f>
         <v>Target Imaging</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="33"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="37"/>
       <c r="L4" s="21"/>
-      <c r="M4" s="28"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M4" s="23"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="12">
         <v>0</v>
       </c>
@@ -1641,12 +1639,12 @@
         <v>Obstacle Perceived</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="33"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="37"/>
       <c r="L5" s="21"/>
-      <c r="M5" s="28"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M5" s="23"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="12">
         <v>0</v>
       </c>
@@ -1668,12 +1666,12 @@
         <v>Obstacle Map</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="33"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="37"/>
       <c r="L6" s="21"/>
-      <c r="M6" s="28"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M6" s="23"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1">
       <c r="A7" s="12">
         <v>0</v>
       </c>
@@ -1695,12 +1693,12 @@
         <v>Position/Localization Accuracy</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="34"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="38"/>
       <c r="L7" s="21"/>
-      <c r="M7" s="28"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="23"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" thickBot="1">
       <c r="A8" s="12">
         <v>0.25</v>
       </c>
@@ -1714,9 +1712,9 @@
         <v>18</v>
       </c>
       <c r="L8" s="21"/>
-      <c r="M8" s="28"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M8" s="23"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="12">
         <v>0.75</v>
       </c>
@@ -1737,18 +1735,18 @@
         <f>B11</f>
         <v>Human Target ID</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="40">
         <f>AVERAGE(AVERAGE(F9:F13),A4,AVERAGE(F9:F13),AVERAGE(F9:F13))</f>
         <v>0.14250000000000002</v>
       </c>
-      <c r="J9" s="35" t="str">
+      <c r="J9" s="27" t="str">
         <f>B4</f>
         <v>Tracking/ID Subsystem</v>
       </c>
       <c r="L9" s="21"/>
-      <c r="M9" s="28"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M9" s="23"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="12">
         <v>0.05</v>
       </c>
@@ -1765,19 +1763,19 @@
         <v>85</v>
       </c>
       <c r="F10" s="12">
-        <f>A16</f>
+        <f t="shared" ref="F10:G12" si="0">A16</f>
         <v>0.25</v>
       </c>
       <c r="G10" s="6" t="str">
-        <f>B16</f>
+        <f t="shared" si="0"/>
         <v>Target Estimation</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="36"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="28"/>
       <c r="L10" s="21"/>
-      <c r="M10" s="28"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M10" s="23"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="12">
         <v>0.05</v>
       </c>
@@ -1794,19 +1792,19 @@
         <v>85</v>
       </c>
       <c r="F11" s="12">
-        <f>A17</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="G11" s="6" t="str">
-        <f>B17</f>
+        <f t="shared" si="0"/>
         <v>Multiple targets</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="36"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="28"/>
       <c r="L11" s="21"/>
-      <c r="M11" s="28"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M11" s="23"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="12">
         <v>0.25</v>
       </c>
@@ -1823,19 +1821,19 @@
         <v>85</v>
       </c>
       <c r="F12" s="12">
-        <f>A18</f>
+        <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
       <c r="G12" s="6" t="str">
-        <f>B18</f>
+        <f t="shared" si="0"/>
         <v>Target Estimate Update</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="36"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="28"/>
       <c r="L12" s="21"/>
-      <c r="M12" s="28"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M12" s="23"/>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="12">
         <v>0.1</v>
       </c>
@@ -1859,12 +1857,12 @@
         <f>B28</f>
         <v>Target Accuracy and Range</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="36"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="28"/>
       <c r="L13" s="21"/>
-      <c r="M13" s="28"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M13" s="23"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="12">
         <v>0.25</v>
       </c>
@@ -1887,12 +1885,12 @@
       <c r="G14" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="36"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="28"/>
       <c r="L14" s="21"/>
-      <c r="M14" s="28"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M14" s="23"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" thickBot="1">
       <c r="A15" s="12">
         <v>0.5</v>
       </c>
@@ -1916,12 +1914,12 @@
         <f>B29</f>
         <v>Unique Target Tags</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="37"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="29"/>
       <c r="L15" s="21"/>
-      <c r="M15" s="28"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M15" s="23"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1">
       <c r="A16" s="12">
         <v>0.25</v>
       </c>
@@ -1938,9 +1936,9 @@
         <v>85</v>
       </c>
       <c r="L16" s="21"/>
-      <c r="M16" s="28"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M16" s="23"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="12">
         <v>0.25</v>
       </c>
@@ -1954,25 +1952,25 @@
         <v>44</v>
       </c>
       <c r="F17" s="12">
-        <f>A12</f>
+        <f t="shared" ref="F17:G19" si="1">A12</f>
         <v>0.25</v>
       </c>
       <c r="G17" s="7" t="str">
-        <f>B12</f>
+        <f t="shared" si="1"/>
         <v>Collision Correction</v>
       </c>
       <c r="I17" s="21">
         <f>AVERAGE(AVERAGE(F17:F20),A6,AVERAGE(F17:F20),AVERAGE(F17:F20))</f>
         <v>0.13124999999999998</v>
       </c>
-      <c r="J17" s="41" t="str">
+      <c r="J17" s="33" t="str">
         <f>B6</f>
         <v>Planning Subsystem</v>
       </c>
       <c r="L17" s="21"/>
-      <c r="M17" s="28"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M17" s="23"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="12">
         <v>0.15</v>
       </c>
@@ -1986,21 +1984,21 @@
         <v>47</v>
       </c>
       <c r="F18" s="12">
-        <f>A13</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="G18" s="7" t="str">
-        <f>B13</f>
+        <f t="shared" si="1"/>
         <v>Trajectory Test</v>
       </c>
       <c r="I18" s="21"/>
-      <c r="J18" s="42"/>
+      <c r="J18" s="34"/>
       <c r="L18" s="21"/>
-      <c r="M18" s="28"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M18" s="23"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>48</v>
@@ -2015,19 +2013,19 @@
         <v>85</v>
       </c>
       <c r="F19" s="12">
-        <f>A14</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="G19" s="7" t="str">
-        <f>B14</f>
+        <f t="shared" si="1"/>
         <v>Obstacle Avoidance</v>
       </c>
       <c r="I19" s="21"/>
-      <c r="J19" s="42"/>
+      <c r="J19" s="34"/>
       <c r="L19" s="21"/>
-      <c r="M19" s="28"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M19" s="23"/>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="12">
         <v>0.25</v>
       </c>
@@ -2048,11 +2046,11 @@
         <v>92</v>
       </c>
       <c r="I20" s="21"/>
-      <c r="J20" s="42"/>
+      <c r="J20" s="34"/>
       <c r="L20" s="21"/>
-      <c r="M20" s="28"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M20" s="23"/>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="12">
         <v>0</v>
       </c>
@@ -2073,11 +2071,11 @@
         <v>68</v>
       </c>
       <c r="I21" s="21"/>
-      <c r="J21" s="42"/>
+      <c r="J21" s="34"/>
       <c r="L21" s="21"/>
-      <c r="M21" s="28"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M21" s="23"/>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="12">
         <v>0</v>
       </c>
@@ -2099,11 +2097,11 @@
         <v>Delivery Zone</v>
       </c>
       <c r="I22" s="21"/>
-      <c r="J22" s="42"/>
+      <c r="J22" s="34"/>
       <c r="L22" s="21"/>
-      <c r="M22" s="28"/>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M22" s="23"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" thickBot="1">
       <c r="A23" s="12">
         <v>0.1</v>
       </c>
@@ -2124,11 +2122,11 @@
         <v>56</v>
       </c>
       <c r="I23" s="21"/>
-      <c r="J23" s="43"/>
+      <c r="J23" s="35"/>
       <c r="L23" s="21"/>
-      <c r="M23" s="28"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M23" s="23"/>
+    </row>
+    <row r="24" spans="1:13" ht="15" thickBot="1">
       <c r="A24" s="12">
         <v>0.1</v>
       </c>
@@ -2142,9 +2140,9 @@
         <v>64</v>
       </c>
       <c r="L24" s="21"/>
-      <c r="M24" s="28"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M24" s="23"/>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="12">
         <v>0.1</v>
       </c>
@@ -2158,25 +2156,25 @@
         <v>67</v>
       </c>
       <c r="F25" s="12">
-        <f>A12</f>
+        <f t="shared" ref="F25:G27" si="2">A12</f>
         <v>0.25</v>
       </c>
       <c r="G25" s="8" t="str">
-        <f>B12</f>
+        <f t="shared" si="2"/>
         <v>Collision Correction</v>
       </c>
-      <c r="I25" s="25">
+      <c r="I25" s="42">
         <f>AVERAGE(AVERAGE(F25:F28),A7,AVERAGE(F25:F28),AVERAGE(F25:F28))</f>
-        <v>0.20625000000000002</v>
-      </c>
-      <c r="J25" s="38" t="str">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="J25" s="30" t="str">
         <f>B7</f>
         <v>Controls Subsystem</v>
       </c>
       <c r="L25" s="21"/>
-      <c r="M25" s="28"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M25" s="23"/>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="12">
         <v>0</v>
       </c>
@@ -2190,19 +2188,19 @@
         <v>70</v>
       </c>
       <c r="F26" s="12">
-        <f>A13</f>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="G26" s="8" t="str">
-        <f>B13</f>
+        <f t="shared" si="2"/>
         <v>Trajectory Test</v>
       </c>
-      <c r="I26" s="26"/>
-      <c r="J26" s="39"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="31"/>
       <c r="L26" s="21"/>
-      <c r="M26" s="28"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M26" s="23"/>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="12">
         <v>0</v>
       </c>
@@ -2219,19 +2217,19 @@
         <v>85</v>
       </c>
       <c r="F27" s="12">
-        <f>A14</f>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="G27" s="8" t="str">
-        <f>B14</f>
+        <f t="shared" si="2"/>
         <v>Obstacle Avoidance</v>
       </c>
-      <c r="I27" s="26"/>
-      <c r="J27" s="39"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="31"/>
       <c r="L27" s="21"/>
-      <c r="M27" s="28"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M27" s="23"/>
+    </row>
+    <row r="28" spans="1:13" ht="15" thickBot="1">
       <c r="A28" s="12">
         <v>0.25</v>
       </c>
@@ -2246,18 +2244,18 @@
       </c>
       <c r="F28" s="12">
         <f>A19</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G28" s="8" t="str">
         <f>B19</f>
         <v>Autonomous Takeoff &amp; Landing</v>
       </c>
-      <c r="I28" s="26"/>
-      <c r="J28" s="40"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="32"/>
       <c r="L28" s="21"/>
-      <c r="M28" s="28"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M28" s="23"/>
+    </row>
+    <row r="29" spans="1:13" ht="15" thickBot="1">
       <c r="A29" s="12">
         <v>0</v>
       </c>
@@ -2274,13 +2272,13 @@
         <v>85</v>
       </c>
       <c r="L29" s="21"/>
-      <c r="M29" s="28"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M29" s="23"/>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="12">
         <v>0.1</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="20" t="s">
         <v>95</v>
       </c>
       <c r="D30" t="s">
@@ -2298,14 +2296,14 @@
         <f>AVERAGE(AVERAGE(F30:F31),A8,AVERAGE(F30:F31),AVERAGE(F30:F31))</f>
         <v>0.34375</v>
       </c>
-      <c r="J30" s="30" t="str">
+      <c r="J30" s="25" t="str">
         <f>B8</f>
         <v>Hardware Subsystem</v>
       </c>
       <c r="L30" s="21"/>
-      <c r="M30" s="28"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M30" s="23"/>
+    </row>
+    <row r="31" spans="1:13" ht="15" thickBot="1">
       <c r="F31" s="12">
         <f>A20</f>
         <v>0.25</v>
@@ -2315,11 +2313,11 @@
         <v>Payload</v>
       </c>
       <c r="I31" s="21"/>
-      <c r="J31" s="31"/>
+      <c r="J31" s="26"/>
       <c r="L31" s="21"/>
-      <c r="M31" s="29"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M31" s="24"/>
+    </row>
+    <row r="32" spans="1:13">
       <c r="B32" s="17" t="s">
         <v>91</v>
       </c>
@@ -2328,6 +2326,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I9:I15"/>
+    <mergeCell ref="I25:I28"/>
+    <mergeCell ref="I17:I23"/>
+    <mergeCell ref="I3:I7"/>
     <mergeCell ref="L3:L31"/>
     <mergeCell ref="M3:M31"/>
     <mergeCell ref="J30:J31"/>
@@ -2335,13 +2340,6 @@
     <mergeCell ref="J25:J28"/>
     <mergeCell ref="J17:J23"/>
     <mergeCell ref="J3:J7"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I9:I15"/>
-    <mergeCell ref="I25:I28"/>
-    <mergeCell ref="I17:I23"/>
-    <mergeCell ref="I3:I7"/>
   </mergeCells>
   <conditionalFormatting sqref="G3">
     <cfRule type="colorScale" priority="46">
@@ -2556,6 +2554,10 @@
     <hyperlink ref="B30" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId29"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Technical/Testing/TestPlan.xlsx
+++ b/Technical/Testing/TestPlan.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FlyNet\Technical\Testing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23160" windowHeight="13960"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23160" windowHeight="13965"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -726,9 +731,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -778,24 +801,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1478,7 +1483,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1489,39 +1494,39 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.5" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" customWidth="1"/>
-    <col min="13" max="13" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.85546875" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="G1" s="39" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G1" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="J1" s="39" t="s">
+      <c r="H1" s="21"/>
+      <c r="J1" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="39"/>
+      <c r="K1" s="21"/>
       <c r="M1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="29" thickBot="1">
+    <row r="2" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -1553,7 +1558,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>0</v>
       </c>
@@ -1574,24 +1579,24 @@
         <f>B9</f>
         <v>Initial Camera Test</v>
       </c>
-      <c r="I3" s="44">
+      <c r="I3" s="27">
         <f>AVERAGE(AVERAGE(F3:F7),A5,AVERAGE(F3:F7),AVERAGE(F3:F7))</f>
         <v>0.16500000000000004</v>
       </c>
-      <c r="J3" s="36" t="str">
+      <c r="J3" s="42" t="str">
         <f>B5</f>
         <v>Guidance Subsystem</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="22">
         <f>AVERAGE(AVERAGE(I3,I9,I17,I25,I30),A3,AVERAGE(I3,I9,I17,I25,I30),AVERAGE(I3,I9,I17,I25,I30))</f>
         <v>0.16237499999999999</v>
       </c>
-      <c r="M3" s="22" t="str">
+      <c r="M3" s="28" t="str">
         <f>B3</f>
         <v>End of Semester Test Demo</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>0</v>
       </c>
@@ -1612,12 +1617,12 @@
         <f>B10</f>
         <v>Target Imaging</v>
       </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="37"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="23"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="I4" s="27"/>
+      <c r="J4" s="43"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="29"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>0</v>
       </c>
@@ -1639,12 +1644,12 @@
         <v>Obstacle Perceived</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="37"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="23"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="I5" s="27"/>
+      <c r="J5" s="43"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="29"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>0</v>
       </c>
@@ -1666,12 +1671,12 @@
         <v>Obstacle Map</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="37"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="23"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1">
+      <c r="I6" s="27"/>
+      <c r="J6" s="43"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="29"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>0</v>
       </c>
@@ -1693,12 +1698,12 @@
         <v>Position/Localization Accuracy</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="38"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="23"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1">
+      <c r="I7" s="27"/>
+      <c r="J7" s="44"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="29"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>0.25</v>
       </c>
@@ -1711,10 +1716,10 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="21"/>
-      <c r="M8" s="23"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="L8" s="22"/>
+      <c r="M8" s="29"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>0.75</v>
       </c>
@@ -1735,18 +1740,18 @@
         <f>B11</f>
         <v>Human Target ID</v>
       </c>
-      <c r="I9" s="40">
+      <c r="I9" s="23">
         <f>AVERAGE(AVERAGE(F9:F13),A4,AVERAGE(F9:F13),AVERAGE(F9:F13))</f>
         <v>0.14250000000000002</v>
       </c>
-      <c r="J9" s="27" t="str">
+      <c r="J9" s="33" t="str">
         <f>B4</f>
         <v>Tracking/ID Subsystem</v>
       </c>
-      <c r="L9" s="21"/>
-      <c r="M9" s="23"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="L9" s="22"/>
+      <c r="M9" s="29"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>0.05</v>
       </c>
@@ -1770,12 +1775,12 @@
         <f t="shared" si="0"/>
         <v>Target Estimation</v>
       </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="28"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="23"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="I10" s="24"/>
+      <c r="J10" s="34"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="29"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>0.05</v>
       </c>
@@ -1799,12 +1804,12 @@
         <f t="shared" si="0"/>
         <v>Multiple targets</v>
       </c>
-      <c r="I11" s="41"/>
-      <c r="J11" s="28"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="23"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="I11" s="24"/>
+      <c r="J11" s="34"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="29"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>0.25</v>
       </c>
@@ -1828,12 +1833,12 @@
         <f t="shared" si="0"/>
         <v>Target Estimate Update</v>
       </c>
-      <c r="I12" s="41"/>
-      <c r="J12" s="28"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="23"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="I12" s="24"/>
+      <c r="J12" s="34"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="29"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>0.1</v>
       </c>
@@ -1857,12 +1862,12 @@
         <f>B28</f>
         <v>Target Accuracy and Range</v>
       </c>
-      <c r="I13" s="41"/>
-      <c r="J13" s="28"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="23"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="I13" s="24"/>
+      <c r="J13" s="34"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="29"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>0.25</v>
       </c>
@@ -1885,12 +1890,12 @@
       <c r="G14" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="28"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="23"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1">
+      <c r="I14" s="24"/>
+      <c r="J14" s="34"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="29"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>0.5</v>
       </c>
@@ -1914,12 +1919,12 @@
         <f>B29</f>
         <v>Unique Target Tags</v>
       </c>
-      <c r="I15" s="41"/>
-      <c r="J15" s="29"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="23"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1">
+      <c r="I15" s="24"/>
+      <c r="J15" s="35"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="29"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>0.25</v>
       </c>
@@ -1935,10 +1940,10 @@
       <c r="E16" t="s">
         <v>85</v>
       </c>
-      <c r="L16" s="21"/>
-      <c r="M16" s="23"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="L16" s="22"/>
+      <c r="M16" s="29"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>0.25</v>
       </c>
@@ -1959,18 +1964,18 @@
         <f t="shared" si="1"/>
         <v>Collision Correction</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="22">
         <f>AVERAGE(AVERAGE(F17:F20),A6,AVERAGE(F17:F20),AVERAGE(F17:F20))</f>
         <v>0.13124999999999998</v>
       </c>
-      <c r="J17" s="33" t="str">
+      <c r="J17" s="39" t="str">
         <f>B6</f>
         <v>Planning Subsystem</v>
       </c>
-      <c r="L17" s="21"/>
-      <c r="M17" s="23"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="L17" s="22"/>
+      <c r="M17" s="29"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>0.15</v>
       </c>
@@ -1991,12 +1996,12 @@
         <f t="shared" si="1"/>
         <v>Trajectory Test</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="34"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="23"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="I18" s="22"/>
+      <c r="J18" s="40"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="29"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>1</v>
       </c>
@@ -2020,12 +2025,12 @@
         <f t="shared" si="1"/>
         <v>Obstacle Avoidance</v>
       </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="34"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="23"/>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="I19" s="22"/>
+      <c r="J19" s="40"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="29"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>0.25</v>
       </c>
@@ -2045,12 +2050,12 @@
       <c r="G20" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="34"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="23"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="I20" s="22"/>
+      <c r="J20" s="40"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="29"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>0</v>
       </c>
@@ -2070,12 +2075,12 @@
       <c r="G21" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="34"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="23"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="I21" s="22"/>
+      <c r="J21" s="40"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="29"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>0</v>
       </c>
@@ -2096,12 +2101,12 @@
         <f>B21</f>
         <v>Delivery Zone</v>
       </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="34"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="23"/>
-    </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1">
+      <c r="I22" s="22"/>
+      <c r="J22" s="40"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="29"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>0.1</v>
       </c>
@@ -2121,12 +2126,12 @@
       <c r="G23" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="35"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="23"/>
-    </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1">
+      <c r="I23" s="22"/>
+      <c r="J23" s="41"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="29"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>0.1</v>
       </c>
@@ -2139,10 +2144,10 @@
       <c r="D24" t="s">
         <v>64</v>
       </c>
-      <c r="L24" s="21"/>
-      <c r="M24" s="23"/>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="L24" s="22"/>
+      <c r="M24" s="29"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>0.1</v>
       </c>
@@ -2163,18 +2168,18 @@
         <f t="shared" si="2"/>
         <v>Collision Correction</v>
       </c>
-      <c r="I25" s="42">
+      <c r="I25" s="25">
         <f>AVERAGE(AVERAGE(F25:F28),A7,AVERAGE(F25:F28),AVERAGE(F25:F28))</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="J25" s="30" t="str">
+      <c r="J25" s="36" t="str">
         <f>B7</f>
         <v>Controls Subsystem</v>
       </c>
-      <c r="L25" s="21"/>
-      <c r="M25" s="23"/>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="L25" s="22"/>
+      <c r="M25" s="29"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>0</v>
       </c>
@@ -2195,12 +2200,12 @@
         <f t="shared" si="2"/>
         <v>Trajectory Test</v>
       </c>
-      <c r="I26" s="43"/>
-      <c r="J26" s="31"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="23"/>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="I26" s="26"/>
+      <c r="J26" s="37"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="29"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>0</v>
       </c>
@@ -2224,12 +2229,12 @@
         <f t="shared" si="2"/>
         <v>Obstacle Avoidance</v>
       </c>
-      <c r="I27" s="43"/>
-      <c r="J27" s="31"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="23"/>
-    </row>
-    <row r="28" spans="1:13" ht="15" thickBot="1">
+      <c r="I27" s="26"/>
+      <c r="J27" s="37"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="29"/>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>0.25</v>
       </c>
@@ -2250,12 +2255,12 @@
         <f>B19</f>
         <v>Autonomous Takeoff &amp; Landing</v>
       </c>
-      <c r="I28" s="43"/>
-      <c r="J28" s="32"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="23"/>
-    </row>
-    <row r="29" spans="1:13" ht="15" thickBot="1">
+      <c r="I28" s="26"/>
+      <c r="J28" s="38"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="29"/>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>0</v>
       </c>
@@ -2271,10 +2276,10 @@
       <c r="E29" t="s">
         <v>85</v>
       </c>
-      <c r="L29" s="21"/>
-      <c r="M29" s="23"/>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="L29" s="22"/>
+      <c r="M29" s="29"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>0.1</v>
       </c>
@@ -2292,18 +2297,18 @@
         <f>B15</f>
         <v>Durataion</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30" s="22">
         <f>AVERAGE(AVERAGE(F30:F31),A8,AVERAGE(F30:F31),AVERAGE(F30:F31))</f>
         <v>0.34375</v>
       </c>
-      <c r="J30" s="25" t="str">
+      <c r="J30" s="31" t="str">
         <f>B8</f>
         <v>Hardware Subsystem</v>
       </c>
-      <c r="L30" s="21"/>
-      <c r="M30" s="23"/>
-    </row>
-    <row r="31" spans="1:13" ht="15" thickBot="1">
+      <c r="L30" s="22"/>
+      <c r="M30" s="29"/>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F31" s="12">
         <f>A20</f>
         <v>0.25</v>
@@ -2312,12 +2317,12 @@
         <f>B20</f>
         <v>Payload</v>
       </c>
-      <c r="I31" s="21"/>
-      <c r="J31" s="26"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="24"/>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="I31" s="22"/>
+      <c r="J31" s="32"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="30"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" s="17" t="s">
         <v>91</v>
       </c>
@@ -2326,6 +2331,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="L3:L31"/>
+    <mergeCell ref="M3:M31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J9:J15"/>
+    <mergeCell ref="J25:J28"/>
+    <mergeCell ref="J17:J23"/>
+    <mergeCell ref="J3:J7"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="I30:I31"/>
@@ -2333,13 +2345,6 @@
     <mergeCell ref="I25:I28"/>
     <mergeCell ref="I17:I23"/>
     <mergeCell ref="I3:I7"/>
-    <mergeCell ref="L3:L31"/>
-    <mergeCell ref="M3:M31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J9:J15"/>
-    <mergeCell ref="J25:J28"/>
-    <mergeCell ref="J17:J23"/>
-    <mergeCell ref="J3:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="G3">
     <cfRule type="colorScale" priority="46">

--- a/Technical/Testing/TestPlan.xlsx
+++ b/Technical/Testing/TestPlan.xlsx
@@ -372,7 +372,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -693,6 +693,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -724,19 +739,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -752,57 +816,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1494,7 +1509,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,14 +1529,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="J1" s="21" t="s">
+      <c r="H1" s="37"/>
+      <c r="J1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="21"/>
+      <c r="K1" s="37"/>
       <c r="M1" t="s">
         <v>87</v>
       </c>
@@ -1562,7 +1577,7 @@
       <c r="A3" s="12">
         <v>0</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="44" t="s">
         <v>89</v>
       </c>
       <c r="C3" t="s">
@@ -1579,19 +1594,19 @@
         <f>B9</f>
         <v>Initial Camera Test</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="42">
         <f>AVERAGE(AVERAGE(F3:F7),A5,AVERAGE(F3:F7),AVERAGE(F3:F7))</f>
         <v>0.16500000000000004</v>
       </c>
-      <c r="J3" s="42" t="str">
+      <c r="J3" s="34" t="str">
         <f>B5</f>
         <v>Guidance Subsystem</v>
       </c>
-      <c r="L3" s="22">
+      <c r="L3" s="19">
         <f>AVERAGE(AVERAGE(I3,I9,I17,I25,I30),A3,AVERAGE(I3,I9,I17,I25,I30),AVERAGE(I3,I9,I17,I25,I30))</f>
         <v>0.16237499999999999</v>
       </c>
-      <c r="M3" s="28" t="str">
+      <c r="M3" s="20" t="str">
         <f>B3</f>
         <v>End of Semester Test Demo</v>
       </c>
@@ -1600,7 +1615,7 @@
       <c r="A4" s="12">
         <v>0</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="43" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
@@ -1617,16 +1632,16 @@
         <f>B10</f>
         <v>Target Imaging</v>
       </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="43"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="29"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="35"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="21"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>0</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="43" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
@@ -1644,16 +1659,16 @@
         <v>Obstacle Perceived</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="43"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="29"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="35"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="21"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>0</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
@@ -1671,16 +1686,16 @@
         <v>Obstacle Map</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="43"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="29"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="35"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="21"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>0</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
@@ -1698,16 +1713,16 @@
         <v>Position/Localization Accuracy</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="44"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="29"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="36"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="21"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>0.25</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
@@ -1716,14 +1731,14 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="29"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="21"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>0.75</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="43" t="s">
         <v>19</v>
       </c>
       <c r="C9" t="s">
@@ -1740,22 +1755,22 @@
         <f>B11</f>
         <v>Human Target ID</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="38">
         <f>AVERAGE(AVERAGE(F9:F13),A4,AVERAGE(F9:F13),AVERAGE(F9:F13))</f>
         <v>0.14250000000000002</v>
       </c>
-      <c r="J9" s="33" t="str">
+      <c r="J9" s="25" t="str">
         <f>B4</f>
         <v>Tracking/ID Subsystem</v>
       </c>
-      <c r="L9" s="22"/>
-      <c r="M9" s="29"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="21"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>0.05</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="43" t="s">
         <v>22</v>
       </c>
       <c r="C10" t="s">
@@ -1775,16 +1790,16 @@
         <f t="shared" si="0"/>
         <v>Target Estimation</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="34"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="29"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="26"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="21"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>0.05</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="43" t="s">
         <v>24</v>
       </c>
       <c r="C11" t="s">
@@ -1804,16 +1819,16 @@
         <f t="shared" si="0"/>
         <v>Multiple targets</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="34"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="29"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="26"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="21"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>0.25</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="43" t="s">
         <v>33</v>
       </c>
       <c r="C12" t="s">
@@ -1833,16 +1848,16 @@
         <f t="shared" si="0"/>
         <v>Target Estimate Update</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="34"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="29"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="26"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="21"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>0.1</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="43" t="s">
         <v>30</v>
       </c>
       <c r="C13" t="s">
@@ -1862,16 +1877,16 @@
         <f>B28</f>
         <v>Target Accuracy and Range</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="34"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="29"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="26"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="21"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>0.25</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="43" t="s">
         <v>27</v>
       </c>
       <c r="C14" t="s">
@@ -1887,19 +1902,19 @@
         <f>A27</f>
         <v>0</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="34"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="29"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="26"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="21"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>0.5</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C15" t="s">
@@ -1915,20 +1930,20 @@
         <f>A29</f>
         <v>0</v>
       </c>
-      <c r="G15" s="19" t="str">
+      <c r="G15" s="18" t="str">
         <f>B29</f>
         <v>Unique Target Tags</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="35"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="29"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="27"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="21"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>0.25</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="43" t="s">
         <v>39</v>
       </c>
       <c r="C16" t="s">
@@ -1940,14 +1955,14 @@
       <c r="E16" t="s">
         <v>85</v>
       </c>
-      <c r="L16" s="22"/>
-      <c r="M16" s="29"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="21"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>0.25</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="43" t="s">
         <v>42</v>
       </c>
       <c r="C17" t="s">
@@ -1964,22 +1979,22 @@
         <f t="shared" si="1"/>
         <v>Collision Correction</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="19">
         <f>AVERAGE(AVERAGE(F17:F20),A6,AVERAGE(F17:F20),AVERAGE(F17:F20))</f>
         <v>0.13124999999999998</v>
       </c>
-      <c r="J17" s="39" t="str">
+      <c r="J17" s="31" t="str">
         <f>B6</f>
         <v>Planning Subsystem</v>
       </c>
-      <c r="L17" s="22"/>
-      <c r="M17" s="29"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="21"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>0.15</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="43" t="s">
         <v>45</v>
       </c>
       <c r="C18" t="s">
@@ -1996,16 +2011,16 @@
         <f t="shared" si="1"/>
         <v>Trajectory Test</v>
       </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="40"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="29"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="32"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="21"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>1</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C19" t="s">
@@ -2025,16 +2040,16 @@
         <f t="shared" si="1"/>
         <v>Obstacle Avoidance</v>
       </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="40"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="29"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="32"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="21"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>0.25</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>51</v>
       </c>
       <c r="C20" t="s">
@@ -2050,16 +2065,16 @@
       <c r="G20" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="40"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="29"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="32"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="21"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>0</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C21" t="s">
@@ -2072,19 +2087,19 @@
         <f>A26</f>
         <v>0</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="40"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="29"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="32"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="21"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>0</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C22" t="s">
@@ -2097,20 +2112,20 @@
         <f>A21</f>
         <v>0</v>
       </c>
-      <c r="G22" s="18" t="str">
+      <c r="G22" s="17" t="str">
         <f>B21</f>
         <v>Delivery Zone</v>
       </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="40"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="29"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="32"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="21"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>0.1</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="44" t="s">
         <v>59</v>
       </c>
       <c r="C23" t="s">
@@ -2123,19 +2138,19 @@
         <f>A22</f>
         <v>0</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="41"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="29"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="33"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="21"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>0.1</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="43" t="s">
         <v>62</v>
       </c>
       <c r="C24" t="s">
@@ -2144,14 +2159,14 @@
       <c r="D24" t="s">
         <v>64</v>
       </c>
-      <c r="L24" s="22"/>
-      <c r="M24" s="29"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="21"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>0.1</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="43" t="s">
         <v>65</v>
       </c>
       <c r="C25" t="s">
@@ -2168,22 +2183,22 @@
         <f t="shared" si="2"/>
         <v>Collision Correction</v>
       </c>
-      <c r="I25" s="25">
+      <c r="I25" s="40">
         <f>AVERAGE(AVERAGE(F25:F28),A7,AVERAGE(F25:F28),AVERAGE(F25:F28))</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="J25" s="36" t="str">
+      <c r="J25" s="28" t="str">
         <f>B7</f>
         <v>Controls Subsystem</v>
       </c>
-      <c r="L25" s="22"/>
-      <c r="M25" s="29"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="21"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>0</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C26" t="s">
@@ -2200,16 +2215,16 @@
         <f t="shared" si="2"/>
         <v>Trajectory Test</v>
       </c>
-      <c r="I26" s="26"/>
-      <c r="J26" s="37"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="29"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="29"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="21"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>0</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>71</v>
       </c>
       <c r="C27" t="s">
@@ -2229,16 +2244,16 @@
         <f t="shared" si="2"/>
         <v>Obstacle Avoidance</v>
       </c>
-      <c r="I27" s="26"/>
-      <c r="J27" s="37"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="29"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="29"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="21"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>0.25</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="43" t="s">
         <v>74</v>
       </c>
       <c r="C28" t="s">
@@ -2255,16 +2270,16 @@
         <f>B19</f>
         <v>Autonomous Takeoff &amp; Landing</v>
       </c>
-      <c r="I28" s="26"/>
-      <c r="J28" s="38"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="29"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="30"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="21"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>0</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C29" t="s">
@@ -2276,14 +2291,14 @@
       <c r="E29" t="s">
         <v>85</v>
       </c>
-      <c r="L29" s="22"/>
-      <c r="M29" s="29"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="21"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>0.1</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="43" t="s">
         <v>95</v>
       </c>
       <c r="D30" t="s">
@@ -2297,16 +2312,16 @@
         <f>B15</f>
         <v>Durataion</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="19">
         <f>AVERAGE(AVERAGE(F30:F31),A8,AVERAGE(F30:F31),AVERAGE(F30:F31))</f>
         <v>0.34375</v>
       </c>
-      <c r="J30" s="31" t="str">
+      <c r="J30" s="23" t="str">
         <f>B8</f>
         <v>Hardware Subsystem</v>
       </c>
-      <c r="L30" s="22"/>
-      <c r="M30" s="29"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="21"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F31" s="12">
@@ -2317,13 +2332,13 @@
         <f>B20</f>
         <v>Payload</v>
       </c>
-      <c r="I31" s="22"/>
-      <c r="J31" s="32"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="30"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="24"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="22"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="16" t="s">
         <v>91</v>
       </c>
       <c r="J32" s="13"/>
@@ -2331,6 +2346,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I9:I15"/>
+    <mergeCell ref="I25:I28"/>
+    <mergeCell ref="I17:I23"/>
+    <mergeCell ref="I3:I7"/>
     <mergeCell ref="L3:L31"/>
     <mergeCell ref="M3:M31"/>
     <mergeCell ref="J30:J31"/>
@@ -2338,13 +2360,6 @@
     <mergeCell ref="J25:J28"/>
     <mergeCell ref="J17:J23"/>
     <mergeCell ref="J3:J7"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I9:I15"/>
-    <mergeCell ref="I25:I28"/>
-    <mergeCell ref="I17:I23"/>
-    <mergeCell ref="I3:I7"/>
   </mergeCells>
   <conditionalFormatting sqref="G3">
     <cfRule type="colorScale" priority="46">

--- a/Technical/Testing/TestPlan.xlsx
+++ b/Technical/Testing/TestPlan.xlsx
@@ -744,9 +744,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -798,26 +818,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1508,8 +1508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1529,14 +1529,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="J1" s="37" t="s">
+      <c r="H1" s="21"/>
+      <c r="J1" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="37"/>
+      <c r="K1" s="21"/>
       <c r="M1" t="s">
         <v>87</v>
       </c>
@@ -1577,7 +1577,7 @@
       <c r="A3" s="12">
         <v>0</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="20" t="s">
         <v>89</v>
       </c>
       <c r="C3" t="s">
@@ -1594,19 +1594,19 @@
         <f>B9</f>
         <v>Initial Camera Test</v>
       </c>
-      <c r="I3" s="42">
+      <c r="I3" s="27">
         <f>AVERAGE(AVERAGE(F3:F7),A5,AVERAGE(F3:F7),AVERAGE(F3:F7))</f>
-        <v>0.16500000000000004</v>
-      </c>
-      <c r="J3" s="34" t="str">
+        <v>0.1875</v>
+      </c>
+      <c r="J3" s="42" t="str">
         <f>B5</f>
         <v>Guidance Subsystem</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="22">
         <f>AVERAGE(AVERAGE(I3,I9,I17,I25,I30),A3,AVERAGE(I3,I9,I17,I25,I30),AVERAGE(I3,I9,I17,I25,I30))</f>
-        <v>0.16237499999999999</v>
-      </c>
-      <c r="M3" s="20" t="str">
+        <v>0.16575000000000001</v>
+      </c>
+      <c r="M3" s="28" t="str">
         <f>B3</f>
         <v>End of Semester Test Demo</v>
       </c>
@@ -1615,7 +1615,7 @@
       <c r="A4" s="12">
         <v>0</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
@@ -1632,16 +1632,16 @@
         <f>B10</f>
         <v>Target Imaging</v>
       </c>
-      <c r="I4" s="42"/>
-      <c r="J4" s="35"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="21"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="43"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="29"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>0</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
@@ -1659,16 +1659,16 @@
         <v>Obstacle Perceived</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="35"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="21"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="43"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="29"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>0</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
@@ -1686,16 +1686,16 @@
         <v>Obstacle Map</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="35"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="21"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="43"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="29"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>0</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
@@ -1706,17 +1706,17 @@
       </c>
       <c r="F7" s="12">
         <f>A30</f>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G7" s="4" t="str">
         <f>B30</f>
         <v>Position/Localization Accuracy</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="36"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="21"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="44"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="29"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
@@ -1731,14 +1731,14 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="19"/>
-      <c r="M8" s="21"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="29"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>0.75</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C9" t="s">
@@ -1755,22 +1755,22 @@
         <f>B11</f>
         <v>Human Target ID</v>
       </c>
-      <c r="I9" s="38">
+      <c r="I9" s="23">
         <f>AVERAGE(AVERAGE(F9:F13),A4,AVERAGE(F9:F13),AVERAGE(F9:F13))</f>
         <v>0.14250000000000002</v>
       </c>
-      <c r="J9" s="25" t="str">
+      <c r="J9" s="33" t="str">
         <f>B4</f>
         <v>Tracking/ID Subsystem</v>
       </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="21"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="29"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>0.05</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C10" t="s">
@@ -1790,16 +1790,16 @@
         <f t="shared" si="0"/>
         <v>Target Estimation</v>
       </c>
-      <c r="I10" s="39"/>
-      <c r="J10" s="26"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="21"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="34"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="29"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>0.05</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="19" t="s">
         <v>24</v>
       </c>
       <c r="C11" t="s">
@@ -1819,16 +1819,16 @@
         <f t="shared" si="0"/>
         <v>Multiple targets</v>
       </c>
-      <c r="I11" s="39"/>
-      <c r="J11" s="26"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="21"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="34"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="29"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>0.25</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="19" t="s">
         <v>33</v>
       </c>
       <c r="C12" t="s">
@@ -1848,16 +1848,16 @@
         <f t="shared" si="0"/>
         <v>Target Estimate Update</v>
       </c>
-      <c r="I12" s="39"/>
-      <c r="J12" s="26"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="21"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="34"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="29"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>0.1</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="19" t="s">
         <v>30</v>
       </c>
       <c r="C13" t="s">
@@ -1877,16 +1877,16 @@
         <f>B28</f>
         <v>Target Accuracy and Range</v>
       </c>
-      <c r="I13" s="39"/>
-      <c r="J13" s="26"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="21"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="34"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="29"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>0.25</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="19" t="s">
         <v>27</v>
       </c>
       <c r="C14" t="s">
@@ -1905,10 +1905,10 @@
       <c r="G14" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="26"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="21"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="34"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="29"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
@@ -1934,16 +1934,16 @@
         <f>B29</f>
         <v>Unique Target Tags</v>
       </c>
-      <c r="I15" s="39"/>
-      <c r="J15" s="27"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="21"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="35"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="29"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>0.25</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="19" t="s">
         <v>39</v>
       </c>
       <c r="C16" t="s">
@@ -1955,14 +1955,14 @@
       <c r="E16" t="s">
         <v>85</v>
       </c>
-      <c r="L16" s="19"/>
-      <c r="M16" s="21"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="29"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>0.25</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="19" t="s">
         <v>42</v>
       </c>
       <c r="C17" t="s">
@@ -1979,22 +1979,22 @@
         <f t="shared" si="1"/>
         <v>Collision Correction</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="22">
         <f>AVERAGE(AVERAGE(F17:F20),A6,AVERAGE(F17:F20),AVERAGE(F17:F20))</f>
         <v>0.13124999999999998</v>
       </c>
-      <c r="J17" s="31" t="str">
+      <c r="J17" s="39" t="str">
         <f>B6</f>
         <v>Planning Subsystem</v>
       </c>
-      <c r="L17" s="19"/>
-      <c r="M17" s="21"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="29"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>0.15</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C18" t="s">
@@ -2011,10 +2011,10 @@
         <f t="shared" si="1"/>
         <v>Trajectory Test</v>
       </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="32"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="21"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="40"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="29"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
@@ -2040,10 +2040,10 @@
         <f t="shared" si="1"/>
         <v>Obstacle Avoidance</v>
       </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="32"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="21"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="40"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="29"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
@@ -2065,10 +2065,10 @@
       <c r="G20" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="32"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="21"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="40"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="29"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
@@ -2090,10 +2090,10 @@
       <c r="G21" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="32"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="21"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="40"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="29"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
@@ -2116,16 +2116,16 @@
         <f>B21</f>
         <v>Delivery Zone</v>
       </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="32"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="21"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="40"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="29"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>0.1</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="20" t="s">
         <v>59</v>
       </c>
       <c r="C23" t="s">
@@ -2141,16 +2141,16 @@
       <c r="G23" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I23" s="19"/>
-      <c r="J23" s="33"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="21"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="41"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="29"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>0.1</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="19" t="s">
         <v>62</v>
       </c>
       <c r="C24" t="s">
@@ -2159,14 +2159,14 @@
       <c r="D24" t="s">
         <v>64</v>
       </c>
-      <c r="L24" s="19"/>
-      <c r="M24" s="21"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="29"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>0.1</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="19" t="s">
         <v>65</v>
       </c>
       <c r="C25" t="s">
@@ -2183,16 +2183,16 @@
         <f t="shared" si="2"/>
         <v>Collision Correction</v>
       </c>
-      <c r="I25" s="40">
+      <c r="I25" s="25">
         <f>AVERAGE(AVERAGE(F25:F28),A7,AVERAGE(F25:F28),AVERAGE(F25:F28))</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="J25" s="28" t="str">
+      <c r="J25" s="36" t="str">
         <f>B7</f>
         <v>Controls Subsystem</v>
       </c>
-      <c r="L25" s="19"/>
-      <c r="M25" s="21"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="29"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
@@ -2215,10 +2215,10 @@
         <f t="shared" si="2"/>
         <v>Trajectory Test</v>
       </c>
-      <c r="I26" s="41"/>
-      <c r="J26" s="29"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="21"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="37"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="29"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
@@ -2244,16 +2244,16 @@
         <f t="shared" si="2"/>
         <v>Obstacle Avoidance</v>
       </c>
-      <c r="I27" s="41"/>
-      <c r="J27" s="29"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="21"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="37"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="29"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>0.25</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="19" t="s">
         <v>74</v>
       </c>
       <c r="C28" t="s">
@@ -2270,10 +2270,10 @@
         <f>B19</f>
         <v>Autonomous Takeoff &amp; Landing</v>
       </c>
-      <c r="I28" s="41"/>
-      <c r="J28" s="30"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="21"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="38"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="29"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
@@ -2291,14 +2291,14 @@
       <c r="E29" t="s">
         <v>85</v>
       </c>
-      <c r="L29" s="19"/>
-      <c r="M29" s="21"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="29"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="B30" s="43" t="s">
+        <v>0.25</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>95</v>
       </c>
       <c r="D30" t="s">
@@ -2312,16 +2312,16 @@
         <f>B15</f>
         <v>Durataion</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="22">
         <f>AVERAGE(AVERAGE(F30:F31),A8,AVERAGE(F30:F31),AVERAGE(F30:F31))</f>
         <v>0.34375</v>
       </c>
-      <c r="J30" s="23" t="str">
+      <c r="J30" s="31" t="str">
         <f>B8</f>
         <v>Hardware Subsystem</v>
       </c>
-      <c r="L30" s="19"/>
-      <c r="M30" s="21"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="29"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F31" s="12">
@@ -2332,10 +2332,10 @@
         <f>B20</f>
         <v>Payload</v>
       </c>
-      <c r="I31" s="19"/>
-      <c r="J31" s="24"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="32"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="30"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
@@ -2346,6 +2346,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="L3:L31"/>
+    <mergeCell ref="M3:M31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J9:J15"/>
+    <mergeCell ref="J25:J28"/>
+    <mergeCell ref="J17:J23"/>
+    <mergeCell ref="J3:J7"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="I30:I31"/>
@@ -2353,13 +2360,6 @@
     <mergeCell ref="I25:I28"/>
     <mergeCell ref="I17:I23"/>
     <mergeCell ref="I3:I7"/>
-    <mergeCell ref="L3:L31"/>
-    <mergeCell ref="M3:M31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J9:J15"/>
-    <mergeCell ref="J25:J28"/>
-    <mergeCell ref="J17:J23"/>
-    <mergeCell ref="J3:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="G3">
     <cfRule type="colorScale" priority="46">

--- a/Technical/Testing/TestPlan.xlsx
+++ b/Technical/Testing/TestPlan.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="98">
   <si>
     <t>Test</t>
   </si>
@@ -316,10 +316,13 @@
     <t>Current</t>
   </si>
   <si>
-    <t>Position/Localization Accuracy</t>
-  </si>
-  <si>
     <t>SLAM accuracy and positioning</t>
+  </si>
+  <si>
+    <t>Visual Odometry Verification and Characterization</t>
+  </si>
+  <si>
+    <t>1.2, 1.1</t>
   </si>
 </sst>
 </file>
@@ -746,12 +749,63 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -765,57 +819,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1509,7 +1512,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1529,14 +1532,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="J1" s="21" t="s">
+      <c r="H1" s="39"/>
+      <c r="J1" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="21"/>
+      <c r="K1" s="39"/>
       <c r="M1" t="s">
         <v>87</v>
       </c>
@@ -1594,19 +1597,19 @@
         <f>B9</f>
         <v>Initial Camera Test</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="44">
         <f>AVERAGE(AVERAGE(F3:F7),A5,AVERAGE(F3:F7),AVERAGE(F3:F7))</f>
-        <v>0.1875</v>
-      </c>
-      <c r="J3" s="42" t="str">
+        <v>0.26249999999999996</v>
+      </c>
+      <c r="J3" s="36" t="str">
         <f>B5</f>
         <v>Guidance Subsystem</v>
       </c>
-      <c r="L3" s="22">
+      <c r="L3" s="21">
         <f>AVERAGE(AVERAGE(I3,I9,I17,I25,I30),A3,AVERAGE(I3,I9,I17,I25,I30),AVERAGE(I3,I9,I17,I25,I30))</f>
-        <v>0.16575000000000001</v>
-      </c>
-      <c r="M3" s="28" t="str">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="M3" s="22" t="str">
         <f>B3</f>
         <v>End of Semester Test Demo</v>
       </c>
@@ -1632,10 +1635,10 @@
         <f>B10</f>
         <v>Target Imaging</v>
       </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="43"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="29"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="37"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="23"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
@@ -1659,10 +1662,10 @@
         <v>Obstacle Perceived</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="43"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="29"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="37"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="23"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
@@ -1686,10 +1689,10 @@
         <v>Obstacle Map</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="43"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="29"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="37"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="23"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
@@ -1706,17 +1709,17 @@
       </c>
       <c r="F7" s="12">
         <f>A30</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="G7" s="4" t="str">
         <f>B30</f>
-        <v>Position/Localization Accuracy</v>
+        <v>Visual Odometry Verification and Characterization</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="44"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="29"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="38"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="23"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
@@ -1731,8 +1734,8 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="29"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="23"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
@@ -1755,16 +1758,16 @@
         <f>B11</f>
         <v>Human Target ID</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="40">
         <f>AVERAGE(AVERAGE(F9:F13),A4,AVERAGE(F9:F13),AVERAGE(F9:F13))</f>
         <v>0.14250000000000002</v>
       </c>
-      <c r="J9" s="33" t="str">
+      <c r="J9" s="27" t="str">
         <f>B4</f>
         <v>Tracking/ID Subsystem</v>
       </c>
-      <c r="L9" s="22"/>
-      <c r="M9" s="29"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="23"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
@@ -1790,10 +1793,10 @@
         <f t="shared" si="0"/>
         <v>Target Estimation</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="34"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="29"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="28"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="23"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
@@ -1819,10 +1822,10 @@
         <f t="shared" si="0"/>
         <v>Multiple targets</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="34"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="29"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="28"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="23"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
@@ -1848,10 +1851,10 @@
         <f t="shared" si="0"/>
         <v>Target Estimate Update</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="34"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="29"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="28"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="23"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
@@ -1877,10 +1880,10 @@
         <f>B28</f>
         <v>Target Accuracy and Range</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="34"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="29"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="28"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="23"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
@@ -1905,10 +1908,10 @@
       <c r="G14" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="34"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="29"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="28"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="23"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
@@ -1934,10 +1937,10 @@
         <f>B29</f>
         <v>Unique Target Tags</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="35"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="29"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="29"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="23"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
@@ -1955,8 +1958,8 @@
       <c r="E16" t="s">
         <v>85</v>
       </c>
-      <c r="L16" s="22"/>
-      <c r="M16" s="29"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="23"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
@@ -1979,16 +1982,16 @@
         <f t="shared" si="1"/>
         <v>Collision Correction</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="21">
         <f>AVERAGE(AVERAGE(F17:F20),A6,AVERAGE(F17:F20),AVERAGE(F17:F20))</f>
         <v>0.13124999999999998</v>
       </c>
-      <c r="J17" s="39" t="str">
+      <c r="J17" s="33" t="str">
         <f>B6</f>
         <v>Planning Subsystem</v>
       </c>
-      <c r="L17" s="22"/>
-      <c r="M17" s="29"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="23"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
@@ -2011,10 +2014,10 @@
         <f t="shared" si="1"/>
         <v>Trajectory Test</v>
       </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="40"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="29"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="34"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="23"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
@@ -2040,10 +2043,10 @@
         <f t="shared" si="1"/>
         <v>Obstacle Avoidance</v>
       </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="40"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="29"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="34"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="23"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
@@ -2065,10 +2068,10 @@
       <c r="G20" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="40"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="29"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="34"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="23"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
@@ -2090,10 +2093,10 @@
       <c r="G21" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="40"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="29"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="34"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="23"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
@@ -2116,10 +2119,10 @@
         <f>B21</f>
         <v>Delivery Zone</v>
       </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="40"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="29"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="34"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="23"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
@@ -2141,10 +2144,10 @@
       <c r="G23" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="41"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="29"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="35"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="23"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
@@ -2159,8 +2162,8 @@
       <c r="D24" t="s">
         <v>64</v>
       </c>
-      <c r="L24" s="22"/>
-      <c r="M24" s="29"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="23"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
@@ -2183,16 +2186,16 @@
         <f t="shared" si="2"/>
         <v>Collision Correction</v>
       </c>
-      <c r="I25" s="25">
+      <c r="I25" s="42">
         <f>AVERAGE(AVERAGE(F25:F28),A7,AVERAGE(F25:F28),AVERAGE(F25:F28))</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="J25" s="36" t="str">
+      <c r="J25" s="30" t="str">
         <f>B7</f>
         <v>Controls Subsystem</v>
       </c>
-      <c r="L25" s="22"/>
-      <c r="M25" s="29"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="23"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
@@ -2215,10 +2218,10 @@
         <f t="shared" si="2"/>
         <v>Trajectory Test</v>
       </c>
-      <c r="I26" s="26"/>
-      <c r="J26" s="37"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="29"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="31"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="23"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
@@ -2244,10 +2247,10 @@
         <f t="shared" si="2"/>
         <v>Obstacle Avoidance</v>
       </c>
-      <c r="I27" s="26"/>
-      <c r="J27" s="37"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="29"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="31"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="23"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
@@ -2270,10 +2273,10 @@
         <f>B19</f>
         <v>Autonomous Takeoff &amp; Landing</v>
       </c>
-      <c r="I28" s="26"/>
-      <c r="J28" s="38"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="29"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="32"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="23"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
@@ -2291,18 +2294,21 @@
       <c r="E29" t="s">
         <v>85</v>
       </c>
-      <c r="L29" s="22"/>
-      <c r="M29" s="29"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="23"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="B30" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" t="s">
         <v>95</v>
-      </c>
-      <c r="D30" t="s">
-        <v>96</v>
       </c>
       <c r="F30" s="12">
         <f>A15</f>
@@ -2312,16 +2318,16 @@
         <f>B15</f>
         <v>Durataion</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="21">
         <f>AVERAGE(AVERAGE(F30:F31),A8,AVERAGE(F30:F31),AVERAGE(F30:F31))</f>
         <v>0.34375</v>
       </c>
-      <c r="J30" s="31" t="str">
+      <c r="J30" s="25" t="str">
         <f>B8</f>
         <v>Hardware Subsystem</v>
       </c>
-      <c r="L30" s="22"/>
-      <c r="M30" s="29"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="23"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F31" s="12">
@@ -2332,10 +2338,10 @@
         <f>B20</f>
         <v>Payload</v>
       </c>
-      <c r="I31" s="22"/>
-      <c r="J31" s="32"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="30"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="26"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="24"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
@@ -2346,6 +2352,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I9:I15"/>
+    <mergeCell ref="I25:I28"/>
+    <mergeCell ref="I17:I23"/>
+    <mergeCell ref="I3:I7"/>
     <mergeCell ref="L3:L31"/>
     <mergeCell ref="M3:M31"/>
     <mergeCell ref="J30:J31"/>
@@ -2353,13 +2366,6 @@
     <mergeCell ref="J25:J28"/>
     <mergeCell ref="J17:J23"/>
     <mergeCell ref="J3:J7"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I9:I15"/>
-    <mergeCell ref="I25:I28"/>
-    <mergeCell ref="I17:I23"/>
-    <mergeCell ref="I3:I7"/>
   </mergeCells>
   <conditionalFormatting sqref="G3">
     <cfRule type="colorScale" priority="46">

--- a/Technical/Testing/TestPlan.xlsx
+++ b/Technical/Testing/TestPlan.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="98">
   <si>
     <t>Test</t>
   </si>
@@ -742,16 +742,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -803,24 +820,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1511,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,14 +1532,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="J1" s="39" t="s">
+      <c r="H1" s="20"/>
+      <c r="J1" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="39"/>
+      <c r="K1" s="20"/>
       <c r="M1" t="s">
         <v>87</v>
       </c>
@@ -1580,7 +1580,7 @@
       <c r="A3" s="12">
         <v>0</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>89</v>
       </c>
       <c r="C3" t="s">
@@ -1597,11 +1597,11 @@
         <f>B9</f>
         <v>Initial Camera Test</v>
       </c>
-      <c r="I3" s="44">
+      <c r="I3" s="26">
         <f>AVERAGE(AVERAGE(F3:F7),A5,AVERAGE(F3:F7),AVERAGE(F3:F7))</f>
         <v>0.26249999999999996</v>
       </c>
-      <c r="J3" s="36" t="str">
+      <c r="J3" s="41" t="str">
         <f>B5</f>
         <v>Guidance Subsystem</v>
       </c>
@@ -1609,7 +1609,7 @@
         <f>AVERAGE(AVERAGE(I3,I9,I17,I25,I30),A3,AVERAGE(I3,I9,I17,I25,I30),AVERAGE(I3,I9,I17,I25,I30))</f>
         <v>0.17699999999999999</v>
       </c>
-      <c r="M3" s="22" t="str">
+      <c r="M3" s="27" t="str">
         <f>B3</f>
         <v>End of Semester Test Demo</v>
       </c>
@@ -1618,7 +1618,7 @@
       <c r="A4" s="12">
         <v>0</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
@@ -1635,16 +1635,16 @@
         <f>B10</f>
         <v>Target Imaging</v>
       </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="37"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="42"/>
       <c r="L4" s="21"/>
-      <c r="M4" s="23"/>
+      <c r="M4" s="28"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>0</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
@@ -1662,16 +1662,16 @@
         <v>Obstacle Perceived</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="37"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="42"/>
       <c r="L5" s="21"/>
-      <c r="M5" s="23"/>
+      <c r="M5" s="28"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>0</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
@@ -1689,16 +1689,16 @@
         <v>Obstacle Map</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="37"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="42"/>
       <c r="L6" s="21"/>
-      <c r="M6" s="23"/>
+      <c r="M6" s="28"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>0</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
@@ -1715,17 +1715,19 @@
         <f>B30</f>
         <v>Visual Odometry Verification and Characterization</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="38"/>
+      <c r="H7" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="26"/>
+      <c r="J7" s="43"/>
       <c r="L7" s="21"/>
-      <c r="M7" s="23"/>
+      <c r="M7" s="28"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>0.25</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
@@ -1735,13 +1737,13 @@
         <v>18</v>
       </c>
       <c r="L8" s="21"/>
-      <c r="M8" s="23"/>
+      <c r="M8" s="28"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>0.75</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C9" t="s">
@@ -1758,22 +1760,22 @@
         <f>B11</f>
         <v>Human Target ID</v>
       </c>
-      <c r="I9" s="40">
+      <c r="I9" s="22">
         <f>AVERAGE(AVERAGE(F9:F13),A4,AVERAGE(F9:F13),AVERAGE(F9:F13))</f>
         <v>0.14250000000000002</v>
       </c>
-      <c r="J9" s="27" t="str">
+      <c r="J9" s="32" t="str">
         <f>B4</f>
         <v>Tracking/ID Subsystem</v>
       </c>
       <c r="L9" s="21"/>
-      <c r="M9" s="23"/>
+      <c r="M9" s="28"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>0.05</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C10" t="s">
@@ -1793,16 +1795,16 @@
         <f t="shared" si="0"/>
         <v>Target Estimation</v>
       </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="28"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="33"/>
       <c r="L10" s="21"/>
-      <c r="M10" s="23"/>
+      <c r="M10" s="28"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>0.05</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C11" t="s">
@@ -1822,16 +1824,16 @@
         <f t="shared" si="0"/>
         <v>Multiple targets</v>
       </c>
-      <c r="I11" s="41"/>
-      <c r="J11" s="28"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="33"/>
       <c r="L11" s="21"/>
-      <c r="M11" s="23"/>
+      <c r="M11" s="28"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>0.25</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>33</v>
       </c>
       <c r="C12" t="s">
@@ -1851,16 +1853,16 @@
         <f t="shared" si="0"/>
         <v>Target Estimate Update</v>
       </c>
-      <c r="I12" s="41"/>
-      <c r="J12" s="28"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="33"/>
       <c r="L12" s="21"/>
-      <c r="M12" s="23"/>
+      <c r="M12" s="28"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>0.1</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>30</v>
       </c>
       <c r="C13" t="s">
@@ -1880,16 +1882,16 @@
         <f>B28</f>
         <v>Target Accuracy and Range</v>
       </c>
-      <c r="I13" s="41"/>
-      <c r="J13" s="28"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="33"/>
       <c r="L13" s="21"/>
-      <c r="M13" s="23"/>
+      <c r="M13" s="28"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>0.25</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>27</v>
       </c>
       <c r="C14" t="s">
@@ -1905,19 +1907,19 @@
         <f>A27</f>
         <v>0</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="28"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="33"/>
       <c r="L14" s="21"/>
-      <c r="M14" s="23"/>
+      <c r="M14" s="28"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>0.5</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="18" t="s">
         <v>36</v>
       </c>
       <c r="C15" t="s">
@@ -1933,20 +1935,20 @@
         <f>A29</f>
         <v>0</v>
       </c>
-      <c r="G15" s="18" t="str">
+      <c r="G15" s="17" t="str">
         <f>B29</f>
         <v>Unique Target Tags</v>
       </c>
-      <c r="I15" s="41"/>
-      <c r="J15" s="29"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="34"/>
       <c r="L15" s="21"/>
-      <c r="M15" s="23"/>
+      <c r="M15" s="28"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>0.25</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>39</v>
       </c>
       <c r="C16" t="s">
@@ -1959,13 +1961,13 @@
         <v>85</v>
       </c>
       <c r="L16" s="21"/>
-      <c r="M16" s="23"/>
+      <c r="M16" s="28"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>0.25</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C17" t="s">
@@ -1986,18 +1988,18 @@
         <f>AVERAGE(AVERAGE(F17:F20),A6,AVERAGE(F17:F20),AVERAGE(F17:F20))</f>
         <v>0.13124999999999998</v>
       </c>
-      <c r="J17" s="33" t="str">
+      <c r="J17" s="38" t="str">
         <f>B6</f>
         <v>Planning Subsystem</v>
       </c>
       <c r="L17" s="21"/>
-      <c r="M17" s="23"/>
+      <c r="M17" s="28"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>0.15</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>45</v>
       </c>
       <c r="C18" t="s">
@@ -2015,15 +2017,15 @@
         <v>Trajectory Test</v>
       </c>
       <c r="I18" s="21"/>
-      <c r="J18" s="34"/>
+      <c r="J18" s="39"/>
       <c r="L18" s="21"/>
-      <c r="M18" s="23"/>
+      <c r="M18" s="28"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>1</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="18" t="s">
         <v>48</v>
       </c>
       <c r="C19" t="s">
@@ -2044,15 +2046,15 @@
         <v>Obstacle Avoidance</v>
       </c>
       <c r="I19" s="21"/>
-      <c r="J19" s="34"/>
+      <c r="J19" s="39"/>
       <c r="L19" s="21"/>
-      <c r="M19" s="23"/>
+      <c r="M19" s="28"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>0.25</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="18" t="s">
         <v>51</v>
       </c>
       <c r="C20" t="s">
@@ -2069,15 +2071,15 @@
         <v>92</v>
       </c>
       <c r="I20" s="21"/>
-      <c r="J20" s="34"/>
+      <c r="J20" s="39"/>
       <c r="L20" s="21"/>
-      <c r="M20" s="23"/>
+      <c r="M20" s="28"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>0</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>53</v>
       </c>
       <c r="C21" t="s">
@@ -2090,19 +2092,19 @@
         <f>A26</f>
         <v>0</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="16" t="s">
         <v>68</v>
       </c>
       <c r="I21" s="21"/>
-      <c r="J21" s="34"/>
+      <c r="J21" s="39"/>
       <c r="L21" s="21"/>
-      <c r="M21" s="23"/>
+      <c r="M21" s="28"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>0</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C22" t="s">
@@ -2115,20 +2117,20 @@
         <f>A21</f>
         <v>0</v>
       </c>
-      <c r="G22" s="17" t="str">
+      <c r="G22" s="16" t="str">
         <f>B21</f>
         <v>Delivery Zone</v>
       </c>
       <c r="I22" s="21"/>
-      <c r="J22" s="34"/>
+      <c r="J22" s="39"/>
       <c r="L22" s="21"/>
-      <c r="M22" s="23"/>
+      <c r="M22" s="28"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>0.1</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="19" t="s">
         <v>59</v>
       </c>
       <c r="C23" t="s">
@@ -2141,19 +2143,19 @@
         <f>A22</f>
         <v>0</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="16" t="s">
         <v>56</v>
       </c>
       <c r="I23" s="21"/>
-      <c r="J23" s="35"/>
+      <c r="J23" s="40"/>
       <c r="L23" s="21"/>
-      <c r="M23" s="23"/>
+      <c r="M23" s="28"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>0.1</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="18" t="s">
         <v>62</v>
       </c>
       <c r="C24" t="s">
@@ -2163,13 +2165,13 @@
         <v>64</v>
       </c>
       <c r="L24" s="21"/>
-      <c r="M24" s="23"/>
+      <c r="M24" s="28"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>0.1</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="18" t="s">
         <v>65</v>
       </c>
       <c r="C25" t="s">
@@ -2186,22 +2188,22 @@
         <f t="shared" si="2"/>
         <v>Collision Correction</v>
       </c>
-      <c r="I25" s="42">
+      <c r="I25" s="24">
         <f>AVERAGE(AVERAGE(F25:F28),A7,AVERAGE(F25:F28),AVERAGE(F25:F28))</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="J25" s="30" t="str">
+      <c r="J25" s="35" t="str">
         <f>B7</f>
         <v>Controls Subsystem</v>
       </c>
       <c r="L25" s="21"/>
-      <c r="M25" s="23"/>
+      <c r="M25" s="28"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>0</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>68</v>
       </c>
       <c r="C26" t="s">
@@ -2218,16 +2220,16 @@
         <f t="shared" si="2"/>
         <v>Trajectory Test</v>
       </c>
-      <c r="I26" s="43"/>
-      <c r="J26" s="31"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="36"/>
       <c r="L26" s="21"/>
-      <c r="M26" s="23"/>
+      <c r="M26" s="28"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>0</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>71</v>
       </c>
       <c r="C27" t="s">
@@ -2247,16 +2249,16 @@
         <f t="shared" si="2"/>
         <v>Obstacle Avoidance</v>
       </c>
-      <c r="I27" s="43"/>
-      <c r="J27" s="31"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="36"/>
       <c r="L27" s="21"/>
-      <c r="M27" s="23"/>
+      <c r="M27" s="28"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>0.25</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C28" t="s">
@@ -2273,16 +2275,16 @@
         <f>B19</f>
         <v>Autonomous Takeoff &amp; Landing</v>
       </c>
-      <c r="I28" s="43"/>
-      <c r="J28" s="32"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="37"/>
       <c r="L28" s="21"/>
-      <c r="M28" s="23"/>
+      <c r="M28" s="28"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>0</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>77</v>
       </c>
       <c r="C29" t="s">
@@ -2295,13 +2297,13 @@
         <v>85</v>
       </c>
       <c r="L29" s="21"/>
-      <c r="M29" s="23"/>
+      <c r="M29" s="28"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>0.75</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="18" t="s">
         <v>96</v>
       </c>
       <c r="C30" t="s">
@@ -2322,12 +2324,12 @@
         <f>AVERAGE(AVERAGE(F30:F31),A8,AVERAGE(F30:F31),AVERAGE(F30:F31))</f>
         <v>0.34375</v>
       </c>
-      <c r="J30" s="25" t="str">
+      <c r="J30" s="30" t="str">
         <f>B8</f>
         <v>Hardware Subsystem</v>
       </c>
       <c r="L30" s="21"/>
-      <c r="M30" s="23"/>
+      <c r="M30" s="28"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F31" s="12">
@@ -2339,12 +2341,12 @@
         <v>Payload</v>
       </c>
       <c r="I31" s="21"/>
-      <c r="J31" s="26"/>
+      <c r="J31" s="31"/>
       <c r="L31" s="21"/>
-      <c r="M31" s="24"/>
+      <c r="M31" s="29"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="15" t="s">
         <v>91</v>
       </c>
       <c r="J32" s="13"/>
@@ -2352,6 +2354,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="L3:L31"/>
+    <mergeCell ref="M3:M31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J9:J15"/>
+    <mergeCell ref="J25:J28"/>
+    <mergeCell ref="J17:J23"/>
+    <mergeCell ref="J3:J7"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="I30:I31"/>
@@ -2359,13 +2368,6 @@
     <mergeCell ref="I25:I28"/>
     <mergeCell ref="I17:I23"/>
     <mergeCell ref="I3:I7"/>
-    <mergeCell ref="L3:L31"/>
-    <mergeCell ref="M3:M31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J9:J15"/>
-    <mergeCell ref="J25:J28"/>
-    <mergeCell ref="J17:J23"/>
-    <mergeCell ref="J3:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="G3">
     <cfRule type="colorScale" priority="46">

--- a/Technical/Testing/TestPlan.xlsx
+++ b/Technical/Testing/TestPlan.xlsx
@@ -748,12 +748,64 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -769,58 +821,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1512,7 +1512,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,14 +1532,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="J1" s="20" t="s">
+      <c r="H1" s="39"/>
+      <c r="J1" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="20"/>
+      <c r="K1" s="39"/>
       <c r="M1" t="s">
         <v>87</v>
       </c>
@@ -1597,11 +1597,11 @@
         <f>B9</f>
         <v>Initial Camera Test</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="44">
         <f>AVERAGE(AVERAGE(F3:F7),A5,AVERAGE(F3:F7),AVERAGE(F3:F7))</f>
         <v>0.26249999999999996</v>
       </c>
-      <c r="J3" s="41" t="str">
+      <c r="J3" s="36" t="str">
         <f>B5</f>
         <v>Guidance Subsystem</v>
       </c>
@@ -1609,7 +1609,7 @@
         <f>AVERAGE(AVERAGE(I3,I9,I17,I25,I30),A3,AVERAGE(I3,I9,I17,I25,I30),AVERAGE(I3,I9,I17,I25,I30))</f>
         <v>0.17699999999999999</v>
       </c>
-      <c r="M3" s="27" t="str">
+      <c r="M3" s="22" t="str">
         <f>B3</f>
         <v>End of Semester Test Demo</v>
       </c>
@@ -1635,10 +1635,10 @@
         <f>B10</f>
         <v>Target Imaging</v>
       </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="42"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="37"/>
       <c r="L4" s="21"/>
-      <c r="M4" s="28"/>
+      <c r="M4" s="23"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
@@ -1662,10 +1662,10 @@
         <v>Obstacle Perceived</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="42"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="37"/>
       <c r="L5" s="21"/>
-      <c r="M5" s="28"/>
+      <c r="M5" s="23"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
@@ -1689,10 +1689,10 @@
         <v>Obstacle Map</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="42"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="37"/>
       <c r="L6" s="21"/>
-      <c r="M6" s="28"/>
+      <c r="M6" s="23"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
@@ -1715,13 +1715,13 @@
         <f>B30</f>
         <v>Visual Odometry Verification and Characterization</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="43"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="38"/>
       <c r="L7" s="21"/>
-      <c r="M7" s="28"/>
+      <c r="M7" s="23"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
@@ -1737,7 +1737,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="21"/>
-      <c r="M8" s="28"/>
+      <c r="M8" s="23"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
@@ -1760,16 +1760,16 @@
         <f>B11</f>
         <v>Human Target ID</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="40">
         <f>AVERAGE(AVERAGE(F9:F13),A4,AVERAGE(F9:F13),AVERAGE(F9:F13))</f>
         <v>0.14250000000000002</v>
       </c>
-      <c r="J9" s="32" t="str">
+      <c r="J9" s="27" t="str">
         <f>B4</f>
         <v>Tracking/ID Subsystem</v>
       </c>
       <c r="L9" s="21"/>
-      <c r="M9" s="28"/>
+      <c r="M9" s="23"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
@@ -1795,10 +1795,10 @@
         <f t="shared" si="0"/>
         <v>Target Estimation</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="33"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="28"/>
       <c r="L10" s="21"/>
-      <c r="M10" s="28"/>
+      <c r="M10" s="23"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
@@ -1824,10 +1824,10 @@
         <f t="shared" si="0"/>
         <v>Multiple targets</v>
       </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="33"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="28"/>
       <c r="L11" s="21"/>
-      <c r="M11" s="28"/>
+      <c r="M11" s="23"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
@@ -1853,10 +1853,10 @@
         <f t="shared" si="0"/>
         <v>Target Estimate Update</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="33"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="28"/>
       <c r="L12" s="21"/>
-      <c r="M12" s="28"/>
+      <c r="M12" s="23"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
@@ -1882,10 +1882,10 @@
         <f>B28</f>
         <v>Target Accuracy and Range</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="33"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="28"/>
       <c r="L13" s="21"/>
-      <c r="M13" s="28"/>
+      <c r="M13" s="23"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
@@ -1910,10 +1910,10 @@
       <c r="G14" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="33"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="28"/>
       <c r="L14" s="21"/>
-      <c r="M14" s="28"/>
+      <c r="M14" s="23"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
@@ -1939,10 +1939,10 @@
         <f>B29</f>
         <v>Unique Target Tags</v>
       </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="34"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="29"/>
       <c r="L15" s="21"/>
-      <c r="M15" s="28"/>
+      <c r="M15" s="23"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
@@ -1961,7 +1961,7 @@
         <v>85</v>
       </c>
       <c r="L16" s="21"/>
-      <c r="M16" s="28"/>
+      <c r="M16" s="23"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
@@ -1988,12 +1988,12 @@
         <f>AVERAGE(AVERAGE(F17:F20),A6,AVERAGE(F17:F20),AVERAGE(F17:F20))</f>
         <v>0.13124999999999998</v>
       </c>
-      <c r="J17" s="38" t="str">
+      <c r="J17" s="33" t="str">
         <f>B6</f>
         <v>Planning Subsystem</v>
       </c>
       <c r="L17" s="21"/>
-      <c r="M17" s="28"/>
+      <c r="M17" s="23"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
@@ -2017,9 +2017,9 @@
         <v>Trajectory Test</v>
       </c>
       <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
+      <c r="J18" s="34"/>
       <c r="L18" s="21"/>
-      <c r="M18" s="28"/>
+      <c r="M18" s="23"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
@@ -2046,9 +2046,9 @@
         <v>Obstacle Avoidance</v>
       </c>
       <c r="I19" s="21"/>
-      <c r="J19" s="39"/>
+      <c r="J19" s="34"/>
       <c r="L19" s="21"/>
-      <c r="M19" s="28"/>
+      <c r="M19" s="23"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
@@ -2071,9 +2071,9 @@
         <v>92</v>
       </c>
       <c r="I20" s="21"/>
-      <c r="J20" s="39"/>
+      <c r="J20" s="34"/>
       <c r="L20" s="21"/>
-      <c r="M20" s="28"/>
+      <c r="M20" s="23"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
@@ -2096,9 +2096,9 @@
         <v>68</v>
       </c>
       <c r="I21" s="21"/>
-      <c r="J21" s="39"/>
+      <c r="J21" s="34"/>
       <c r="L21" s="21"/>
-      <c r="M21" s="28"/>
+      <c r="M21" s="23"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
@@ -2122,9 +2122,9 @@
         <v>Delivery Zone</v>
       </c>
       <c r="I22" s="21"/>
-      <c r="J22" s="39"/>
+      <c r="J22" s="34"/>
       <c r="L22" s="21"/>
-      <c r="M22" s="28"/>
+      <c r="M22" s="23"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
@@ -2147,9 +2147,9 @@
         <v>56</v>
       </c>
       <c r="I23" s="21"/>
-      <c r="J23" s="40"/>
+      <c r="J23" s="35"/>
       <c r="L23" s="21"/>
-      <c r="M23" s="28"/>
+      <c r="M23" s="23"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
@@ -2165,7 +2165,7 @@
         <v>64</v>
       </c>
       <c r="L24" s="21"/>
-      <c r="M24" s="28"/>
+      <c r="M24" s="23"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
@@ -2188,16 +2188,16 @@
         <f t="shared" si="2"/>
         <v>Collision Correction</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I25" s="42">
         <f>AVERAGE(AVERAGE(F25:F28),A7,AVERAGE(F25:F28),AVERAGE(F25:F28))</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="J25" s="35" t="str">
+      <c r="J25" s="30" t="str">
         <f>B7</f>
         <v>Controls Subsystem</v>
       </c>
       <c r="L25" s="21"/>
-      <c r="M25" s="28"/>
+      <c r="M25" s="23"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
@@ -2220,10 +2220,10 @@
         <f t="shared" si="2"/>
         <v>Trajectory Test</v>
       </c>
-      <c r="I26" s="25"/>
-      <c r="J26" s="36"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="31"/>
       <c r="L26" s="21"/>
-      <c r="M26" s="28"/>
+      <c r="M26" s="23"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
@@ -2249,10 +2249,10 @@
         <f t="shared" si="2"/>
         <v>Obstacle Avoidance</v>
       </c>
-      <c r="I27" s="25"/>
-      <c r="J27" s="36"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="31"/>
       <c r="L27" s="21"/>
-      <c r="M27" s="28"/>
+      <c r="M27" s="23"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
@@ -2275,10 +2275,10 @@
         <f>B19</f>
         <v>Autonomous Takeoff &amp; Landing</v>
       </c>
-      <c r="I28" s="25"/>
-      <c r="J28" s="37"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="32"/>
       <c r="L28" s="21"/>
-      <c r="M28" s="28"/>
+      <c r="M28" s="23"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
@@ -2297,7 +2297,7 @@
         <v>85</v>
       </c>
       <c r="L29" s="21"/>
-      <c r="M29" s="28"/>
+      <c r="M29" s="23"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
@@ -2324,12 +2324,12 @@
         <f>AVERAGE(AVERAGE(F30:F31),A8,AVERAGE(F30:F31),AVERAGE(F30:F31))</f>
         <v>0.34375</v>
       </c>
-      <c r="J30" s="30" t="str">
+      <c r="J30" s="25" t="str">
         <f>B8</f>
         <v>Hardware Subsystem</v>
       </c>
       <c r="L30" s="21"/>
-      <c r="M30" s="28"/>
+      <c r="M30" s="23"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F31" s="12">
@@ -2341,9 +2341,9 @@
         <v>Payload</v>
       </c>
       <c r="I31" s="21"/>
-      <c r="J31" s="31"/>
+      <c r="J31" s="26"/>
       <c r="L31" s="21"/>
-      <c r="M31" s="29"/>
+      <c r="M31" s="24"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="s">
@@ -2354,6 +2354,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I9:I15"/>
+    <mergeCell ref="I25:I28"/>
+    <mergeCell ref="I17:I23"/>
+    <mergeCell ref="I3:I7"/>
     <mergeCell ref="L3:L31"/>
     <mergeCell ref="M3:M31"/>
     <mergeCell ref="J30:J31"/>
@@ -2361,13 +2368,6 @@
     <mergeCell ref="J25:J28"/>
     <mergeCell ref="J17:J23"/>
     <mergeCell ref="J3:J7"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I9:I15"/>
-    <mergeCell ref="I25:I28"/>
-    <mergeCell ref="I17:I23"/>
-    <mergeCell ref="I3:I7"/>
   </mergeCells>
   <conditionalFormatting sqref="G3">
     <cfRule type="colorScale" priority="46">

--- a/Technical/Testing/TestPlan.xlsx
+++ b/Technical/Testing/TestPlan.xlsx
@@ -749,9 +749,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -801,24 +819,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1512,7 +1512,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,14 +1532,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="J1" s="39" t="s">
+      <c r="H1" s="21"/>
+      <c r="J1" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="39"/>
+      <c r="K1" s="21"/>
       <c r="M1" t="s">
         <v>87</v>
       </c>
@@ -1597,19 +1597,19 @@
         <f>B9</f>
         <v>Initial Camera Test</v>
       </c>
-      <c r="I3" s="44">
+      <c r="I3" s="27">
         <f>AVERAGE(AVERAGE(F3:F7),A5,AVERAGE(F3:F7),AVERAGE(F3:F7))</f>
-        <v>0.26249999999999996</v>
-      </c>
-      <c r="J3" s="36" t="str">
+        <v>0.1875</v>
+      </c>
+      <c r="J3" s="42" t="str">
         <f>B5</f>
         <v>Guidance Subsystem</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="22">
         <f>AVERAGE(AVERAGE(I3,I9,I17,I25,I30),A3,AVERAGE(I3,I9,I17,I25,I30),AVERAGE(I3,I9,I17,I25,I30))</f>
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="M3" s="22" t="str">
+        <v>0.19950000000000001</v>
+      </c>
+      <c r="M3" s="28" t="str">
         <f>B3</f>
         <v>End of Semester Test Demo</v>
       </c>
@@ -1635,10 +1635,10 @@
         <f>B10</f>
         <v>Target Imaging</v>
       </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="37"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="23"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="43"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="29"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
@@ -1662,10 +1662,10 @@
         <v>Obstacle Perceived</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="37"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="23"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="43"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="29"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
@@ -1689,10 +1689,10 @@
         <v>Obstacle Map</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="37"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="23"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="43"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="29"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
@@ -1709,7 +1709,7 @@
       </c>
       <c r="F7" s="12">
         <f>A30</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="G7" s="4" t="str">
         <f>B30</f>
@@ -1718,10 +1718,10 @@
       <c r="H7" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="38"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="23"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="44"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="29"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
@@ -1736,8 +1736,8 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="21"/>
-      <c r="M8" s="23"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="29"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
@@ -1760,16 +1760,16 @@
         <f>B11</f>
         <v>Human Target ID</v>
       </c>
-      <c r="I9" s="40">
+      <c r="I9" s="23">
         <f>AVERAGE(AVERAGE(F9:F13),A4,AVERAGE(F9:F13),AVERAGE(F9:F13))</f>
         <v>0.14250000000000002</v>
       </c>
-      <c r="J9" s="27" t="str">
+      <c r="J9" s="33" t="str">
         <f>B4</f>
         <v>Tracking/ID Subsystem</v>
       </c>
-      <c r="L9" s="21"/>
-      <c r="M9" s="23"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="29"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
@@ -1795,10 +1795,10 @@
         <f t="shared" si="0"/>
         <v>Target Estimation</v>
       </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="28"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="23"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="34"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="29"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
@@ -1824,10 +1824,10 @@
         <f t="shared" si="0"/>
         <v>Multiple targets</v>
       </c>
-      <c r="I11" s="41"/>
-      <c r="J11" s="28"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="23"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="34"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="29"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
@@ -1853,14 +1853,14 @@
         <f t="shared" si="0"/>
         <v>Target Estimate Update</v>
       </c>
-      <c r="I12" s="41"/>
-      <c r="J12" s="28"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="23"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="34"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="29"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>30</v>
@@ -1882,10 +1882,10 @@
         <f>B28</f>
         <v>Target Accuracy and Range</v>
       </c>
-      <c r="I13" s="41"/>
-      <c r="J13" s="28"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="23"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="34"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="29"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
@@ -1910,10 +1910,10 @@
       <c r="G14" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="28"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="23"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="34"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="29"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
@@ -1939,10 +1939,10 @@
         <f>B29</f>
         <v>Unique Target Tags</v>
       </c>
-      <c r="I15" s="41"/>
-      <c r="J15" s="29"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="23"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="35"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="29"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
@@ -1960,8 +1960,8 @@
       <c r="E16" t="s">
         <v>85</v>
       </c>
-      <c r="L16" s="21"/>
-      <c r="M16" s="23"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="29"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
@@ -1984,16 +1984,16 @@
         <f t="shared" si="1"/>
         <v>Collision Correction</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="22">
         <f>AVERAGE(AVERAGE(F17:F20),A6,AVERAGE(F17:F20),AVERAGE(F17:F20))</f>
-        <v>0.13124999999999998</v>
-      </c>
-      <c r="J17" s="33" t="str">
+        <v>0.25312500000000004</v>
+      </c>
+      <c r="J17" s="39" t="str">
         <f>B6</f>
         <v>Planning Subsystem</v>
       </c>
-      <c r="L17" s="21"/>
-      <c r="M17" s="23"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="29"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
@@ -2010,20 +2010,20 @@
       </c>
       <c r="F18" s="12">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="G18" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Trajectory Test</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="34"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="23"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="40"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="29"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>48</v>
@@ -2045,10 +2045,10 @@
         <f t="shared" si="1"/>
         <v>Obstacle Avoidance</v>
       </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="34"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="23"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="40"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="29"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
@@ -2070,10 +2070,10 @@
       <c r="G20" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="34"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="23"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="40"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="29"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
@@ -2095,10 +2095,10 @@
       <c r="G21" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="34"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="23"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="40"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="29"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
@@ -2121,10 +2121,10 @@
         <f>B21</f>
         <v>Delivery Zone</v>
       </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="34"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="23"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="40"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="29"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
@@ -2146,10 +2146,10 @@
       <c r="G23" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="35"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="23"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="41"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="29"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
@@ -2164,8 +2164,8 @@
       <c r="D24" t="s">
         <v>64</v>
       </c>
-      <c r="L24" s="21"/>
-      <c r="M24" s="23"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="29"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
@@ -2188,16 +2188,16 @@
         <f t="shared" si="2"/>
         <v>Collision Correction</v>
       </c>
-      <c r="I25" s="42">
+      <c r="I25" s="25">
         <f>AVERAGE(AVERAGE(F25:F28),A7,AVERAGE(F25:F28),AVERAGE(F25:F28))</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="J25" s="30" t="str">
+        <v>0.40312499999999996</v>
+      </c>
+      <c r="J25" s="36" t="str">
         <f>B7</f>
         <v>Controls Subsystem</v>
       </c>
-      <c r="L25" s="21"/>
-      <c r="M25" s="23"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="29"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
@@ -2214,16 +2214,16 @@
       </c>
       <c r="F26" s="12">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="G26" s="8" t="str">
         <f t="shared" si="2"/>
         <v>Trajectory Test</v>
       </c>
-      <c r="I26" s="43"/>
-      <c r="J26" s="31"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="23"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="37"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="29"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
@@ -2249,10 +2249,10 @@
         <f t="shared" si="2"/>
         <v>Obstacle Avoidance</v>
       </c>
-      <c r="I27" s="43"/>
-      <c r="J27" s="31"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="23"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="37"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="29"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
@@ -2269,16 +2269,16 @@
       </c>
       <c r="F28" s="12">
         <f>A19</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G28" s="8" t="str">
         <f>B19</f>
         <v>Autonomous Takeoff &amp; Landing</v>
       </c>
-      <c r="I28" s="43"/>
-      <c r="J28" s="32"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="23"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="38"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="29"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
@@ -2296,12 +2296,12 @@
       <c r="E29" t="s">
         <v>85</v>
       </c>
-      <c r="L29" s="21"/>
-      <c r="M29" s="23"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="29"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>96</v>
@@ -2320,16 +2320,16 @@
         <f>B15</f>
         <v>Durataion</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30" s="22">
         <f>AVERAGE(AVERAGE(F30:F31),A8,AVERAGE(F30:F31),AVERAGE(F30:F31))</f>
         <v>0.34375</v>
       </c>
-      <c r="J30" s="25" t="str">
+      <c r="J30" s="31" t="str">
         <f>B8</f>
         <v>Hardware Subsystem</v>
       </c>
-      <c r="L30" s="21"/>
-      <c r="M30" s="23"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="29"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F31" s="12">
@@ -2340,10 +2340,10 @@
         <f>B20</f>
         <v>Payload</v>
       </c>
-      <c r="I31" s="21"/>
-      <c r="J31" s="26"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="24"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="32"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="30"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="s">
@@ -2354,6 +2354,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="L3:L31"/>
+    <mergeCell ref="M3:M31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J9:J15"/>
+    <mergeCell ref="J25:J28"/>
+    <mergeCell ref="J17:J23"/>
+    <mergeCell ref="J3:J7"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="I30:I31"/>
@@ -2361,13 +2368,6 @@
     <mergeCell ref="I25:I28"/>
     <mergeCell ref="I17:I23"/>
     <mergeCell ref="I3:I7"/>
-    <mergeCell ref="L3:L31"/>
-    <mergeCell ref="M3:M31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J9:J15"/>
-    <mergeCell ref="J25:J28"/>
-    <mergeCell ref="J17:J23"/>
-    <mergeCell ref="J3:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="G3">
     <cfRule type="colorScale" priority="46">

--- a/Technical/Testing/TestPlan.xlsx
+++ b/Technical/Testing/TestPlan.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="84">
   <si>
     <t>Test</t>
   </si>
@@ -189,24 +189,6 @@
     <t>5.1.1</t>
   </si>
   <si>
-    <t>Delivery Zone</t>
-  </si>
-  <si>
-    <t>5.2.1</t>
-  </si>
-  <si>
-    <t>Within 5 meters of confirmed target</t>
-  </si>
-  <si>
-    <t>Payload Delivery</t>
-  </si>
-  <si>
-    <t>5.3.1, 5.3.2</t>
-  </si>
-  <si>
-    <t>Release and confirm payload delivered safely</t>
-  </si>
-  <si>
     <t>Receive &amp; Transmit Test</t>
   </si>
   <si>
@@ -243,15 +225,6 @@
     <t>Communicate Obstacle Maps and Confirmed target tracks</t>
   </si>
   <si>
-    <t>Target tag identification</t>
-  </si>
-  <si>
-    <t>8.2.1</t>
-  </si>
-  <si>
-    <t>Roport identified tags</t>
-  </si>
-  <si>
     <t>Target Accuracy and Range</t>
   </si>
   <si>
@@ -259,15 +232,6 @@
   </si>
   <si>
     <t>Detect tags at 95% accuracy, find the maximum distance</t>
-  </si>
-  <si>
-    <t>Unique Target Tags</t>
-  </si>
-  <si>
-    <t>8.4.1</t>
-  </si>
-  <si>
-    <t>Report tag ID numbers of all identified targets</t>
   </si>
   <si>
     <t>Component
@@ -304,13 +268,7 @@
     <t xml:space="preserve">Correctly locate targets 95% of time </t>
   </si>
   <si>
-    <t>Pushed To Next Semester</t>
-  </si>
-  <si>
     <t>Receive and Transmit Test</t>
-  </si>
-  <si>
-    <t>Target Tag Identification</t>
   </si>
   <si>
     <t>Current</t>
@@ -361,21 +319,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="27">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -711,13 +663,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -742,83 +712,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1511,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,21 +1502,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G1" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" s="21"/>
-      <c r="J1" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" s="21"/>
+      <c r="G1" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="35"/>
+      <c r="J1" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="35"/>
       <c r="M1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1559,29 +1529,29 @@
       </c>
       <c r="E2" s="1"/>
       <c r="G2" s="10" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="11" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="L2" s="11"/>
       <c r="M2" s="11" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>0</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>89</v>
+      <c r="B3" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -1597,19 +1567,19 @@
         <f>B9</f>
         <v>Initial Camera Test</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="38">
         <f>AVERAGE(AVERAGE(F3:F7),A5,AVERAGE(F3:F7),AVERAGE(F3:F7))</f>
         <v>0.1875</v>
       </c>
-      <c r="J3" s="42" t="str">
+      <c r="J3" s="32" t="str">
         <f>B5</f>
         <v>Guidance Subsystem</v>
       </c>
-      <c r="L3" s="22">
-        <f>AVERAGE(AVERAGE(I3,I9,I17,I25,I30),A3,AVERAGE(I3,I9,I17,I25,I30),AVERAGE(I3,I9,I17,I25,I30))</f>
-        <v>0.19950000000000001</v>
-      </c>
-      <c r="M3" s="28" t="str">
+      <c r="L3" s="42">
+        <f>AVERAGE(AVERAGE(I3,I9,I15,I21,I26),A3,AVERAGE(I3,I9,I15,I21,I26),AVERAGE(I3,I9,I15,I21,I26))</f>
+        <v>0.19303125000000002</v>
+      </c>
+      <c r="M3" s="18" t="str">
         <f>B3</f>
         <v>End of Semester Test Demo</v>
       </c>
@@ -1618,7 +1588,7 @@
       <c r="A4" s="12">
         <v>0</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
@@ -1635,16 +1605,16 @@
         <f>B10</f>
         <v>Target Imaging</v>
       </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="43"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="29"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="33"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="19"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>0</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
@@ -1654,24 +1624,24 @@
         <v>15</v>
       </c>
       <c r="F5" s="12">
-        <f>A24</f>
+        <f>A22</f>
         <v>0.1</v>
       </c>
       <c r="G5" s="4" t="str">
-        <f>B24</f>
+        <f>B22</f>
         <v>Obstacle Perceived</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="43"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="29"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="33"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="19"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>0</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
@@ -1681,53 +1651,53 @@
         <v>16</v>
       </c>
       <c r="F6" s="12">
-        <f>A25</f>
+        <f>A23</f>
         <v>0.1</v>
       </c>
       <c r="G6" s="4" t="str">
-        <f>B25</f>
+        <f>B23</f>
         <v>Obstacle Map</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="43"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="29"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="33"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="19"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>0</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="12">
-        <f>A30</f>
+        <f>A26</f>
         <v>0.25</v>
       </c>
       <c r="G7" s="4" t="str">
-        <f>B30</f>
+        <f>B26</f>
         <v>Visual Odometry Verification and Characterization</v>
       </c>
-      <c r="H7" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="44"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="29"/>
+      <c r="H7" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="34"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="19"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>0.25</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
@@ -1736,14 +1706,14 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="29"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="19"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>0.75</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C9" t="s">
@@ -1760,32 +1730,32 @@
         <f>B11</f>
         <v>Human Target ID</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="36">
         <f>AVERAGE(AVERAGE(F9:F13),A4,AVERAGE(F9:F13),AVERAGE(F9:F13))</f>
         <v>0.14250000000000002</v>
       </c>
-      <c r="J9" s="33" t="str">
+      <c r="J9" s="23" t="str">
         <f>B4</f>
         <v>Tracking/ID Subsystem</v>
       </c>
-      <c r="L9" s="22"/>
-      <c r="M9" s="29"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="19"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>0.05</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F10" s="12">
         <f t="shared" ref="F10:G12" si="0">A16</f>
@@ -1795,16 +1765,16 @@
         <f t="shared" si="0"/>
         <v>Target Estimation</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="34"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="29"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="24"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="19"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>0.05</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C11" t="s">
@@ -1814,7 +1784,7 @@
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F11" s="12">
         <f t="shared" si="0"/>
@@ -1824,16 +1794,16 @@
         <f t="shared" si="0"/>
         <v>Multiple targets</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="34"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="29"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="24"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="19"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>0.25</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C12" t="s">
@@ -1843,7 +1813,7 @@
         <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F12" s="12">
         <f t="shared" si="0"/>
@@ -1853,16 +1823,16 @@
         <f t="shared" si="0"/>
         <v>Target Estimate Update</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="34"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="29"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I12" s="36"/>
+      <c r="J12" s="24"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="19"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>0.75</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C13" t="s">
@@ -1872,26 +1842,26 @@
         <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F13" s="12">
-        <f>A28</f>
+        <f>A25</f>
         <v>0.25</v>
       </c>
       <c r="G13" s="6" t="str">
-        <f>B28</f>
+        <f>B25</f>
         <v>Target Accuracy and Range</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="34"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="29"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="19"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>0.25</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C14" t="s">
@@ -1901,25 +1871,17 @@
         <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="12">
-        <f>A27</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="34"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="29"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="F14"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="19"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>0.5</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C15" t="s">
@@ -1929,26 +1891,32 @@
         <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F15" s="12">
-        <f>A29</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="17" t="str">
-        <f>B29</f>
-        <v>Unique Target Tags</v>
-      </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="35"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="29"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f>A12</f>
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="7" t="str">
+        <f>B12</f>
+        <v>Collision Correction</v>
+      </c>
+      <c r="I15" s="41">
+        <f>AVERAGE(AVERAGE(F15:F19),A6,AVERAGE(F15:F19),AVERAGE(F15:F19))</f>
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="J15" s="29" t="str">
+        <f>B6</f>
+        <v>Planning Subsystem</v>
+      </c>
+      <c r="L15" s="42"/>
+      <c r="M15" s="19"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>0.25</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C16" t="s">
@@ -1958,16 +1926,26 @@
         <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
-      </c>
-      <c r="L16" s="22"/>
-      <c r="M16" s="29"/>
+        <v>73</v>
+      </c>
+      <c r="F16" s="12">
+        <f>A13</f>
+        <v>0.75</v>
+      </c>
+      <c r="G16" s="7" t="str">
+        <f>B13</f>
+        <v>Trajectory Test</v>
+      </c>
+      <c r="I16" s="41"/>
+      <c r="J16" s="30"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="19"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>0.25</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C17" t="s">
@@ -1977,29 +1955,23 @@
         <v>44</v>
       </c>
       <c r="F17" s="12">
-        <f t="shared" ref="F17:G19" si="1">A12</f>
+        <f>A14</f>
         <v>0.25</v>
       </c>
       <c r="G17" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Collision Correction</v>
-      </c>
-      <c r="I17" s="22">
-        <f>AVERAGE(AVERAGE(F17:F20),A6,AVERAGE(F17:F20),AVERAGE(F17:F20))</f>
-        <v>0.25312500000000004</v>
-      </c>
-      <c r="J17" s="39" t="str">
-        <f>B6</f>
-        <v>Planning Subsystem</v>
-      </c>
-      <c r="L17" s="22"/>
-      <c r="M17" s="29"/>
+        <f>B14</f>
+        <v>Obstacle Avoidance</v>
+      </c>
+      <c r="I17" s="41"/>
+      <c r="J17" s="30"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="19"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>0.15</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C18" t="s">
@@ -2009,23 +1981,22 @@
         <v>47</v>
       </c>
       <c r="F18" s="12">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
-      <c r="G18" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Trajectory Test</v>
-      </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="40"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="29"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <f>A21</f>
+        <v>0.1</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="41"/>
+      <c r="J18" s="30"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="19"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>0.9</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C19" t="s">
@@ -2035,26 +2006,25 @@
         <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F19" s="12">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="G19" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Obstacle Avoidance</v>
-      </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="40"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="29"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <f>A24</f>
+        <v>0.05</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="41"/>
+      <c r="J19" s="31"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="19"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>0.25</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="14" t="s">
         <v>51</v>
       </c>
       <c r="C20" t="s">
@@ -2063,23 +2033,14 @@
       <c r="D20" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="12">
-        <f>A23</f>
-        <v>0.1</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="40"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="29"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="19"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
-        <v>0</v>
-      </c>
-      <c r="B21" s="14" t="s">
+        <v>0.1</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C21" t="s">
@@ -2089,20 +2050,27 @@
         <v>55</v>
       </c>
       <c r="F21" s="12">
-        <f>A26</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="40"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="29"/>
+        <f>A12</f>
+        <v>0.25</v>
+      </c>
+      <c r="G21" s="8" t="str">
+        <f>B12</f>
+        <v>Collision Correction</v>
+      </c>
+      <c r="I21" s="37">
+        <f>AVERAGE(AVERAGE(F21:F24),A7,AVERAGE(F21:F24),AVERAGE(F21:F24))</f>
+        <v>0.40312499999999996</v>
+      </c>
+      <c r="J21" s="26" t="str">
+        <f>B7</f>
+        <v>Controls Subsystem</v>
+      </c>
+      <c r="L21" s="42"/>
+      <c r="M21" s="19"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>56</v>
@@ -2114,23 +2082,23 @@
         <v>58</v>
       </c>
       <c r="F22" s="12">
-        <f>A21</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="16" t="str">
-        <f>B21</f>
-        <v>Delivery Zone</v>
-      </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="40"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="29"/>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f>A13</f>
+        <v>0.75</v>
+      </c>
+      <c r="G22" s="8" t="str">
+        <f>B13</f>
+        <v>Trajectory Test</v>
+      </c>
+      <c r="I22" s="37"/>
+      <c r="J22" s="27"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="19"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>0.1</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="14" t="s">
         <v>59</v>
       </c>
       <c r="C23" t="s">
@@ -2140,22 +2108,23 @@
         <v>61</v>
       </c>
       <c r="F23" s="12">
-        <f>A22</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="41"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="29"/>
+        <f>A14</f>
+        <v>0.25</v>
+      </c>
+      <c r="G23" s="8" t="str">
+        <f>B14</f>
+        <v>Obstacle Avoidance</v>
+      </c>
+      <c r="I23" s="37"/>
+      <c r="J23" s="27"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="19"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="B24" s="18" t="s">
+        <v>0.05</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>62</v>
       </c>
       <c r="C24" t="s">
@@ -2164,14 +2133,24 @@
       <c r="D24" t="s">
         <v>64</v>
       </c>
-      <c r="L24" s="22"/>
-      <c r="M24" s="29"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F24" s="12">
+        <f>A19</f>
+        <v>0.9</v>
+      </c>
+      <c r="G24" s="8" t="str">
+        <f>B19</f>
+        <v>Autonomous Takeoff &amp; Landing</v>
+      </c>
+      <c r="I24" s="37"/>
+      <c r="J24" s="28"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="19"/>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="B25" s="18" t="s">
+        <v>0.25</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>65</v>
       </c>
       <c r="C25" t="s">
@@ -2180,194 +2159,93 @@
       <c r="D25" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="12">
-        <f t="shared" ref="F25:G27" si="2">A12</f>
-        <v>0.25</v>
-      </c>
-      <c r="G25" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>Collision Correction</v>
-      </c>
-      <c r="I25" s="25">
-        <f>AVERAGE(AVERAGE(F25:F28),A7,AVERAGE(F25:F28),AVERAGE(F25:F28))</f>
-        <v>0.40312499999999996</v>
-      </c>
-      <c r="J25" s="36" t="str">
-        <f>B7</f>
-        <v>Controls Subsystem</v>
-      </c>
-      <c r="L25" s="22"/>
-      <c r="M25" s="29"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="19"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F26" s="12">
-        <f t="shared" si="2"/>
-        <v>0.75</v>
-      </c>
-      <c r="G26" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>Trajectory Test</v>
-      </c>
-      <c r="I26" s="26"/>
-      <c r="J26" s="37"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="29"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
-        <v>0</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" t="s">
-        <v>85</v>
-      </c>
-      <c r="F27" s="12">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="G27" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>Obstacle Avoidance</v>
-      </c>
-      <c r="I27" s="26"/>
-      <c r="J27" s="37"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="29"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" s="12">
-        <f>A19</f>
-        <v>0.9</v>
-      </c>
-      <c r="G28" s="8" t="str">
-        <f>B19</f>
-        <v>Autonomous Takeoff &amp; Landing</v>
-      </c>
-      <c r="I28" s="26"/>
-      <c r="J28" s="38"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="29"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12">
-        <v>0</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" t="s">
-        <v>85</v>
-      </c>
-      <c r="L29" s="22"/>
-      <c r="M29" s="29"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" t="s">
-        <v>95</v>
-      </c>
-      <c r="F30" s="12">
         <f>A15</f>
         <v>0.5</v>
       </c>
-      <c r="G30" s="9" t="str">
+      <c r="G26" s="9" t="str">
         <f>B15</f>
         <v>Durataion</v>
       </c>
-      <c r="I30" s="22">
-        <f>AVERAGE(AVERAGE(F30:F31),A8,AVERAGE(F30:F31),AVERAGE(F30:F31))</f>
+      <c r="I26" s="17">
+        <f>AVERAGE(AVERAGE(F26:F27),A8,AVERAGE(F26:F27),AVERAGE(F26:F27))</f>
         <v>0.34375</v>
       </c>
-      <c r="J30" s="31" t="str">
+      <c r="J26" s="21" t="str">
         <f>B8</f>
         <v>Hardware Subsystem</v>
       </c>
-      <c r="L30" s="22"/>
-      <c r="M30" s="29"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F31" s="12">
+      <c r="L26" s="42"/>
+      <c r="M26" s="19"/>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="12">
         <f>A20</f>
         <v>0.25</v>
       </c>
-      <c r="G31" s="9" t="str">
+      <c r="G27" s="9" t="str">
         <f>B20</f>
         <v>Payload</v>
       </c>
-      <c r="I31" s="22"/>
-      <c r="J31" s="32"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="30"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="22"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="20"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L28" s="40"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>73</v>
+      </c>
+      <c r="L29" s="40"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L30" s="40"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L31" s="40"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="15" t="s">
-        <v>91</v>
-      </c>
       <c r="J32" s="13"/>
       <c r="M32" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="L3:L31"/>
-    <mergeCell ref="M3:M31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J9:J15"/>
-    <mergeCell ref="J25:J28"/>
-    <mergeCell ref="J17:J23"/>
-    <mergeCell ref="J3:J7"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I9:I15"/>
-    <mergeCell ref="I25:I28"/>
-    <mergeCell ref="I17:I23"/>
+    <mergeCell ref="I26:I27"/>
     <mergeCell ref="I3:I7"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="J15:J19"/>
+    <mergeCell ref="I15:I19"/>
+    <mergeCell ref="I21:I24"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="L3:L27"/>
+    <mergeCell ref="M3:M27"/>
   </mergeCells>
   <conditionalFormatting sqref="G3">
     <cfRule type="colorScale" priority="46">
@@ -2381,12 +2259,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F7 F30:F31 F23">
+  <conditionalFormatting sqref="F3:F7 F26:F27">
     <cfRule type="cellIs" dxfId="39" priority="45" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F30:F31 F23">
+  <conditionalFormatting sqref="F3 F26:F27">
     <cfRule type="cellIs" dxfId="38" priority="41" operator="between">
       <formula>0.06</formula>
       <formula>0.99</formula>
@@ -2425,12 +2303,12 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F15">
+  <conditionalFormatting sqref="F9:F13">
     <cfRule type="cellIs" dxfId="29" priority="34" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F15">
+  <conditionalFormatting sqref="F9:F13">
     <cfRule type="cellIs" dxfId="28" priority="31" operator="between">
       <formula>0.06</formula>
       <formula>0.99</formula>
@@ -2443,12 +2321,12 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17:F22">
+  <conditionalFormatting sqref="F15:F19">
     <cfRule type="cellIs" dxfId="25" priority="30" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17:F22">
+  <conditionalFormatting sqref="F15:F19">
     <cfRule type="cellIs" dxfId="24" priority="27" operator="between">
       <formula>0.06</formula>
       <formula>0.99</formula>
@@ -2461,12 +2339,12 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25:F28">
+  <conditionalFormatting sqref="F21:F24">
     <cfRule type="cellIs" dxfId="21" priority="26" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25:F28">
+  <conditionalFormatting sqref="F21:F24">
     <cfRule type="cellIs" dxfId="20" priority="23" operator="between">
       <formula>0.06</formula>
       <formula>0.99</formula>
@@ -2491,7 +2369,7 @@
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9:I15">
+  <conditionalFormatting sqref="I9">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -2503,7 +2381,7 @@
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
+  <conditionalFormatting sqref="I15">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -2515,7 +2393,7 @@
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25:I28">
+  <conditionalFormatting sqref="I21">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -2527,7 +2405,7 @@
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
+  <conditionalFormatting sqref="I26">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -2576,10 +2454,6 @@
     <hyperlink ref="B24" r:id="rId22"/>
     <hyperlink ref="B25" r:id="rId23"/>
     <hyperlink ref="B26" r:id="rId24"/>
-    <hyperlink ref="B27" r:id="rId25"/>
-    <hyperlink ref="B28" r:id="rId26"/>
-    <hyperlink ref="B29" r:id="rId27"/>
-    <hyperlink ref="B30" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Technical/Testing/TestPlan.xlsx
+++ b/Technical/Testing/TestPlan.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
   <si>
     <t>Test</t>
   </si>
@@ -111,25 +111,16 @@
     <t>Experiment with human ID at various distances</t>
   </si>
   <si>
-    <t>Obstacle Avoidance</t>
-  </si>
-  <si>
     <t>1.2.1</t>
   </si>
   <si>
     <t>Send system on collision course, verify avoidance</t>
   </si>
   <si>
-    <t>Trajectory Test</t>
-  </si>
-  <si>
     <t>1.2.2, 1.2.3</t>
   </si>
   <si>
     <t>Give trajectory to desired position, verify accuracy with VICON</t>
-  </si>
-  <si>
-    <t>Collision Correction</t>
   </si>
   <si>
     <t>1.2.4</t>
@@ -281,6 +272,24 @@
   </si>
   <si>
     <t>1.2, 1.1</t>
+  </si>
+  <si>
+    <t>Collision Correction Planning</t>
+  </si>
+  <si>
+    <t>Collision Correction Controls</t>
+  </si>
+  <si>
+    <t>Trajectory Test Controls</t>
+  </si>
+  <si>
+    <t>Obstacle Avoidance Controls</t>
+  </si>
+  <si>
+    <t>Trajectory Test Planning</t>
+  </si>
+  <si>
+    <t>Obstacle Avoidance Planning</t>
   </si>
 </sst>
 </file>
@@ -687,7 +696,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -715,82 +724,83 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1482,12 +1492,12 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.85546875" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" customWidth="1"/>
@@ -1502,21 +1512,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G1" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="35"/>
-      <c r="J1" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" s="35"/>
+      <c r="G1" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="19"/>
+      <c r="J1" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="19"/>
       <c r="M1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1529,21 +1539,21 @@
       </c>
       <c r="E2" s="1"/>
       <c r="G2" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L2" s="11"/>
       <c r="M2" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1551,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -1561,25 +1571,25 @@
       </c>
       <c r="F3" s="12">
         <f>A9</f>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="G3" s="3" t="str">
         <f>B9</f>
         <v>Initial Camera Test</v>
       </c>
-      <c r="I3" s="38">
+      <c r="I3" s="21">
         <f>AVERAGE(AVERAGE(F3:F7),A5,AVERAGE(F3:F7),AVERAGE(F3:F7))</f>
-        <v>0.1875</v>
-      </c>
-      <c r="J3" s="32" t="str">
+        <v>0</v>
+      </c>
+      <c r="J3" s="36" t="str">
         <f>B5</f>
         <v>Guidance Subsystem</v>
       </c>
-      <c r="L3" s="42">
+      <c r="L3" s="39">
         <f>AVERAGE(AVERAGE(I3,I9,I15,I21,I26),A3,AVERAGE(I3,I9,I15,I21,I26),AVERAGE(I3,I9,I15,I21,I26))</f>
-        <v>0.19303125000000002</v>
-      </c>
-      <c r="M3" s="18" t="str">
+        <v>0</v>
+      </c>
+      <c r="M3" s="40" t="str">
         <f>B3</f>
         <v>End of Semester Test Demo</v>
       </c>
@@ -1599,16 +1609,16 @@
       </c>
       <c r="F4" s="12">
         <f>A10</f>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4" t="str">
         <f>B10</f>
         <v>Target Imaging</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="33"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="19"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="37"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="41"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
@@ -1625,17 +1635,17 @@
       </c>
       <c r="F5" s="12">
         <f>A22</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4" t="str">
         <f>B22</f>
         <v>Obstacle Perceived</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="33"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="19"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="37"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="41"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
@@ -1652,17 +1662,17 @@
       </c>
       <c r="F6" s="12">
         <f>A23</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4" t="str">
         <f>B23</f>
         <v>Obstacle Map</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="33"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="19"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="37"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="41"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
@@ -1672,30 +1682,30 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="12">
         <f>A26</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4" t="str">
         <f>B26</f>
         <v>Visual Odometry Verification and Characterization</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="34"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="19"/>
+        <v>70</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="38"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="41"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>9</v>
@@ -1706,12 +1716,12 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="42"/>
-      <c r="M8" s="19"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="41"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>19</v>
@@ -1724,26 +1734,26 @@
       </c>
       <c r="F9" s="12">
         <f>A11</f>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="G9" s="6" t="str">
         <f>B11</f>
         <v>Human Target ID</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="22">
         <f>AVERAGE(AVERAGE(F9:F13),A4,AVERAGE(F9:F13),AVERAGE(F9:F13))</f>
-        <v>0.14250000000000002</v>
+        <v>0</v>
       </c>
       <c r="J9" s="23" t="str">
         <f>B4</f>
         <v>Tracking/ID Subsystem</v>
       </c>
-      <c r="L9" s="42"/>
-      <c r="M9" s="19"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="41"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>22</v>
@@ -1752,27 +1762,27 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F10" s="12">
         <f t="shared" ref="F10:G12" si="0">A16</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Target Estimation</v>
       </c>
-      <c r="I10" s="36"/>
+      <c r="I10" s="22"/>
       <c r="J10" s="24"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="19"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="41"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>24</v>
@@ -1784,447 +1794,465 @@
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F11" s="12">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Multiple targets</v>
       </c>
-      <c r="I11" s="36"/>
+      <c r="I11" s="22"/>
       <c r="J11" s="24"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="19"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="41"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>28</v>
       </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F12" s="12">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="G12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Target Estimate Update</v>
       </c>
-      <c r="I12" s="36"/>
+      <c r="I12" s="22"/>
       <c r="J12" s="24"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="19"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="41"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F13" s="12">
         <f>A25</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G13" s="6" t="str">
         <f>B25</f>
         <v>Target Accuracy and Range</v>
       </c>
-      <c r="I13" s="36"/>
+      <c r="I13" s="22"/>
       <c r="J13" s="25"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="19"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="41"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F14"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="19"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="41"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F15" s="12">
-        <f>A12</f>
-        <v>0.25</v>
+        <f t="shared" ref="F15:G17" si="1">A12</f>
+        <v>0</v>
       </c>
       <c r="G15" s="7" t="str">
-        <f>B12</f>
-        <v>Collision Correction</v>
-      </c>
-      <c r="I15" s="41">
+        <f t="shared" si="1"/>
+        <v>Collision Correction Planning</v>
+      </c>
+      <c r="I15" s="29">
         <f>AVERAGE(AVERAGE(F15:F19),A6,AVERAGE(F15:F19),AVERAGE(F15:F19))</f>
-        <v>0.21000000000000002</v>
-      </c>
-      <c r="J15" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="J15" s="26" t="str">
         <f>B6</f>
         <v>Planning Subsystem</v>
       </c>
-      <c r="L15" s="42"/>
-      <c r="M15" s="19"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="41"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F16" s="12">
-        <f>A13</f>
-        <v>0.75</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G16" s="7" t="str">
-        <f>B13</f>
-        <v>Trajectory Test</v>
-      </c>
-      <c r="I16" s="41"/>
-      <c r="J16" s="30"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="19"/>
+        <f t="shared" si="1"/>
+        <v>Trajectory Test Planning</v>
+      </c>
+      <c r="I16" s="29"/>
+      <c r="J16" s="27"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="41"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F17" s="12">
-        <f>A14</f>
-        <v>0.25</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G17" s="7" t="str">
-        <f>B14</f>
-        <v>Obstacle Avoidance</v>
-      </c>
-      <c r="I17" s="41"/>
-      <c r="J17" s="30"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="19"/>
+        <f t="shared" si="1"/>
+        <v>Obstacle Avoidance Planning</v>
+      </c>
+      <c r="I17" s="29"/>
+      <c r="J17" s="27"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="41"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F18" s="12">
         <f>A21</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I18" s="41"/>
-      <c r="J18" s="30"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="19"/>
+        <v>76</v>
+      </c>
+      <c r="I18" s="29"/>
+      <c r="J18" s="27"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="41"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F19" s="12">
         <f>A24</f>
-        <v>0.05</v>
-      </c>
-      <c r="G19" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="I19" s="41"/>
-      <c r="J19" s="31"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="19"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" s="29"/>
+      <c r="J19" s="28"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="41"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
-      </c>
-      <c r="L20" s="42"/>
-      <c r="M20" s="19"/>
+        <v>47</v>
+      </c>
+      <c r="L20" s="39"/>
+      <c r="M20" s="41"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F21" s="12">
-        <f>A12</f>
-        <v>0.25</v>
+        <f>A27</f>
+        <v>0</v>
       </c>
       <c r="G21" s="8" t="str">
-        <f>B12</f>
-        <v>Collision Correction</v>
-      </c>
-      <c r="I21" s="37">
+        <f>B27</f>
+        <v>Collision Correction Controls</v>
+      </c>
+      <c r="I21" s="30">
         <f>AVERAGE(AVERAGE(F21:F24),A7,AVERAGE(F21:F24),AVERAGE(F21:F24))</f>
-        <v>0.40312499999999996</v>
-      </c>
-      <c r="J21" s="26" t="str">
+        <v>0</v>
+      </c>
+      <c r="J21" s="31" t="str">
         <f>B7</f>
         <v>Controls Subsystem</v>
       </c>
-      <c r="L21" s="42"/>
-      <c r="M21" s="19"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="41"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F22" s="12">
-        <f>A13</f>
-        <v>0.75</v>
+        <f>A28</f>
+        <v>0</v>
       </c>
       <c r="G22" s="8" t="str">
-        <f>B13</f>
-        <v>Trajectory Test</v>
-      </c>
-      <c r="I22" s="37"/>
-      <c r="J22" s="27"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="19"/>
+        <f>B28</f>
+        <v>Trajectory Test Controls</v>
+      </c>
+      <c r="I22" s="30"/>
+      <c r="J22" s="32"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="41"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F23" s="12">
-        <f>A14</f>
-        <v>0.25</v>
+        <f>A29</f>
+        <v>0</v>
       </c>
       <c r="G23" s="8" t="str">
-        <f>B14</f>
-        <v>Obstacle Avoidance</v>
-      </c>
-      <c r="I23" s="37"/>
-      <c r="J23" s="27"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="19"/>
+        <f>B29</f>
+        <v>Obstacle Avoidance Controls</v>
+      </c>
+      <c r="I23" s="30"/>
+      <c r="J23" s="32"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="41"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F24" s="12">
         <f>A19</f>
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="G24" s="8" t="str">
         <f>B19</f>
         <v>Autonomous Takeoff &amp; Landing</v>
       </c>
-      <c r="I24" s="37"/>
-      <c r="J24" s="28"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="19"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="33"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="41"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
-      </c>
-      <c r="L25" s="42"/>
-      <c r="M25" s="19"/>
+        <v>64</v>
+      </c>
+      <c r="L25" s="39"/>
+      <c r="M25" s="41"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F26" s="12">
         <f>A15</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G26" s="9" t="str">
         <f>B15</f>
         <v>Durataion</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="20">
         <f>AVERAGE(AVERAGE(F26:F27),A8,AVERAGE(F26:F27),AVERAGE(F26:F27))</f>
-        <v>0.34375</v>
-      </c>
-      <c r="J26" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="J26" s="34" t="str">
         <f>B8</f>
         <v>Hardware Subsystem</v>
       </c>
-      <c r="L26" s="42"/>
-      <c r="M26" s="19"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="41"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12">
+        <v>0</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>82</v>
+      </c>
       <c r="E27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F27" s="12">
         <f>A20</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G27" s="9" t="str">
         <f>B20</f>
         <v>Payload</v>
       </c>
-      <c r="I27" s="17"/>
-      <c r="J27" s="22"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="35"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="42"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L28" s="40"/>
+      <c r="A28" s="43">
+        <v>0</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="L28" s="18"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="43">
+        <v>0</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="E29" t="s">
-        <v>73</v>
-      </c>
-      <c r="L29" s="40"/>
+        <v>70</v>
+      </c>
+      <c r="L29" s="18"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L30" s="40"/>
+      <c r="L30" s="18"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L31" s="40"/>
+      <c r="L31" s="18"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J32" s="13"/>
@@ -2232,6 +2260,8 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="L3:L27"/>
+    <mergeCell ref="M3:M27"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="I26:I27"/>
@@ -2244,8 +2274,6 @@
     <mergeCell ref="J21:J24"/>
     <mergeCell ref="J26:J27"/>
     <mergeCell ref="J3:J7"/>
-    <mergeCell ref="L3:L27"/>
-    <mergeCell ref="M3:M27"/>
   </mergeCells>
   <conditionalFormatting sqref="G3">
     <cfRule type="colorScale" priority="46">
@@ -2454,6 +2482,9 @@
     <hyperlink ref="B24" r:id="rId22"/>
     <hyperlink ref="B25" r:id="rId23"/>
     <hyperlink ref="B26" r:id="rId24"/>
+    <hyperlink ref="B27" r:id="rId25"/>
+    <hyperlink ref="B28" r:id="rId26"/>
+    <hyperlink ref="B29" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Technical/Testing/TestPlan.xlsx
+++ b/Technical/Testing/TestPlan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FlyNet\Technical\Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryce\Documents\FlyNet\Technical\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -728,6 +728,19 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -788,19 +801,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1491,8 +1491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,14 +1512,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="J1" s="19" t="s">
+      <c r="H1" s="24"/>
+      <c r="J1" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="19"/>
+      <c r="K1" s="24"/>
       <c r="M1" t="s">
         <v>72</v>
       </c>
@@ -1577,19 +1577,19 @@
         <f>B9</f>
         <v>Initial Camera Test</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="26">
         <f>AVERAGE(AVERAGE(F3:F7),A5,AVERAGE(F3:F7),AVERAGE(F3:F7))</f>
         <v>0</v>
       </c>
-      <c r="J3" s="36" t="str">
+      <c r="J3" s="41" t="str">
         <f>B5</f>
         <v>Guidance Subsystem</v>
       </c>
-      <c r="L3" s="39">
+      <c r="L3" s="20">
         <f>AVERAGE(AVERAGE(I3,I9,I15,I21,I26),A3,AVERAGE(I3,I9,I15,I21,I26),AVERAGE(I3,I9,I15,I21,I26))</f>
         <v>0</v>
       </c>
-      <c r="M3" s="40" t="str">
+      <c r="M3" s="21" t="str">
         <f>B3</f>
         <v>End of Semester Test Demo</v>
       </c>
@@ -1615,10 +1615,10 @@
         <f>B10</f>
         <v>Target Imaging</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="37"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="41"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="42"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="22"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
@@ -1642,10 +1642,10 @@
         <v>Obstacle Perceived</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="37"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="41"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="42"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="22"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
@@ -1669,10 +1669,10 @@
         <v>Obstacle Map</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="37"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="41"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="42"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="22"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
@@ -1698,10 +1698,10 @@
       <c r="H7" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="38"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="41"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="43"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="22"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
@@ -1716,8 +1716,8 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="39"/>
-      <c r="M8" s="41"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="22"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
@@ -1740,16 +1740,16 @@
         <f>B11</f>
         <v>Human Target ID</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="27">
         <f>AVERAGE(AVERAGE(F9:F13),A4,AVERAGE(F9:F13),AVERAGE(F9:F13))</f>
         <v>0</v>
       </c>
-      <c r="J9" s="23" t="str">
+      <c r="J9" s="28" t="str">
         <f>B4</f>
         <v>Tracking/ID Subsystem</v>
       </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="41"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="22"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
@@ -1775,10 +1775,10 @@
         <f t="shared" si="0"/>
         <v>Target Estimation</v>
       </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="24"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="41"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="22"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
@@ -1804,10 +1804,10 @@
         <f t="shared" si="0"/>
         <v>Multiple targets</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="24"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="41"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="22"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
@@ -1833,10 +1833,10 @@
         <f t="shared" si="0"/>
         <v>Target Estimate Update</v>
       </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="24"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="41"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="29"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="22"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
@@ -1862,10 +1862,10 @@
         <f>B25</f>
         <v>Target Accuracy and Range</v>
       </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="25"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="41"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="30"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="22"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
@@ -1884,8 +1884,8 @@
         <v>70</v>
       </c>
       <c r="F14"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="41"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="22"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
@@ -1911,16 +1911,16 @@
         <f t="shared" si="1"/>
         <v>Collision Correction Planning</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="34">
         <f>AVERAGE(AVERAGE(F15:F19),A6,AVERAGE(F15:F19),AVERAGE(F15:F19))</f>
         <v>0</v>
       </c>
-      <c r="J15" s="26" t="str">
+      <c r="J15" s="31" t="str">
         <f>B6</f>
         <v>Planning Subsystem</v>
       </c>
-      <c r="L15" s="39"/>
-      <c r="M15" s="41"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="22"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
@@ -1946,10 +1946,10 @@
         <f t="shared" si="1"/>
         <v>Trajectory Test Planning</v>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="27"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="41"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="32"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="22"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
@@ -1972,10 +1972,10 @@
         <f t="shared" si="1"/>
         <v>Obstacle Avoidance Planning</v>
       </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="27"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="41"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="32"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="22"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
@@ -1997,10 +1997,10 @@
       <c r="G18" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="27"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="41"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="32"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="22"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
@@ -2025,10 +2025,10 @@
       <c r="G19" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="28"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="41"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="33"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="22"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
@@ -2043,8 +2043,8 @@
       <c r="D20" t="s">
         <v>47</v>
       </c>
-      <c r="L20" s="39"/>
-      <c r="M20" s="41"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
@@ -2060,23 +2060,23 @@
         <v>52</v>
       </c>
       <c r="F21" s="12">
-        <f>A27</f>
+        <f t="shared" ref="F21:G23" si="2">A27</f>
         <v>0</v>
       </c>
       <c r="G21" s="8" t="str">
-        <f>B27</f>
+        <f t="shared" si="2"/>
         <v>Collision Correction Controls</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I21" s="35">
         <f>AVERAGE(AVERAGE(F21:F24),A7,AVERAGE(F21:F24),AVERAGE(F21:F24))</f>
         <v>0</v>
       </c>
-      <c r="J21" s="31" t="str">
+      <c r="J21" s="36" t="str">
         <f>B7</f>
         <v>Controls Subsystem</v>
       </c>
-      <c r="L21" s="39"/>
-      <c r="M21" s="41"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="22"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
@@ -2092,17 +2092,17 @@
         <v>55</v>
       </c>
       <c r="F22" s="12">
-        <f>A28</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G22" s="8" t="str">
-        <f>B28</f>
+        <f t="shared" si="2"/>
         <v>Trajectory Test Controls</v>
       </c>
-      <c r="I22" s="30"/>
-      <c r="J22" s="32"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="41"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="37"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="22"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
@@ -2118,17 +2118,17 @@
         <v>58</v>
       </c>
       <c r="F23" s="12">
-        <f>A29</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G23" s="8" t="str">
-        <f>B29</f>
+        <f t="shared" si="2"/>
         <v>Obstacle Avoidance Controls</v>
       </c>
-      <c r="I23" s="30"/>
-      <c r="J23" s="32"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="41"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="37"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="22"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
@@ -2151,10 +2151,10 @@
         <f>B19</f>
         <v>Autonomous Takeoff &amp; Landing</v>
       </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="33"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="41"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="38"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="22"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
@@ -2169,8 +2169,8 @@
       <c r="D25" t="s">
         <v>64</v>
       </c>
-      <c r="L25" s="39"/>
-      <c r="M25" s="41"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="22"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
@@ -2193,16 +2193,16 @@
         <f>B15</f>
         <v>Durataion</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I26" s="25">
         <f>AVERAGE(AVERAGE(F26:F27),A8,AVERAGE(F26:F27),AVERAGE(F26:F27))</f>
         <v>0</v>
       </c>
-      <c r="J26" s="34" t="str">
+      <c r="J26" s="39" t="str">
         <f>B8</f>
         <v>Hardware Subsystem</v>
       </c>
-      <c r="L26" s="39"/>
-      <c r="M26" s="41"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="22"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
@@ -2222,13 +2222,13 @@
         <f>B20</f>
         <v>Payload</v>
       </c>
-      <c r="I27" s="20"/>
-      <c r="J27" s="35"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="42"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="40"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="23"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="43">
+      <c r="A28" s="19">
         <v>0</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -2237,7 +2237,7 @@
       <c r="L28" s="18"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="43">
+      <c r="A29" s="19">
         <v>0</v>
       </c>
       <c r="B29" s="14" t="s">

--- a/Technical/Testing/TestPlan.xlsx
+++ b/Technical/Testing/TestPlan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryce\Documents\FlyNet\Technical\Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FlyNet\Technical\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
   <si>
     <t>Test</t>
   </si>
@@ -290,6 +290,10 @@
   </si>
   <si>
     <t>Obstacle Avoidance Planning</t>
+  </si>
+  <si>
+    <t>Order to be
+completed in</t>
   </si>
 </sst>
 </file>
@@ -1492,7 +1496,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1500,7 +1504,7 @@
     <col min="2" max="2" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.85546875" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="5.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.28515625" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -1524,7 +1528,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -1537,7 +1541,9 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="G2" s="10" t="s">
         <v>65</v>
       </c>
@@ -1587,7 +1593,7 @@
       </c>
       <c r="L3" s="20">
         <f>AVERAGE(AVERAGE(I3,I9,I15,I21,I26),A3,AVERAGE(I3,I9,I15,I21,I26),AVERAGE(I3,I9,I15,I21,I26))</f>
-        <v>0</v>
+        <v>8.4375000000000006E-2</v>
       </c>
       <c r="M3" s="21" t="str">
         <f>B3</f>
@@ -1889,7 +1895,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>33</v>
@@ -2032,7 +2038,7 @@
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>48</v>
@@ -2058,6 +2064,9 @@
       </c>
       <c r="D21" t="s">
         <v>52</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
       </c>
       <c r="F21" s="12">
         <f t="shared" ref="F21:G23" si="2">A27</f>
@@ -2090,6 +2099,9 @@
       </c>
       <c r="D22" t="s">
         <v>55</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
       </c>
       <c r="F22" s="12">
         <f t="shared" si="2"/>
@@ -2117,6 +2129,9 @@
       <c r="D23" t="s">
         <v>58</v>
       </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
       <c r="F23" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2143,6 +2158,9 @@
       <c r="D24" t="s">
         <v>61</v>
       </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
       <c r="F24" s="12">
         <f>A19</f>
         <v>0</v>
@@ -2185,9 +2203,12 @@
       <c r="D26" t="s">
         <v>78</v>
       </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
       <c r="F26" s="12">
         <f>A15</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G26" s="9" t="str">
         <f>B15</f>
@@ -2195,7 +2216,7 @@
       </c>
       <c r="I26" s="25">
         <f>AVERAGE(AVERAGE(F26:F27),A8,AVERAGE(F26:F27),AVERAGE(F26:F27))</f>
-        <v>0</v>
+        <v>0.5625</v>
       </c>
       <c r="J26" s="39" t="str">
         <f>B8</f>
@@ -2211,12 +2232,12 @@
       <c r="B27" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E27" t="s">
-        <v>70</v>
+      <c r="E27">
+        <v>1</v>
       </c>
       <c r="F27" s="12">
         <f>A20</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G27" s="9" t="str">
         <f>B20</f>

--- a/Technical/Testing/TestPlan.xlsx
+++ b/Technical/Testing/TestPlan.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="88">
   <si>
     <t>Test</t>
   </si>
@@ -117,9 +117,6 @@
     <t>Send system on collision course, verify avoidance</t>
   </si>
   <si>
-    <t>1.2.2, 1.2.3</t>
-  </si>
-  <si>
     <t>Give trajectory to desired position, verify accuracy with VICON</t>
   </si>
   <si>
@@ -247,12 +244,6 @@
     <t>1.2,</t>
   </si>
   <si>
-    <t>December 3-December 8</t>
-  </si>
-  <si>
-    <t>November 19- December 2</t>
-  </si>
-  <si>
     <t>End of Semester Test Demo</t>
   </si>
   <si>
@@ -260,9 +251,6 @@
   </si>
   <si>
     <t>Receive and Transmit Test</t>
-  </si>
-  <si>
-    <t>Current</t>
   </si>
   <si>
     <t>SLAM accuracy and positioning</t>
@@ -294,6 +282,18 @@
   <si>
     <t>Order to be
 completed in</t>
+  </si>
+  <si>
+    <t>Now - February 29</t>
+  </si>
+  <si>
+    <t>April 18 - End Of Semester</t>
+  </si>
+  <si>
+    <t>March 1 - April 17</t>
+  </si>
+  <si>
+    <t>1.2.2, 5.2</t>
   </si>
 </sst>
 </file>
@@ -1496,7 +1496,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1517,20 +1517,20 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G1" s="24" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H1" s="24"/>
       <c r="J1" s="24" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="K1" s="24"/>
       <c r="M1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1542,24 +1542,24 @@
         <v>2</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>66</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L2" s="11"/>
       <c r="M2" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1567,13 +1567,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
       </c>
       <c r="F3" s="12">
         <f>A9</f>
@@ -1612,6 +1615,9 @@
       </c>
       <c r="D4" t="s">
         <v>14</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
       </c>
       <c r="F4" s="12">
         <f>A10</f>
@@ -1638,6 +1644,9 @@
       </c>
       <c r="D5" t="s">
         <v>15</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
       </c>
       <c r="F5" s="12">
         <f>A22</f>
@@ -1666,6 +1675,9 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
       <c r="F6" s="12">
         <f>A23</f>
         <v>0</v>
@@ -1688,10 +1700,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
       </c>
       <c r="F7" s="12">
         <f>A26</f>
@@ -1702,7 +1717,7 @@
         <v>Visual Odometry Verification and Characterization</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I7" s="26"/>
       <c r="J7" s="43"/>
@@ -1738,6 +1753,9 @@
       <c r="D9" t="s">
         <v>21</v>
       </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
       <c r="F9" s="12">
         <f>A11</f>
         <v>0</v>
@@ -1768,10 +1786,10 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
       </c>
       <c r="F10" s="12">
         <f t="shared" ref="F10:G12" si="0">A16</f>
@@ -1799,8 +1817,8 @@
       <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="E11" t="s">
-        <v>70</v>
+      <c r="E11">
+        <v>5</v>
       </c>
       <c r="F11" s="12">
         <f t="shared" si="0"/>
@@ -1820,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1828,8 +1846,8 @@
       <c r="D12" t="s">
         <v>28</v>
       </c>
-      <c r="E12" t="s">
-        <v>70</v>
+      <c r="E12">
+        <v>3</v>
       </c>
       <c r="F12" s="12">
         <f t="shared" si="0"/>
@@ -1849,16 +1867,16 @@
         <v>0</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" t="s">
         <v>29</v>
       </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" t="s">
-        <v>70</v>
+      <c r="E13">
+        <v>1</v>
       </c>
       <c r="F13" s="12">
         <f>A25</f>
@@ -1878,16 +1896,16 @@
         <v>0</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
         <v>31</v>
       </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14"/>
       <c r="L14" s="20"/>
@@ -1898,16 +1916,16 @@
         <v>0.75</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
         <v>33</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>34</v>
       </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" t="s">
-        <v>70</v>
+      <c r="E15">
+        <v>3</v>
       </c>
       <c r="F15" s="12">
         <f t="shared" ref="F15:G17" si="1">A12</f>
@@ -1933,16 +1951,16 @@
         <v>0</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
         <v>36</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>37</v>
       </c>
-      <c r="D16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" t="s">
-        <v>70</v>
+      <c r="E16">
+        <v>1</v>
       </c>
       <c r="F16" s="12">
         <f t="shared" si="1"/>
@@ -1962,13 +1980,16 @@
         <v>0</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
         <v>39</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>40</v>
       </c>
-      <c r="D17" t="s">
-        <v>41</v>
+      <c r="E17">
+        <v>2</v>
       </c>
       <c r="F17" s="12">
         <f t="shared" si="1"/>
@@ -1988,20 +2009,23 @@
         <v>0</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
         <v>42</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>43</v>
       </c>
-      <c r="D18" t="s">
-        <v>44</v>
+      <c r="E18">
+        <v>4</v>
       </c>
       <c r="F18" s="12">
         <f>A21</f>
         <v>0</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I18" s="34"/>
       <c r="J18" s="32"/>
@@ -2013,23 +2037,23 @@
         <v>0</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
         <v>45</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>46</v>
       </c>
-      <c r="D19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" t="s">
-        <v>70</v>
+      <c r="E19">
+        <v>5</v>
       </c>
       <c r="F19" s="12">
         <f>A24</f>
         <v>0</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="34"/>
       <c r="J19" s="33"/>
@@ -2041,13 +2065,13 @@
         <v>0.75</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
         <v>48</v>
       </c>
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L20" s="20"/>
       <c r="M20" s="22"/>
@@ -2057,13 +2081,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
         <v>50</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>51</v>
-      </c>
-      <c r="D21" t="s">
-        <v>52</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -2092,13 +2116,13 @@
         <v>0</v>
       </c>
       <c r="B22" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
         <v>53</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>54</v>
-      </c>
-      <c r="D22" t="s">
-        <v>55</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -2121,13 +2145,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
         <v>56</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>57</v>
-      </c>
-      <c r="D23" t="s">
-        <v>58</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -2150,13 +2174,13 @@
         <v>0</v>
       </c>
       <c r="B24" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
         <v>59</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>60</v>
-      </c>
-      <c r="D24" t="s">
-        <v>61</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2179,13 +2203,13 @@
         <v>0</v>
       </c>
       <c r="B25" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
         <v>62</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>63</v>
-      </c>
-      <c r="D25" t="s">
-        <v>64</v>
       </c>
       <c r="L25" s="20"/>
       <c r="M25" s="22"/>
@@ -2195,13 +2219,13 @@
         <v>0</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -2230,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2253,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L28" s="18"/>
     </row>
@@ -2262,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L29" s="18"/>
     </row>

--- a/Technical/Testing/TestPlan.xlsx
+++ b/Technical/Testing/TestPlan.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="89">
   <si>
     <t>Test</t>
   </si>
@@ -280,10 +280,6 @@
     <t>Obstacle Avoidance Planning</t>
   </si>
   <si>
-    <t>Order to be
-completed in</t>
-  </si>
-  <si>
     <t>Now - February 29</t>
   </si>
   <si>
@@ -294,6 +290,14 @@
   </si>
   <si>
     <t>1.2.2, 5.2</t>
+  </si>
+  <si>
+    <t>Min People 
+Required</t>
+  </si>
+  <si>
+    <t>To Be 
+Completed by</t>
   </si>
 </sst>
 </file>
@@ -700,7 +704,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -805,6 +809,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1493,10 +1498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,31 +1509,32 @@
     <col min="2" max="2" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G1" s="24" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H1" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="24"/>
+      <c r="K1" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="24"/>
+      <c r="N1" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="J1" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="K1" s="24"/>
-      <c r="M1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -1542,27 +1548,30 @@
         <v>2</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="11"/>
+      <c r="N2" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>0</v>
       </c>
@@ -1575,35 +1584,35 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12">
+      <c r="F3" s="44">
+        <v>42401</v>
+      </c>
+      <c r="G3" s="12">
         <f>A9</f>
         <v>0</v>
       </c>
-      <c r="G3" s="3" t="str">
+      <c r="H3" s="3" t="str">
         <f>B9</f>
         <v>Initial Camera Test</v>
       </c>
-      <c r="I3" s="26">
-        <f>AVERAGE(AVERAGE(F3:F7),A5,AVERAGE(F3:F7),AVERAGE(F3:F7))</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="41" t="str">
+      <c r="J3" s="26">
+        <f>AVERAGE(AVERAGE(G3:G7),A5,AVERAGE(G3:G7),AVERAGE(G3:G7))</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="41" t="str">
         <f>B5</f>
         <v>Guidance Subsystem</v>
       </c>
-      <c r="L3" s="20">
-        <f>AVERAGE(AVERAGE(I3,I9,I15,I21,I26),A3,AVERAGE(I3,I9,I15,I21,I26),AVERAGE(I3,I9,I15,I21,I26))</f>
+      <c r="M3" s="20">
+        <f>AVERAGE(AVERAGE(J3,J9,J15,J21,J26),A3,AVERAGE(J3,J9,J15,J21,J26),AVERAGE(J3,J9,J15,J21,J26))</f>
         <v>8.4375000000000006E-2</v>
       </c>
-      <c r="M3" s="21" t="str">
+      <c r="N3" s="21" t="str">
         <f>B3</f>
         <v>End of Semester Test Demo</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>0</v>
       </c>
@@ -1616,23 +1625,23 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4" s="12">
+      <c r="F4" s="44">
+        <v>42422</v>
+      </c>
+      <c r="G4" s="12">
         <f>A10</f>
         <v>0</v>
       </c>
-      <c r="G4" s="4" t="str">
+      <c r="H4" s="4" t="str">
         <f>B10</f>
         <v>Target Imaging</v>
       </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="42"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="22"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J4" s="26"/>
+      <c r="K4" s="42"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="22"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>0</v>
       </c>
@@ -1645,24 +1654,24 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5" s="12">
+      <c r="F5" s="44">
+        <v>42429</v>
+      </c>
+      <c r="G5" s="12">
         <f>A22</f>
         <v>0</v>
       </c>
-      <c r="G5" s="4" t="str">
+      <c r="H5" s="4" t="str">
         <f>B22</f>
         <v>Obstacle Perceived</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="42"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="22"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I5" s="5"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="42"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="22"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>0</v>
       </c>
@@ -1675,24 +1684,24 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6" s="12">
+      <c r="F6" s="44">
+        <v>42415</v>
+      </c>
+      <c r="G6" s="12">
         <f>A23</f>
         <v>0</v>
       </c>
-      <c r="G6" s="4" t="str">
+      <c r="H6" s="4" t="str">
         <f>B23</f>
         <v>Obstacle Map</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="42"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="22"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="5"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="42"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="22"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>0</v>
       </c>
@@ -1705,26 +1714,26 @@
       <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7" s="12">
+      <c r="F7" s="44">
+        <v>42408</v>
+      </c>
+      <c r="G7" s="12">
         <f>A26</f>
         <v>0</v>
       </c>
-      <c r="G7" s="4" t="str">
+      <c r="H7" s="4" t="str">
         <f>B26</f>
         <v>Visual Odometry Verification and Characterization</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="I7" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="43"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="22"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="26"/>
+      <c r="K7" s="43"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="22"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>0</v>
       </c>
@@ -1737,10 +1746,10 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="22"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M8" s="20"/>
+      <c r="N8" s="22"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>0</v>
       </c>
@@ -1753,29 +1762,29 @@
       <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9" s="12">
+      <c r="F9" s="44">
+        <v>42422</v>
+      </c>
+      <c r="G9" s="12">
         <f>A11</f>
         <v>0</v>
       </c>
-      <c r="G9" s="6" t="str">
+      <c r="H9" s="6" t="str">
         <f>B11</f>
         <v>Human Target ID</v>
       </c>
-      <c r="I9" s="27">
-        <f>AVERAGE(AVERAGE(F9:F13),A4,AVERAGE(F9:F13),AVERAGE(F9:F13))</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="28" t="str">
+      <c r="J9" s="27">
+        <f>AVERAGE(AVERAGE(G9:G13),A4,AVERAGE(G9:G13),AVERAGE(G9:G13))</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="28" t="str">
         <f>B4</f>
         <v>Tracking/ID Subsystem</v>
       </c>
-      <c r="L9" s="20"/>
-      <c r="M9" s="22"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M9" s="20"/>
+      <c r="N9" s="22"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>0</v>
       </c>
@@ -1788,23 +1797,23 @@
       <c r="D10" t="s">
         <v>72</v>
       </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10" s="12">
-        <f t="shared" ref="F10:G12" si="0">A16</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="6" t="str">
+      <c r="F10" s="44">
+        <v>42408</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" ref="G10:H12" si="0">A16</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Target Estimation</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="29"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="22"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J10" s="27"/>
+      <c r="K10" s="29"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="22"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>0</v>
       </c>
@@ -1817,23 +1826,23 @@
       <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11" s="12">
+      <c r="F11" s="44">
+        <v>42429</v>
+      </c>
+      <c r="G11" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="6" t="str">
+      <c r="H11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Multiple targets</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="29"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="22"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J11" s="27"/>
+      <c r="K11" s="29"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="22"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>0</v>
       </c>
@@ -1846,23 +1855,23 @@
       <c r="D12" t="s">
         <v>28</v>
       </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12" s="12">
+      <c r="F12" s="44">
+        <v>42415</v>
+      </c>
+      <c r="G12" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="6" t="str">
+      <c r="H12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Target Estimate Update</v>
       </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="29"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="22"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="27"/>
+      <c r="K12" s="29"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="22"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>0</v>
       </c>
@@ -1870,28 +1879,28 @@
         <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
         <v>29</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="12">
+      <c r="F13" s="44">
+        <v>42401</v>
+      </c>
+      <c r="G13" s="12">
         <f>A25</f>
         <v>0</v>
       </c>
-      <c r="G13" s="6" t="str">
+      <c r="H13" s="6" t="str">
         <f>B25</f>
         <v>Target Accuracy and Range</v>
       </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="30"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="22"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J13" s="27"/>
+      <c r="K13" s="30"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="22"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>0</v>
       </c>
@@ -1904,14 +1913,14 @@
       <c r="D14" t="s">
         <v>31</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>69</v>
       </c>
-      <c r="F14"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="22"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G14"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="22"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>0.75</v>
       </c>
@@ -1924,29 +1933,29 @@
       <c r="D15" t="s">
         <v>34</v>
       </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15" s="12">
-        <f t="shared" ref="F15:G17" si="1">A12</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="7" t="str">
+      <c r="F15" s="44">
+        <v>42415</v>
+      </c>
+      <c r="G15" s="12">
+        <f t="shared" ref="G15:H17" si="1">A12</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Collision Correction Planning</v>
       </c>
-      <c r="I15" s="34">
-        <f>AVERAGE(AVERAGE(F15:F19),A6,AVERAGE(F15:F19),AVERAGE(F15:F19))</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="31" t="str">
+      <c r="J15" s="34">
+        <f>AVERAGE(AVERAGE(G15:G19),A6,AVERAGE(G15:G19),AVERAGE(G15:G19))</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="31" t="str">
         <f>B6</f>
         <v>Planning Subsystem</v>
       </c>
-      <c r="L15" s="20"/>
-      <c r="M15" s="22"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M15" s="20"/>
+      <c r="N15" s="22"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>0</v>
       </c>
@@ -1959,23 +1968,23 @@
       <c r="D16" t="s">
         <v>37</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="12">
+      <c r="F16" s="44">
+        <v>42401</v>
+      </c>
+      <c r="G16" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G16" s="7" t="str">
+      <c r="H16" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Trajectory Test Planning</v>
       </c>
-      <c r="I16" s="34"/>
-      <c r="J16" s="32"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="22"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J16" s="34"/>
+      <c r="K16" s="32"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="22"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>0</v>
       </c>
@@ -1988,23 +1997,23 @@
       <c r="D17" t="s">
         <v>40</v>
       </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17" s="12">
+      <c r="F17" s="44">
+        <v>42408</v>
+      </c>
+      <c r="G17" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G17" s="7" t="str">
+      <c r="H17" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Obstacle Avoidance Planning</v>
       </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="32"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="22"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J17" s="34"/>
+      <c r="K17" s="32"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="22"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>0</v>
       </c>
@@ -2017,22 +2026,22 @@
       <c r="D18" t="s">
         <v>43</v>
       </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-      <c r="F18" s="12">
+      <c r="F18" s="44">
+        <v>42422</v>
+      </c>
+      <c r="G18" s="12">
         <f>A21</f>
         <v>0</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I18" s="34"/>
-      <c r="J18" s="32"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="22"/>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="34"/>
+      <c r="K18" s="32"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="22"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>0</v>
       </c>
@@ -2045,22 +2054,22 @@
       <c r="D19" t="s">
         <v>46</v>
       </c>
-      <c r="E19">
-        <v>5</v>
-      </c>
-      <c r="F19" s="12">
+      <c r="F19" s="44">
+        <v>42429</v>
+      </c>
+      <c r="G19" s="12">
         <f>A24</f>
         <v>0</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="H19" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="I19" s="34"/>
-      <c r="J19" s="33"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="22"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J19" s="34"/>
+      <c r="K19" s="33"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="22"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>0.75</v>
       </c>
@@ -2073,10 +2082,10 @@
       <c r="D20" t="s">
         <v>46</v>
       </c>
-      <c r="L20" s="20"/>
-      <c r="M20" s="22"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M20" s="20"/>
+      <c r="N20" s="22"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>0</v>
       </c>
@@ -2089,29 +2098,29 @@
       <c r="D21" t="s">
         <v>51</v>
       </c>
-      <c r="E21">
-        <v>4</v>
-      </c>
-      <c r="F21" s="12">
-        <f t="shared" ref="F21:G23" si="2">A27</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="8" t="str">
+      <c r="F21" s="44">
+        <v>42429</v>
+      </c>
+      <c r="G21" s="12">
+        <f t="shared" ref="G21:H23" si="2">A27</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="8" t="str">
         <f t="shared" si="2"/>
         <v>Collision Correction Controls</v>
       </c>
-      <c r="I21" s="35">
-        <f>AVERAGE(AVERAGE(F21:F24),A7,AVERAGE(F21:F24),AVERAGE(F21:F24))</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="36" t="str">
+      <c r="J21" s="35">
+        <f>AVERAGE(AVERAGE(G21:G24),A7,AVERAGE(G21:G24),AVERAGE(G21:G24))</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="36" t="str">
         <f>B7</f>
         <v>Controls Subsystem</v>
       </c>
-      <c r="L21" s="20"/>
-      <c r="M21" s="22"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M21" s="20"/>
+      <c r="N21" s="22"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>0</v>
       </c>
@@ -2124,23 +2133,23 @@
       <c r="D22" t="s">
         <v>54</v>
       </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22" s="12">
+      <c r="F22" s="44">
+        <v>42415</v>
+      </c>
+      <c r="G22" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G22" s="8" t="str">
+      <c r="H22" s="8" t="str">
         <f t="shared" si="2"/>
         <v>Trajectory Test Controls</v>
       </c>
-      <c r="I22" s="35"/>
-      <c r="J22" s="37"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="22"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J22" s="35"/>
+      <c r="K22" s="37"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="22"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>0</v>
       </c>
@@ -2153,23 +2162,23 @@
       <c r="D23" t="s">
         <v>57</v>
       </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23" s="12">
+      <c r="F23" s="44">
+        <v>42422</v>
+      </c>
+      <c r="G23" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G23" s="8" t="str">
+      <c r="H23" s="8" t="str">
         <f t="shared" si="2"/>
         <v>Obstacle Avoidance Controls</v>
       </c>
-      <c r="I23" s="35"/>
-      <c r="J23" s="37"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="22"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J23" s="35"/>
+      <c r="K23" s="37"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="22"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>0</v>
       </c>
@@ -2182,23 +2191,23 @@
       <c r="D24" t="s">
         <v>60</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24" s="12">
+      <c r="F24" s="44">
+        <v>42408</v>
+      </c>
+      <c r="G24" s="12">
         <f>A19</f>
         <v>0</v>
       </c>
-      <c r="G24" s="8" t="str">
+      <c r="H24" s="8" t="str">
         <f>B19</f>
         <v>Autonomous Takeoff &amp; Landing</v>
       </c>
-      <c r="I24" s="35"/>
-      <c r="J24" s="38"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="22"/>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J24" s="35"/>
+      <c r="K24" s="38"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="22"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>0</v>
       </c>
@@ -2211,10 +2220,10 @@
       <c r="D25" t="s">
         <v>63</v>
       </c>
-      <c r="L25" s="20"/>
-      <c r="M25" s="22"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M25" s="20"/>
+      <c r="N25" s="22"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>0</v>
       </c>
@@ -2230,26 +2239,29 @@
       <c r="E26">
         <v>2</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="44">
+        <v>42401</v>
+      </c>
+      <c r="G26" s="12">
         <f>A15</f>
         <v>0.75</v>
       </c>
-      <c r="G26" s="9" t="str">
+      <c r="H26" s="9" t="str">
         <f>B15</f>
         <v>Durataion</v>
       </c>
-      <c r="I26" s="25">
-        <f>AVERAGE(AVERAGE(F26:F27),A8,AVERAGE(F26:F27),AVERAGE(F26:F27))</f>
+      <c r="J26" s="25">
+        <f>AVERAGE(AVERAGE(G26:G27),A8,AVERAGE(G26:G27),AVERAGE(G26:G27))</f>
         <v>0.5625</v>
       </c>
-      <c r="J26" s="39" t="str">
+      <c r="K26" s="39" t="str">
         <f>B8</f>
         <v>Hardware Subsystem</v>
       </c>
-      <c r="L26" s="20"/>
-      <c r="M26" s="22"/>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M26" s="20"/>
+      <c r="N26" s="22"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>0</v>
       </c>
@@ -2257,70 +2269,73 @@
         <v>78</v>
       </c>
       <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27" s="12">
+        <v>2</v>
+      </c>
+      <c r="F27" s="44">
+        <v>42401</v>
+      </c>
+      <c r="G27" s="12">
         <f>A20</f>
         <v>0.75</v>
       </c>
-      <c r="G27" s="9" t="str">
+      <c r="H27" s="9" t="str">
         <f>B20</f>
         <v>Payload</v>
       </c>
-      <c r="I27" s="25"/>
-      <c r="J27" s="40"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="23"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J27" s="25"/>
+      <c r="K27" s="40"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="23"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>0</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="L28" s="18"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M28" s="18"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>0</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>69</v>
       </c>
-      <c r="L29" s="18"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L30" s="18"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L31" s="18"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J32" s="13"/>
-      <c r="M32" s="13"/>
+      <c r="M29" s="18"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M30" s="18"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M31" s="18"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K32" s="13"/>
+      <c r="N32" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="L3:L27"/>
     <mergeCell ref="M3:M27"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="J9:J13"/>
-    <mergeCell ref="J15:J19"/>
-    <mergeCell ref="I15:I19"/>
-    <mergeCell ref="I21:I24"/>
-    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="N3:N27"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="J26:J27"/>
     <mergeCell ref="J3:J7"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="K15:K19"/>
+    <mergeCell ref="J15:J19"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="K3:K7"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3">
+  <conditionalFormatting sqref="H3">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -2332,12 +2347,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F7 F26:F27">
+  <conditionalFormatting sqref="G3:G7 G26:G27">
     <cfRule type="cellIs" dxfId="39" priority="45" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F26:F27">
+  <conditionalFormatting sqref="G3 G26:G27">
     <cfRule type="cellIs" dxfId="38" priority="41" operator="between">
       <formula>0.06</formula>
       <formula>0.99</formula>
@@ -2350,7 +2365,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F7">
+  <conditionalFormatting sqref="G4:G7">
     <cfRule type="cellIs" dxfId="35" priority="38" operator="between">
       <formula>0.06</formula>
       <formula>0.99</formula>
@@ -2363,7 +2378,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F7">
+  <conditionalFormatting sqref="G4:G7">
     <cfRule type="cellIs" dxfId="32" priority="35" operator="between">
       <formula>0.06</formula>
       <formula>0.99</formula>
@@ -2376,12 +2391,12 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F13">
+  <conditionalFormatting sqref="G9:G13">
     <cfRule type="cellIs" dxfId="29" priority="34" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F13">
+  <conditionalFormatting sqref="G9:G13">
     <cfRule type="cellIs" dxfId="28" priority="31" operator="between">
       <formula>0.06</formula>
       <formula>0.99</formula>
@@ -2394,12 +2409,12 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15:F19">
+  <conditionalFormatting sqref="G15:G19">
     <cfRule type="cellIs" dxfId="25" priority="30" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15:F19">
+  <conditionalFormatting sqref="G15:G19">
     <cfRule type="cellIs" dxfId="24" priority="27" operator="between">
       <formula>0.06</formula>
       <formula>0.99</formula>
@@ -2412,12 +2427,12 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21:F24">
+  <conditionalFormatting sqref="G21:G24">
     <cfRule type="cellIs" dxfId="21" priority="26" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21:F24">
+  <conditionalFormatting sqref="G21:G24">
     <cfRule type="cellIs" dxfId="20" priority="23" operator="between">
       <formula>0.06</formula>
       <formula>0.99</formula>
@@ -2430,7 +2445,7 @@
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
+  <conditionalFormatting sqref="J3">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -2442,7 +2457,7 @@
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
+  <conditionalFormatting sqref="J9">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -2454,7 +2469,7 @@
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
+  <conditionalFormatting sqref="J15">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -2466,7 +2481,7 @@
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
+  <conditionalFormatting sqref="J21">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -2478,7 +2493,7 @@
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
+  <conditionalFormatting sqref="J26">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -2490,7 +2505,7 @@
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3">
+  <conditionalFormatting sqref="M3">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/Technical/Testing/TestPlan.xlsx
+++ b/Technical/Testing/TestPlan.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FlyNet\Technical\Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylordean/Documents/FlyNet/Technical/Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23160" windowHeight="13965"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -667,16 +667,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,6 +737,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -809,7 +810,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1500,41 +1500,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21:J24"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" customWidth="1"/>
-    <col min="14" max="14" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" customWidth="1"/>
+    <col min="14" max="14" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H1" s="24" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H1" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="K1" s="24" t="s">
+      <c r="I1" s="25"/>
+      <c r="K1" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="24"/>
+      <c r="L1" s="25"/>
       <c r="N1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>0</v>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="44">
+      <c r="F3" s="20">
         <v>42401</v>
       </c>
       <c r="G3" s="12">
@@ -1595,24 +1595,24 @@
         <f>B9</f>
         <v>Initial Camera Test</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="27">
         <f>AVERAGE(AVERAGE(G3:G7),A5,AVERAGE(G3:G7),AVERAGE(G3:G7))</f>
         <v>0</v>
       </c>
-      <c r="K3" s="41" t="str">
+      <c r="K3" s="42" t="str">
         <f>B5</f>
         <v>Guidance Subsystem</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="21">
         <f>AVERAGE(AVERAGE(J3,J9,J15,J21,J26),A3,AVERAGE(J3,J9,J15,J21,J26),AVERAGE(J3,J9,J15,J21,J26))</f>
         <v>8.4375000000000006E-2</v>
       </c>
-      <c r="N3" s="21" t="str">
+      <c r="N3" s="22" t="str">
         <f>B3</f>
         <v>End of Semester Test Demo</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>0</v>
       </c>
@@ -1625,7 +1625,7 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="20">
         <v>42422</v>
       </c>
       <c r="G4" s="12">
@@ -1636,12 +1636,12 @@
         <f>B10</f>
         <v>Target Imaging</v>
       </c>
-      <c r="J4" s="26"/>
-      <c r="K4" s="42"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="22"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J4" s="27"/>
+      <c r="K4" s="43"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="23"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>0</v>
       </c>
@@ -1654,7 +1654,7 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="20">
         <v>42429</v>
       </c>
       <c r="G5" s="12">
@@ -1666,12 +1666,12 @@
         <v>Obstacle Perceived</v>
       </c>
       <c r="I5" s="5"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="42"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="22"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J5" s="27"/>
+      <c r="K5" s="43"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="23"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>0</v>
       </c>
@@ -1684,7 +1684,7 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="20">
         <v>42415</v>
       </c>
       <c r="G6" s="12">
@@ -1696,12 +1696,12 @@
         <v>Obstacle Map</v>
       </c>
       <c r="I6" s="5"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="42"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="22"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="27"/>
+      <c r="K6" s="43"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="23"/>
+    </row>
+    <row r="7" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>0</v>
       </c>
@@ -1714,7 +1714,7 @@
       <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="20">
         <v>42408</v>
       </c>
       <c r="G7" s="12">
@@ -1728,12 +1728,12 @@
       <c r="I7" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="43"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="22"/>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="27"/>
+      <c r="K7" s="44"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="23"/>
+    </row>
+    <row r="8" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>0</v>
       </c>
@@ -1746,10 +1746,10 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="20"/>
-      <c r="N8" s="22"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M8" s="21"/>
+      <c r="N8" s="23"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>0</v>
       </c>
@@ -1762,8 +1762,11 @@
       <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="44">
-        <v>42422</v>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="20">
+        <v>42401</v>
       </c>
       <c r="G9" s="12">
         <f>A11</f>
@@ -1773,18 +1776,18 @@
         <f>B11</f>
         <v>Human Target ID</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="28">
         <f>AVERAGE(AVERAGE(G9:G13),A4,AVERAGE(G9:G13),AVERAGE(G9:G13))</f>
         <v>0</v>
       </c>
-      <c r="K9" s="28" t="str">
+      <c r="K9" s="29" t="str">
         <f>B4</f>
         <v>Tracking/ID Subsystem</v>
       </c>
-      <c r="M9" s="20"/>
-      <c r="N9" s="22"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M9" s="21"/>
+      <c r="N9" s="23"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>0</v>
       </c>
@@ -1797,8 +1800,11 @@
       <c r="D10" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="44">
-        <v>42408</v>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="20">
+        <v>42415</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" ref="G10:H12" si="0">A16</f>
@@ -1808,12 +1814,12 @@
         <f t="shared" si="0"/>
         <v>Target Estimation</v>
       </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="29"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="22"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J10" s="28"/>
+      <c r="K10" s="30"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="23"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>0</v>
       </c>
@@ -1826,8 +1832,11 @@
       <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="44">
-        <v>42429</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11" s="20">
+        <v>42408</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" si="0"/>
@@ -1837,12 +1846,12 @@
         <f t="shared" si="0"/>
         <v>Multiple targets</v>
       </c>
-      <c r="J11" s="27"/>
-      <c r="K11" s="29"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="22"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J11" s="28"/>
+      <c r="K11" s="30"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="23"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>0</v>
       </c>
@@ -1855,8 +1864,11 @@
       <c r="D12" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="44">
-        <v>42415</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12" s="20">
+        <v>42422</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" si="0"/>
@@ -1866,12 +1878,12 @@
         <f t="shared" si="0"/>
         <v>Target Estimate Update</v>
       </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="29"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="22"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="28"/>
+      <c r="K12" s="30"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="23"/>
+    </row>
+    <row r="13" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>0</v>
       </c>
@@ -1884,8 +1896,11 @@
       <c r="D13" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="44">
-        <v>42401</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" s="20">
+        <v>42429</v>
       </c>
       <c r="G13" s="12">
         <f>A25</f>
@@ -1895,12 +1910,12 @@
         <f>B25</f>
         <v>Target Accuracy and Range</v>
       </c>
-      <c r="J13" s="27"/>
-      <c r="K13" s="30"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="22"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J13" s="28"/>
+      <c r="K13" s="31"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="23"/>
+    </row>
+    <row r="14" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>0</v>
       </c>
@@ -1917,10 +1932,10 @@
         <v>69</v>
       </c>
       <c r="G14"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="22"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M14" s="21"/>
+      <c r="N14" s="23"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>0.75</v>
       </c>
@@ -1933,7 +1948,7 @@
       <c r="D15" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="20">
         <v>42415</v>
       </c>
       <c r="G15" s="12">
@@ -1944,18 +1959,18 @@
         <f t="shared" si="1"/>
         <v>Collision Correction Planning</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="35">
         <f>AVERAGE(AVERAGE(G15:G19),A6,AVERAGE(G15:G19),AVERAGE(G15:G19))</f>
         <v>0</v>
       </c>
-      <c r="K15" s="31" t="str">
+      <c r="K15" s="32" t="str">
         <f>B6</f>
         <v>Planning Subsystem</v>
       </c>
-      <c r="M15" s="20"/>
-      <c r="N15" s="22"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M15" s="21"/>
+      <c r="N15" s="23"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>0</v>
       </c>
@@ -1968,7 +1983,7 @@
       <c r="D16" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="20">
         <v>42401</v>
       </c>
       <c r="G16" s="12">
@@ -1979,12 +1994,12 @@
         <f t="shared" si="1"/>
         <v>Trajectory Test Planning</v>
       </c>
-      <c r="J16" s="34"/>
-      <c r="K16" s="32"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="22"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J16" s="35"/>
+      <c r="K16" s="33"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="23"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <v>0</v>
       </c>
@@ -1997,7 +2012,7 @@
       <c r="D17" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="20">
         <v>42408</v>
       </c>
       <c r="G17" s="12">
@@ -2008,12 +2023,12 @@
         <f t="shared" si="1"/>
         <v>Obstacle Avoidance Planning</v>
       </c>
-      <c r="J17" s="34"/>
-      <c r="K17" s="32"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="22"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J17" s="35"/>
+      <c r="K17" s="33"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="23"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <v>0</v>
       </c>
@@ -2026,7 +2041,7 @@
       <c r="D18" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F18" s="20">
         <v>42422</v>
       </c>
       <c r="G18" s="12">
@@ -2036,12 +2051,12 @@
       <c r="H18" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="J18" s="34"/>
-      <c r="K18" s="32"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="22"/>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="35"/>
+      <c r="K18" s="33"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="23"/>
+    </row>
+    <row r="19" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>0</v>
       </c>
@@ -2054,7 +2069,7 @@
       <c r="D19" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="44">
+      <c r="F19" s="20">
         <v>42429</v>
       </c>
       <c r="G19" s="12">
@@ -2064,12 +2079,12 @@
       <c r="H19" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="J19" s="34"/>
-      <c r="K19" s="33"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="22"/>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J19" s="35"/>
+      <c r="K19" s="34"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="23"/>
+    </row>
+    <row r="20" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>0.75</v>
       </c>
@@ -2082,10 +2097,10 @@
       <c r="D20" t="s">
         <v>46</v>
       </c>
-      <c r="M20" s="20"/>
-      <c r="N20" s="22"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M20" s="21"/>
+      <c r="N20" s="23"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <v>0</v>
       </c>
@@ -2098,7 +2113,7 @@
       <c r="D21" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="44">
+      <c r="F21" s="20">
         <v>42429</v>
       </c>
       <c r="G21" s="12">
@@ -2109,18 +2124,18 @@
         <f t="shared" si="2"/>
         <v>Collision Correction Controls</v>
       </c>
-      <c r="J21" s="35">
+      <c r="J21" s="36">
         <f>AVERAGE(AVERAGE(G21:G24),A7,AVERAGE(G21:G24),AVERAGE(G21:G24))</f>
         <v>0</v>
       </c>
-      <c r="K21" s="36" t="str">
+      <c r="K21" s="37" t="str">
         <f>B7</f>
         <v>Controls Subsystem</v>
       </c>
-      <c r="M21" s="20"/>
-      <c r="N21" s="22"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M21" s="21"/>
+      <c r="N21" s="23"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <v>0</v>
       </c>
@@ -2133,7 +2148,7 @@
       <c r="D22" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="44">
+      <c r="F22" s="20">
         <v>42415</v>
       </c>
       <c r="G22" s="12">
@@ -2144,12 +2159,12 @@
         <f t="shared" si="2"/>
         <v>Trajectory Test Controls</v>
       </c>
-      <c r="J22" s="35"/>
-      <c r="K22" s="37"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="22"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J22" s="36"/>
+      <c r="K22" s="38"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="23"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>0</v>
       </c>
@@ -2162,7 +2177,7 @@
       <c r="D23" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="44">
+      <c r="F23" s="20">
         <v>42422</v>
       </c>
       <c r="G23" s="12">
@@ -2173,12 +2188,12 @@
         <f t="shared" si="2"/>
         <v>Obstacle Avoidance Controls</v>
       </c>
-      <c r="J23" s="35"/>
-      <c r="K23" s="37"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="22"/>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J23" s="36"/>
+      <c r="K23" s="38"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="23"/>
+    </row>
+    <row r="24" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>0</v>
       </c>
@@ -2191,7 +2206,7 @@
       <c r="D24" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="44">
+      <c r="F24" s="20">
         <v>42408</v>
       </c>
       <c r="G24" s="12">
@@ -2202,12 +2217,12 @@
         <f>B19</f>
         <v>Autonomous Takeoff &amp; Landing</v>
       </c>
-      <c r="J24" s="35"/>
-      <c r="K24" s="38"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="22"/>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J24" s="36"/>
+      <c r="K24" s="39"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="23"/>
+    </row>
+    <row r="25" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>0</v>
       </c>
@@ -2220,10 +2235,10 @@
       <c r="D25" t="s">
         <v>63</v>
       </c>
-      <c r="M25" s="20"/>
-      <c r="N25" s="22"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M25" s="21"/>
+      <c r="N25" s="23"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <v>0</v>
       </c>
@@ -2239,7 +2254,7 @@
       <c r="E26">
         <v>2</v>
       </c>
-      <c r="F26" s="44">
+      <c r="F26" s="20">
         <v>42401</v>
       </c>
       <c r="G26" s="12">
@@ -2250,18 +2265,18 @@
         <f>B15</f>
         <v>Durataion</v>
       </c>
-      <c r="J26" s="25">
+      <c r="J26" s="26">
         <f>AVERAGE(AVERAGE(G26:G27),A8,AVERAGE(G26:G27),AVERAGE(G26:G27))</f>
         <v>0.5625</v>
       </c>
-      <c r="K26" s="39" t="str">
+      <c r="K26" s="40" t="str">
         <f>B8</f>
         <v>Hardware Subsystem</v>
       </c>
-      <c r="M26" s="20"/>
-      <c r="N26" s="22"/>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M26" s="21"/>
+      <c r="N26" s="23"/>
+    </row>
+    <row r="27" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>0</v>
       </c>
@@ -2271,7 +2286,7 @@
       <c r="E27">
         <v>2</v>
       </c>
-      <c r="F27" s="44">
+      <c r="F27" s="20">
         <v>42401</v>
       </c>
       <c r="G27" s="12">
@@ -2282,12 +2297,12 @@
         <f>B20</f>
         <v>Payload</v>
       </c>
-      <c r="J27" s="25"/>
-      <c r="K27" s="40"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="23"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J27" s="26"/>
+      <c r="K27" s="41"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="24"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="19">
         <v>0</v>
       </c>
@@ -2296,7 +2311,7 @@
       </c>
       <c r="M28" s="18"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="19">
         <v>0</v>
       </c>
@@ -2308,13 +2323,13 @@
       </c>
       <c r="M29" s="18"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M30" s="18"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M31" s="18"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K32" s="13"/>
       <c r="N32" s="13"/>
     </row>
@@ -2547,10 +2562,5 @@
     <hyperlink ref="B29" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Technical/Testing/TestPlan.xlsx
+++ b/Technical/Testing/TestPlan.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylordean/Documents/FlyNet/Technical/Testing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FlyNet\Technical\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19380"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -1504,24 +1504,24 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.83203125" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" customWidth="1"/>
-    <col min="14" max="14" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H1" s="25" t="s">
         <v>83</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>0</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>End of Semester Test Demo</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>0</v>
       </c>
@@ -1641,7 +1641,7 @@
       <c r="M4" s="21"/>
       <c r="N4" s="23"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>0</v>
       </c>
@@ -1671,7 +1671,7 @@
       <c r="M5" s="21"/>
       <c r="N5" s="23"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>0</v>
       </c>
@@ -1701,7 +1701,7 @@
       <c r="M6" s="21"/>
       <c r="N6" s="23"/>
     </row>
-    <row r="7" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>0</v>
       </c>
@@ -1733,7 +1733,7 @@
       <c r="M7" s="21"/>
       <c r="N7" s="23"/>
     </row>
-    <row r="8" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>0</v>
       </c>
@@ -1749,7 +1749,7 @@
       <c r="M8" s="21"/>
       <c r="N8" s="23"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>0</v>
       </c>
@@ -1787,7 +1787,7 @@
       <c r="M9" s="21"/>
       <c r="N9" s="23"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>0</v>
       </c>
@@ -1819,7 +1819,7 @@
       <c r="M10" s="21"/>
       <c r="N10" s="23"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>0</v>
       </c>
@@ -1851,7 +1851,7 @@
       <c r="M11" s="21"/>
       <c r="N11" s="23"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>0</v>
       </c>
@@ -1883,7 +1883,7 @@
       <c r="M12" s="21"/>
       <c r="N12" s="23"/>
     </row>
-    <row r="13" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>0</v>
       </c>
@@ -1915,7 +1915,7 @@
       <c r="M13" s="21"/>
       <c r="N13" s="23"/>
     </row>
-    <row r="14" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>0</v>
       </c>
@@ -1935,7 +1935,7 @@
       <c r="M14" s="21"/>
       <c r="N14" s="23"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>0.75</v>
       </c>
@@ -1970,7 +1970,7 @@
       <c r="M15" s="21"/>
       <c r="N15" s="23"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>0</v>
       </c>
@@ -1999,7 +1999,7 @@
       <c r="M16" s="21"/>
       <c r="N16" s="23"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>0</v>
       </c>
@@ -2028,7 +2028,7 @@
       <c r="M17" s="21"/>
       <c r="N17" s="23"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>0</v>
       </c>
@@ -2056,7 +2056,7 @@
       <c r="M18" s="21"/>
       <c r="N18" s="23"/>
     </row>
-    <row r="19" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>0</v>
       </c>
@@ -2084,7 +2084,7 @@
       <c r="M19" s="21"/>
       <c r="N19" s="23"/>
     </row>
-    <row r="20" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>0.75</v>
       </c>
@@ -2100,7 +2100,7 @@
       <c r="M20" s="21"/>
       <c r="N20" s="23"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>0</v>
       </c>
@@ -2135,7 +2135,7 @@
       <c r="M21" s="21"/>
       <c r="N21" s="23"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>0</v>
       </c>
@@ -2164,7 +2164,7 @@
       <c r="M22" s="21"/>
       <c r="N22" s="23"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>0</v>
       </c>
@@ -2193,7 +2193,7 @@
       <c r="M23" s="21"/>
       <c r="N23" s="23"/>
     </row>
-    <row r="24" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>0</v>
       </c>
@@ -2222,7 +2222,7 @@
       <c r="M24" s="21"/>
       <c r="N24" s="23"/>
     </row>
-    <row r="25" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>0</v>
       </c>
@@ -2238,7 +2238,7 @@
       <c r="M25" s="21"/>
       <c r="N25" s="23"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>0</v>
       </c>
@@ -2276,7 +2276,7 @@
       <c r="M26" s="21"/>
       <c r="N26" s="23"/>
     </row>
-    <row r="27" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>0</v>
       </c>
@@ -2302,7 +2302,7 @@
       <c r="M27" s="21"/>
       <c r="N27" s="24"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>0</v>
       </c>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="M28" s="18"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>0</v>
       </c>
@@ -2323,13 +2323,13 @@
       </c>
       <c r="M29" s="18"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M30" s="18"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M31" s="18"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K32" s="13"/>
       <c r="N32" s="13"/>
     </row>

--- a/Technical/Testing/TestPlan.xlsx
+++ b/Technical/Testing/TestPlan.xlsx
@@ -1501,7 +1501,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="M3" s="21">
         <f>AVERAGE(AVERAGE(J3,J9,J15,J21,J26),A3,AVERAGE(J3,J9,J15,J21,J26),AVERAGE(J3,J9,J15,J21,J26))</f>
-        <v>8.4375000000000006E-2</v>
+        <v>0.11249999999999999</v>
       </c>
       <c r="N3" s="22" t="str">
         <f>B3</f>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>32</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>47</v>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="G26" s="12">
         <f>A15</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H26" s="9" t="str">
         <f>B15</f>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="J26" s="26">
         <f>AVERAGE(AVERAGE(G26:G27),A8,AVERAGE(G26:G27),AVERAGE(G26:G27))</f>
-        <v>0.5625</v>
+        <v>0.75</v>
       </c>
       <c r="K26" s="40" t="str">
         <f>B8</f>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="G27" s="12">
         <f>A20</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H27" s="9" t="str">
         <f>B20</f>

--- a/Technical/Testing/TestPlan.xlsx
+++ b/Technical/Testing/TestPlan.xlsx
@@ -1501,7 +1501,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="M3" s="21">
         <f>AVERAGE(AVERAGE(J3,J9,J15,J21,J26),A3,AVERAGE(J3,J9,J15,J21,J26),AVERAGE(J3,J9,J15,J21,J26))</f>
-        <v>0.11249999999999999</v>
+        <v>9.5625000000000002E-2</v>
       </c>
       <c r="N3" s="22" t="str">
         <f>B3</f>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>32</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>47</v>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="G26" s="12">
         <f>A15</f>
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="H26" s="9" t="str">
         <f>B15</f>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="J26" s="26">
         <f>AVERAGE(AVERAGE(G26:G27),A8,AVERAGE(G26:G27),AVERAGE(G26:G27))</f>
-        <v>0.75</v>
+        <v>0.63749999999999996</v>
       </c>
       <c r="K26" s="40" t="str">
         <f>B8</f>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="G27" s="12">
         <f>A20</f>
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="H27" s="9" t="str">
         <f>B20</f>

--- a/Technical/Testing/TestPlan.xlsx
+++ b/Technical/Testing/TestPlan.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
   <si>
     <t>Test</t>
   </si>
@@ -36,9 +36,6 @@
 Verification</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>All Level 1 Requirements</t>
   </si>
   <si>
@@ -90,12 +87,6 @@
     <t>Initial Camera Test</t>
   </si>
   <si>
-    <t>1.1.1,1.1.2</t>
-  </si>
-  <si>
-    <t>Record images, load into processing software</t>
-  </si>
-  <si>
     <t>Target Imaging</t>
   </si>
   <si>
@@ -105,12 +96,6 @@
     <t>Human Target ID</t>
   </si>
   <si>
-    <t>1.1.5</t>
-  </si>
-  <si>
-    <t>Experiment with human ID at various distances</t>
-  </si>
-  <si>
     <t>1.2.1</t>
   </si>
   <si>
@@ -156,27 +141,18 @@
     <t>Target Estimate Update</t>
   </si>
   <si>
-    <t>2.2.1</t>
-  </si>
-  <si>
     <t>Track targets, each updated position should be 10 Hz</t>
   </si>
   <si>
     <t>Autonomous Takeoff &amp; Landing</t>
   </si>
   <si>
-    <t>3.1.2, 3.1.3</t>
-  </si>
-  <si>
     <t>Self Explainitory</t>
   </si>
   <si>
     <t>Payload</t>
   </si>
   <si>
-    <t>5.1.1</t>
-  </si>
-  <si>
     <t>Receive &amp; Transmit Test</t>
   </si>
   <si>
@@ -187,9 +163,6 @@
   </si>
   <si>
     <t>Obstacle Perceived</t>
-  </si>
-  <si>
-    <t>7.2.1, 7.2.2</t>
   </si>
   <si>
     <t>Report obtacle locations, verify with VICON</t>
@@ -253,9 +226,6 @@
     <t>Receive and Transmit Test</t>
   </si>
   <si>
-    <t>SLAM accuracy and positioning</t>
-  </si>
-  <si>
     <t>Visual Odometry Verification and Characterization</t>
   </si>
   <si>
@@ -298,6 +268,42 @@
   <si>
     <t>To Be 
 Completed by</t>
+  </si>
+  <si>
+    <t>1.1.4</t>
+  </si>
+  <si>
+    <t>2.1.3, 2.2.1</t>
+  </si>
+  <si>
+    <t>3.1.1, 3.1.2, 3.1.3</t>
+  </si>
+  <si>
+    <t>1.1.1,1.1.2, 4.1.2</t>
+  </si>
+  <si>
+    <t>1.2.3, 4.4.1</t>
+  </si>
+  <si>
+    <t>1.3.1, 4.3.1, 5.1.1</t>
+  </si>
+  <si>
+    <t>7.2.1</t>
+  </si>
+  <si>
+    <t>Pass/Fail Criteria</t>
+  </si>
+  <si>
+    <t>Record images, load into processing software on the quad</t>
+  </si>
+  <si>
+    <t>Calculate and demonstrate distance for at least 95% human ID</t>
+  </si>
+  <si>
+    <t>SLAM accuracy and positioning at minimum speed</t>
+  </si>
+  <si>
+    <t>Verify the trajectory accuracy against VICON</t>
   </si>
 </sst>
 </file>
@@ -1501,7 +1507,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1523,20 +1529,20 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H1" s="25" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I1" s="25"/>
       <c r="K1" s="25" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L1" s="25"/>
       <c r="N1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1545,30 +1551,30 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="11" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="11" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1576,13 +1582,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
+      <c r="E3">
+        <v>2</v>
       </c>
       <c r="F3" s="20">
         <v>42401</v>
@@ -1617,13 +1626,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
       </c>
       <c r="F4" s="20">
         <v>42422</v>
@@ -1646,13 +1658,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
       </c>
       <c r="F5" s="20">
         <v>42429</v>
@@ -1676,13 +1691,16 @@
         <v>0</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
       </c>
       <c r="F6" s="20">
         <v>42415</v>
@@ -1706,13 +1724,16 @@
         <v>0</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
       </c>
       <c r="F7" s="20">
         <v>42408</v>
@@ -1726,7 +1747,7 @@
         <v>Visual Odometry Verification and Characterization</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="J7" s="27"/>
       <c r="K7" s="44"/>
@@ -1738,13 +1759,13 @@
         <v>0</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M8" s="21"/>
       <c r="N8" s="23"/>
@@ -1754,13 +1775,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1792,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1824,13 +1845,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1856,13 +1877,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1888,13 +1909,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1920,16 +1941,16 @@
         <v>0</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G14"/>
       <c r="M14" s="21"/>
@@ -1940,13 +1961,13 @@
         <v>0.85</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F15" s="20">
         <v>42415</v>
@@ -1975,13 +1996,13 @@
         <v>0</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F16" s="20">
         <v>42401</v>
@@ -2004,13 +2025,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F17" s="20">
         <v>42408</v>
@@ -2033,13 +2054,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F18" s="20">
         <v>42422</v>
@@ -2049,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="J18" s="35"/>
       <c r="K18" s="33"/>
@@ -2061,13 +2082,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F19" s="20">
         <v>42429</v>
@@ -2077,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J19" s="35"/>
       <c r="K19" s="34"/>
@@ -2089,13 +2110,13 @@
         <v>0.85</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="M20" s="21"/>
       <c r="N20" s="23"/>
@@ -2105,13 +2126,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F21" s="20">
         <v>42429</v>
@@ -2140,13 +2161,13 @@
         <v>0</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F22" s="20">
         <v>42415</v>
@@ -2169,13 +2190,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F23" s="20">
         <v>42422</v>
@@ -2198,13 +2219,13 @@
         <v>0</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F24" s="20">
         <v>42408</v>
@@ -2227,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="M25" s="21"/>
       <c r="N25" s="23"/>
@@ -2243,13 +2264,13 @@
         <v>0</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -2281,7 +2302,13 @@
         <v>0</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -2307,7 +2334,13 @@
         <v>0</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>79</v>
+        <v>69</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" t="s">
+        <v>90</v>
       </c>
       <c r="M28" s="18"/>
     </row>
@@ -2316,10 +2349,16 @@
         <v>0</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>80</v>
+        <v>70</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
       </c>
       <c r="F29" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="M29" s="18"/>
     </row>

--- a/Technical/Testing/TestPlan.xlsx
+++ b/Technical/Testing/TestPlan.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="91">
   <si>
     <t>Test</t>
   </si>
@@ -1507,7 +1507,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1949,6 +1949,9 @@
       <c r="D14" t="s">
         <v>26</v>
       </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
       <c r="F14" t="s">
         <v>60</v>
       </c>
@@ -1969,6 +1972,9 @@
       <c r="D15" t="s">
         <v>29</v>
       </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
       <c r="F15" s="20">
         <v>42415</v>
       </c>
@@ -2003,6 +2009,9 @@
       </c>
       <c r="D16" t="s">
         <v>32</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
       </c>
       <c r="F16" s="20">
         <v>42401</v>
@@ -2033,6 +2042,9 @@
       <c r="D17" t="s">
         <v>35</v>
       </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
       <c r="F17" s="20">
         <v>42408</v>
       </c>
@@ -2062,6 +2074,9 @@
       <c r="D18" t="s">
         <v>37</v>
       </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
       <c r="F18" s="20">
         <v>42422</v>
       </c>
@@ -2090,6 +2105,9 @@
       <c r="D19" t="s">
         <v>39</v>
       </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
       <c r="F19" s="20">
         <v>42429</v>
       </c>
@@ -2134,6 +2152,9 @@
       <c r="D21" t="s">
         <v>43</v>
       </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
       <c r="F21" s="20">
         <v>42429</v>
       </c>
@@ -2168,6 +2189,9 @@
       </c>
       <c r="D22" t="s">
         <v>45</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
       </c>
       <c r="F22" s="20">
         <v>42415</v>
@@ -2198,6 +2222,9 @@
       <c r="D23" t="s">
         <v>48</v>
       </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
       <c r="F23" s="20">
         <v>42422</v>
       </c>
@@ -2226,6 +2253,9 @@
       </c>
       <c r="D24" t="s">
         <v>51</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
       </c>
       <c r="F24" s="20">
         <v>42408</v>

--- a/Technical/Testing/TestPlan.xlsx
+++ b/Technical/Testing/TestPlan.xlsx
@@ -57,13 +57,7 @@
     <t>Hardware Subsystem</t>
   </si>
   <si>
-    <t>1.2, 5.2, 7.2</t>
-  </si>
-  <si>
     <t>5.1, 8.1</t>
-  </si>
-  <si>
-    <t>1.1, 2.1, 2.2, 8.2, 8.3, 8.4</t>
   </si>
   <si>
     <t>1.2, 5.2, 5.3</t>
@@ -259,9 +253,6 @@
     <t>March 1 - April 17</t>
   </si>
   <si>
-    <t>1.2.2, 5.2</t>
-  </si>
-  <si>
     <t>Min People 
 Required</t>
   </si>
@@ -288,9 +279,6 @@
     <t>1.3.1, 4.3.1, 5.1.1</t>
   </si>
   <si>
-    <t>7.2.1</t>
-  </si>
-  <si>
     <t>Pass/Fail Criteria</t>
   </si>
   <si>
@@ -304,6 +292,18 @@
   </si>
   <si>
     <t>Verify the trajectory accuracy against VICON</t>
+  </si>
+  <si>
+    <t>1.2.2, 5.2, 4.1.1</t>
+  </si>
+  <si>
+    <t>1.1, 2.1, 2.2, 8.2, 8.3, 8.4, 4.2.1</t>
+  </si>
+  <si>
+    <t>1.2, 5.2, 7.2, 4.2.1</t>
+  </si>
+  <si>
+    <t>7.2.1, 7.2.2</t>
   </si>
 </sst>
 </file>
@@ -1507,7 +1507,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1529,20 +1529,20 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H1" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I1" s="25"/>
       <c r="K1" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L1" s="25"/>
       <c r="N1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1551,30 +1551,30 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -1629,10 +1629,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -1661,10 +1661,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -1694,10 +1694,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -1727,10 +1727,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -1747,7 +1747,7 @@
         <v>Visual Odometry Verification and Characterization</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J7" s="27"/>
       <c r="K7" s="44"/>
@@ -1762,10 +1762,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M8" s="21"/>
       <c r="N8" s="23"/>
@@ -1775,13 +1775,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1845,13 +1845,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1877,13 +1877,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1909,13 +1909,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1941,19 +1941,19 @@
         <v>0</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G14"/>
       <c r="M14" s="21"/>
@@ -1964,13 +1964,13 @@
         <v>0.85</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" t="s">
-        <v>29</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -2002,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
         <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -2034,13 +2034,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
         <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>35</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -2066,13 +2066,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -2085,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J18" s="35"/>
       <c r="K18" s="33"/>
@@ -2097,13 +2097,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -2116,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J19" s="35"/>
       <c r="K19" s="34"/>
@@ -2128,13 +2128,13 @@
         <v>0.85</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M20" s="21"/>
       <c r="N20" s="23"/>
@@ -2144,13 +2144,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
         <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" t="s">
-        <v>43</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -2182,13 +2182,13 @@
         <v>0</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E22">
         <v>4</v>
@@ -2214,13 +2214,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
         <v>46</v>
-      </c>
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" t="s">
-        <v>48</v>
       </c>
       <c r="E23">
         <v>4</v>
@@ -2246,13 +2246,13 @@
         <v>0</v>
       </c>
       <c r="B24" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
         <v>49</v>
-      </c>
-      <c r="C24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" t="s">
-        <v>51</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -2278,13 +2278,13 @@
         <v>0</v>
       </c>
       <c r="B25" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
         <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" t="s">
-        <v>54</v>
       </c>
       <c r="M25" s="21"/>
       <c r="N25" s="23"/>
@@ -2294,13 +2294,13 @@
         <v>0</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -2332,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -2364,13 +2364,13 @@
         <v>0</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M28" s="18"/>
     </row>
@@ -2379,16 +2379,16 @@
         <v>0</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M29" s="18"/>
     </row>

--- a/Technical/Testing/TestPlan.xlsx
+++ b/Technical/Testing/TestPlan.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FlyNet\Technical\Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylordean/Documents/FlyNet/Technical/Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19380"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18940" windowHeight="19380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="90">
   <si>
     <t>Test</t>
   </si>
@@ -87,9 +87,6 @@
     <t>1.1.3</t>
   </si>
   <si>
-    <t>Human Target ID</t>
-  </si>
-  <si>
     <t>1.2.1</t>
   </si>
   <si>
@@ -114,30 +111,15 @@
     <t>Endurance test, while searching, full payload. Measure Distance traveled as well</t>
   </si>
   <si>
-    <t>Target Estimation</t>
-  </si>
-  <si>
     <t>2.1.1</t>
   </si>
   <si>
     <t>Estimate position to withing 0.5 meters</t>
   </si>
   <si>
-    <t>Multiple targets</t>
-  </si>
-  <si>
     <t>2.1.2</t>
   </si>
   <si>
-    <t>At least 2 targets estimated and ID</t>
-  </si>
-  <si>
-    <t>Target Estimate Update</t>
-  </si>
-  <si>
-    <t>Track targets, each updated position should be 10 Hz</t>
-  </si>
-  <si>
     <t>Autonomous Takeoff &amp; Landing</t>
   </si>
   <si>
@@ -181,12 +163,6 @@
   </si>
   <si>
     <t>Target Accuracy and Range</t>
-  </si>
-  <si>
-    <t>8.3.1, 8.3.2</t>
-  </si>
-  <si>
-    <t>Detect tags at 95% accuracy, find the maximum distance</t>
   </si>
   <si>
     <t>Component
@@ -214,9 +190,6 @@
     <t>End of Semester Test Demo</t>
   </si>
   <si>
-    <t xml:space="preserve">Correctly locate targets 95% of time </t>
-  </si>
-  <si>
     <t>Receive and Transmit Test</t>
   </si>
   <si>
@@ -261,9 +234,6 @@
 Completed by</t>
   </si>
   <si>
-    <t>1.1.4</t>
-  </si>
-  <si>
     <t>2.1.3, 2.2.1</t>
   </si>
   <si>
@@ -285,9 +255,6 @@
     <t>Record images, load into processing software on the quad</t>
   </si>
   <si>
-    <t>Calculate and demonstrate distance for at least 95% human ID</t>
-  </si>
-  <si>
     <t>SLAM accuracy and positioning at minimum speed</t>
   </si>
   <si>
@@ -304,6 +271,36 @@
   </si>
   <si>
     <t>7.2.1, 7.2.2</t>
+  </si>
+  <si>
+    <t>Target position update should occur at 10Hz</t>
+  </si>
+  <si>
+    <t>Correctly locate targets 95% of time with 0.5 m accuracy</t>
+  </si>
+  <si>
+    <t>Identify human target 95% of the time</t>
+  </si>
+  <si>
+    <t>Multiple targets tracked simultaneously</t>
+  </si>
+  <si>
+    <t>Target Estimation Accuracy</t>
+  </si>
+  <si>
+    <t>Multiple Targets Tracking</t>
+  </si>
+  <si>
+    <t>Target Estimate Update Frequency</t>
+  </si>
+  <si>
+    <t>Detect targets with 0.5m accuracy, find the maximum distance</t>
+  </si>
+  <si>
+    <t>Human Target Probability of Detection</t>
+  </si>
+  <si>
+    <t>1.1.3, 1.1.4, 8.3.1, 8.3.2</t>
   </si>
 </sst>
 </file>
@@ -1507,42 +1504,42 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" customWidth="1"/>
-    <col min="14" max="14" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" customWidth="1"/>
+    <col min="14" max="14" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H1" s="25" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="I1" s="25"/>
       <c r="K1" s="25" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="L1" s="25"/>
       <c r="N1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1551,38 +1548,38 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>0</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -1614,14 +1611,14 @@
       </c>
       <c r="M3" s="21">
         <f>AVERAGE(AVERAGE(J3,J9,J15,J21,J26),A3,AVERAGE(J3,J9,J15,J21,J26),AVERAGE(J3,J9,J15,J21,J26))</f>
-        <v>9.5625000000000002E-2</v>
+        <v>0.12374999999999999</v>
       </c>
       <c r="N3" s="22" t="str">
         <f>B3</f>
         <v>End of Semester Test Demo</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>0</v>
       </c>
@@ -1629,7 +1626,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1653,7 +1650,7 @@
       <c r="M4" s="21"/>
       <c r="N4" s="23"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>0</v>
       </c>
@@ -1661,7 +1658,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1686,7 +1683,7 @@
       <c r="M5" s="21"/>
       <c r="N5" s="23"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>0</v>
       </c>
@@ -1719,7 +1716,7 @@
       <c r="M6" s="21"/>
       <c r="N6" s="23"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>0</v>
       </c>
@@ -1727,7 +1724,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -1747,14 +1744,14 @@
         <v>Visual Odometry Verification and Characterization</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J7" s="27"/>
       <c r="K7" s="44"/>
       <c r="M7" s="21"/>
       <c r="N7" s="23"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>0</v>
       </c>
@@ -1770,7 +1767,7 @@
       <c r="M8" s="21"/>
       <c r="N8" s="23"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>0</v>
       </c>
@@ -1778,10 +1775,10 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1791,15 +1788,15 @@
       </c>
       <c r="G9" s="12">
         <f>A11</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H9" s="6" t="str">
         <f>B11</f>
-        <v>Human Target ID</v>
+        <v>Human Target Probability of Detection</v>
       </c>
       <c r="J9" s="28">
         <f>AVERAGE(AVERAGE(G9:G13),A4,AVERAGE(G9:G13),AVERAGE(G9:G13))</f>
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="K9" s="29" t="str">
         <f>B4</f>
@@ -1808,7 +1805,7 @@
       <c r="M9" s="21"/>
       <c r="N9" s="23"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>0</v>
       </c>
@@ -1819,7 +1816,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1833,57 +1830,57 @@
       </c>
       <c r="H10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Target Estimation</v>
+        <v>Target Estimation Accuracy</v>
       </c>
       <c r="J10" s="28"/>
       <c r="K10" s="30"/>
       <c r="M10" s="21"/>
       <c r="N10" s="23"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" s="20">
         <v>42408</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H11" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Multiple targets</v>
+        <v>Multiple Targets Tracking</v>
       </c>
       <c r="J11" s="28"/>
       <c r="K11" s="30"/>
       <c r="M11" s="21"/>
       <c r="N11" s="23"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>0</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
         <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1897,25 +1894,25 @@
       </c>
       <c r="H12" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Target Estimate Update</v>
+        <v>Target Estimate Update Frequency</v>
       </c>
       <c r="J12" s="28"/>
       <c r="K12" s="30"/>
       <c r="M12" s="21"/>
       <c r="N12" s="23"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>0</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1936,41 +1933,41 @@
       <c r="M13" s="21"/>
       <c r="N13" s="23"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>0</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G14"/>
       <c r="M14" s="21"/>
       <c r="N14" s="23"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>0.85</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1997,18 +1994,18 @@
       <c r="M15" s="21"/>
       <c r="N15" s="23"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>0</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -2029,18 +2026,18 @@
       <c r="M16" s="21"/>
       <c r="N16" s="23"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -2061,18 +2058,18 @@
       <c r="M17" s="21"/>
       <c r="N17" s="23"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <v>0</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -2085,25 +2082,25 @@
         <v>0</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="J18" s="35"/>
       <c r="K18" s="33"/>
       <c r="M18" s="21"/>
       <c r="N18" s="23"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>0</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -2116,41 +2113,41 @@
         <v>0</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J19" s="35"/>
       <c r="K19" s="34"/>
       <c r="M19" s="21"/>
       <c r="N19" s="23"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>0.85</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="M20" s="21"/>
       <c r="N20" s="23"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <v>0</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -2177,18 +2174,18 @@
       <c r="M21" s="21"/>
       <c r="N21" s="23"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <v>0</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E22">
         <v>4</v>
@@ -2209,18 +2206,18 @@
       <c r="M22" s="21"/>
       <c r="N22" s="23"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>0</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E23">
         <v>4</v>
@@ -2241,18 +2238,18 @@
       <c r="M23" s="21"/>
       <c r="N23" s="23"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>0</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -2273,34 +2270,34 @@
       <c r="M24" s="21"/>
       <c r="N24" s="23"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>0</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="M25" s="21"/>
       <c r="N25" s="23"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <v>0</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -2327,18 +2324,18 @@
       <c r="M26" s="21"/>
       <c r="N26" s="23"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>0</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
         <v>20</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -2359,46 +2356,46 @@
       <c r="M27" s="21"/>
       <c r="N27" s="24"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="19">
         <v>0</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="M28" s="18"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="19">
         <v>0</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
         <v>23</v>
       </c>
-      <c r="D29" t="s">
-        <v>24</v>
-      </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="M29" s="18"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M30" s="18"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M31" s="18"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K32" s="13"/>
       <c r="N32" s="13"/>
     </row>
@@ -2610,14 +2607,14 @@
     <hyperlink ref="B8" r:id="rId6"/>
     <hyperlink ref="B9" r:id="rId7"/>
     <hyperlink ref="B10" r:id="rId8"/>
-    <hyperlink ref="B11" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId9" display="Human Target ID"/>
     <hyperlink ref="B12" r:id="rId10"/>
     <hyperlink ref="B13" r:id="rId11"/>
     <hyperlink ref="B14" r:id="rId12"/>
     <hyperlink ref="B15" r:id="rId13"/>
-    <hyperlink ref="B16" r:id="rId14"/>
-    <hyperlink ref="B17" r:id="rId15"/>
-    <hyperlink ref="B18" r:id="rId16"/>
+    <hyperlink ref="B16" r:id="rId14" display="Target Estimation"/>
+    <hyperlink ref="B17" r:id="rId15" display="Multiple targets"/>
+    <hyperlink ref="B18" r:id="rId16" display="Target Estimate Update"/>
     <hyperlink ref="B19" r:id="rId17"/>
     <hyperlink ref="B20" r:id="rId18"/>
     <hyperlink ref="B21" r:id="rId19"/>

--- a/Technical/Testing/TestPlan.xlsx
+++ b/Technical/Testing/TestPlan.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylordean/Documents/FlyNet/Technical/Testing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FlyNet\Technical\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18940" windowHeight="19380"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="18945" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="90">
   <si>
     <t>Test</t>
   </si>
@@ -347,7 +347,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -393,21 +393,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF00B0F0"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF00B0F0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF00B0F0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF00B0F0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF00B050"/>
       </left>
@@ -445,21 +430,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF00B050"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF00B050"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF00B050"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF00B050"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FFFF0000"/>
       </left>
@@ -497,21 +467,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF7030A0"/>
       </left>
@@ -549,21 +504,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7030A0"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7030A0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7030A0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7030A0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FFBC7042"/>
       </left>
@@ -590,21 +530,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFBC7042"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFBC7042"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFBC7042"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFBC7042"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -669,21 +594,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color rgb="FFFF0000"/>
@@ -701,27 +611,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF00B050"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF00B050"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF7030A0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF7030A0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF7030A0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF7030A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBC7042"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBC7042"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBC7042"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBC7042"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -732,25 +709,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -759,60 +724,78 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1503,41 +1486,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.83203125" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" customWidth="1"/>
-    <col min="14" max="14" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H1" s="25" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="K1" s="25" t="s">
+      <c r="I1" s="13"/>
+      <c r="K1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="25"/>
+      <c r="L1" s="13"/>
       <c r="N1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -1550,35 +1533,35 @@
       <c r="D2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11" t="s">
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11" t="s">
+      <c r="M2" s="5"/>
+      <c r="N2" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
-        <v>0</v>
-      </c>
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>52</v>
       </c>
       <c r="C3" t="s">
@@ -1590,39 +1573,38 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="11">
         <v>42401</v>
       </c>
-      <c r="G3" s="12">
-        <f>A9</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="3" t="str">
+      <c r="G3" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="H3" s="36" t="str">
         <f>B9</f>
         <v>Initial Camera Test</v>
       </c>
-      <c r="J3" s="27">
+      <c r="J3" s="15">
         <f>AVERAGE(AVERAGE(G3:G7),A5,AVERAGE(G3:G7),AVERAGE(G3:G7))</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="42" t="str">
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="K3" s="19" t="str">
         <f>B5</f>
         <v>Guidance Subsystem</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="12">
         <f>AVERAGE(AVERAGE(J3,J9,J15,J21,J26),A3,AVERAGE(J3,J9,J15,J21,J26),AVERAGE(J3,J9,J15,J21,J26))</f>
-        <v>0.12374999999999999</v>
-      </c>
-      <c r="N3" s="22" t="str">
+        <v>0.19593749999999999</v>
+      </c>
+      <c r="N3" s="33" t="str">
         <f>B3</f>
         <v>End of Semester Test Demo</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
-        <v>0</v>
-      </c>
-      <c r="B4" s="14" t="s">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
@@ -1634,27 +1616,26 @@
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="11">
         <v>42422</v>
       </c>
-      <c r="G4" s="12">
-        <f>A10</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="str">
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="37" t="str">
         <f>B10</f>
         <v>Target Imaging</v>
       </c>
-      <c r="J4" s="27"/>
-      <c r="K4" s="43"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="23"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
-        <v>0</v>
-      </c>
-      <c r="B5" s="14" t="s">
+      <c r="J4" s="15"/>
+      <c r="K4" s="20"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="34"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
@@ -1666,28 +1647,27 @@
       <c r="E5">
         <v>3</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="11">
         <v>42429</v>
       </c>
-      <c r="G5" s="12">
-        <f>A22</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="str">
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="37" t="str">
         <f>B22</f>
         <v>Obstacle Perceived</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="43"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="23"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
-        <v>0</v>
-      </c>
-      <c r="B6" s="14" t="s">
+      <c r="I5" s="3"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="20"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="34"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
@@ -1699,28 +1679,27 @@
       <c r="E6">
         <v>3</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="11">
         <v>42415</v>
       </c>
-      <c r="G6" s="12">
-        <f>A23</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="str">
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="37" t="str">
         <f>B23</f>
         <v>Obstacle Map</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="43"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="23"/>
-    </row>
-    <row r="7" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>0</v>
-      </c>
-      <c r="B7" s="14" t="s">
+      <c r="I6" s="3"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="20"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="34"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
@@ -1732,30 +1711,29 @@
       <c r="E7">
         <v>2</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="11">
         <v>42408</v>
       </c>
-      <c r="G7" s="12">
-        <f>A26</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="4" t="str">
+      <c r="G7" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="H7" s="37" t="str">
         <f>B26</f>
         <v>Visual Odometry Verification and Characterization</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="44"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="23"/>
-    </row>
-    <row r="8" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>0</v>
-      </c>
-      <c r="B8" s="14" t="s">
+      <c r="J7" s="15"/>
+      <c r="K7" s="21"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="34"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
@@ -1764,14 +1742,15 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="21"/>
-      <c r="N8" s="23"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
-        <v>0</v>
-      </c>
-      <c r="B9" s="14" t="s">
+      <c r="M8" s="12"/>
+      <c r="N8" s="34"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <f>G3</f>
+        <v>0.75</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
@@ -1783,33 +1762,36 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="11">
         <v>42401</v>
       </c>
-      <c r="G9" s="12">
-        <f>A11</f>
+      <c r="G9" s="6">
         <v>0.5</v>
       </c>
-      <c r="H9" s="6" t="str">
+      <c r="H9" s="38" t="str">
         <f>B11</f>
         <v>Human Target Probability of Detection</v>
       </c>
-      <c r="J9" s="28">
+      <c r="I9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="16">
         <f>AVERAGE(AVERAGE(G9:G13),A4,AVERAGE(G9:G13),AVERAGE(G9:G13))</f>
         <v>0.1875</v>
       </c>
-      <c r="K9" s="29" t="str">
+      <c r="K9" s="22" t="str">
         <f>B4</f>
         <v>Tracking/ID Subsystem</v>
       </c>
-      <c r="M9" s="21"/>
-      <c r="N9" s="23"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
-        <v>0</v>
-      </c>
-      <c r="B10" s="14" t="s">
+      <c r="M9" s="12"/>
+      <c r="N9" s="34"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <f>G4</f>
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
@@ -1821,27 +1803,27 @@
       <c r="E10">
         <v>2</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="11">
         <v>42415</v>
       </c>
-      <c r="G10" s="12">
-        <f t="shared" ref="G10:H12" si="0">A16</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="38" t="str">
+        <f t="shared" ref="H10:H12" si="0">B16</f>
         <v>Target Estimation Accuracy</v>
       </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="30"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="23"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
+      <c r="J10" s="16"/>
+      <c r="K10" s="23"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="34"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <f>G9</f>
         <v>0.5</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" t="s">
         <v>88</v>
       </c>
       <c r="C11" t="s">
@@ -1853,27 +1835,27 @@
       <c r="E11">
         <v>2</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="11">
         <v>42408</v>
       </c>
-      <c r="G11" s="12">
-        <f t="shared" si="0"/>
+      <c r="G11" s="6">
         <v>0.75</v>
       </c>
-      <c r="H11" s="6" t="str">
+      <c r="H11" s="38" t="str">
         <f t="shared" si="0"/>
         <v>Multiple Targets Tracking</v>
       </c>
-      <c r="J11" s="28"/>
-      <c r="K11" s="30"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="23"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
-        <v>0</v>
-      </c>
-      <c r="B12" s="14" t="s">
+      <c r="J11" s="16"/>
+      <c r="K11" s="23"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="34"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <f>G15</f>
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
         <v>56</v>
       </c>
       <c r="C12" t="s">
@@ -1885,27 +1867,30 @@
       <c r="E12">
         <v>3</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="11">
         <v>42422</v>
       </c>
-      <c r="G12" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="6" t="str">
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="38" t="str">
         <f t="shared" si="0"/>
         <v>Target Estimate Update Frequency</v>
       </c>
-      <c r="J12" s="28"/>
-      <c r="K12" s="30"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="23"/>
-    </row>
-    <row r="13" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
-        <v>0</v>
-      </c>
-      <c r="B13" s="14" t="s">
+      <c r="I12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="16"/>
+      <c r="K12" s="23"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="34"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <f>G16</f>
+        <v>0.25</v>
+      </c>
+      <c r="B13" t="s">
         <v>60</v>
       </c>
       <c r="C13" t="s">
@@ -1917,27 +1902,27 @@
       <c r="E13">
         <v>3</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="11">
         <v>42429</v>
       </c>
-      <c r="G13" s="12">
-        <f>A25</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="6" t="str">
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="38" t="str">
         <f>B25</f>
         <v>Target Accuracy and Range</v>
       </c>
-      <c r="J13" s="28"/>
-      <c r="K13" s="31"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="23"/>
-    </row>
-    <row r="14" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <v>0</v>
-      </c>
-      <c r="B14" s="14" t="s">
+      <c r="J13" s="16"/>
+      <c r="K13" s="24"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="34"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <f>G17</f>
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
         <v>61</v>
       </c>
       <c r="C14" t="s">
@@ -1953,14 +1938,15 @@
         <v>50</v>
       </c>
       <c r="G14"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="23"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
+      <c r="M14" s="12"/>
+      <c r="N14" s="34"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <f>G26</f>
         <v>0.85</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" t="s">
         <v>24</v>
       </c>
       <c r="C15" t="s">
@@ -1972,33 +1958,33 @@
       <c r="E15">
         <v>2</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="11">
         <v>42415</v>
       </c>
-      <c r="G15" s="12">
-        <f t="shared" ref="G15:H17" si="1">A12</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="7" t="str">
-        <f t="shared" si="1"/>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="39" t="str">
+        <f t="shared" ref="H15:H17" si="1">B12</f>
         <v>Collision Correction Planning</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="17">
         <f>AVERAGE(AVERAGE(G15:G19),A6,AVERAGE(G15:G19),AVERAGE(G15:G19))</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="32" t="str">
+        <v>3.7500000000000006E-2</v>
+      </c>
+      <c r="K15" s="25" t="str">
         <f>B6</f>
         <v>Planning Subsystem</v>
       </c>
-      <c r="M15" s="21"/>
-      <c r="N15" s="23"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
-        <v>0</v>
-      </c>
-      <c r="B16" s="14" t="s">
+      <c r="M15" s="12"/>
+      <c r="N15" s="34"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <f>G10</f>
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
         <v>84</v>
       </c>
       <c r="C16" t="s">
@@ -2010,27 +1996,27 @@
       <c r="E16">
         <v>2</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="11">
         <v>42401</v>
       </c>
-      <c r="G16" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="7" t="str">
+      <c r="G16" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="H16" s="39" t="str">
         <f t="shared" si="1"/>
         <v>Trajectory Test Planning</v>
       </c>
-      <c r="J16" s="35"/>
-      <c r="K16" s="33"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="23"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
+      <c r="J16" s="17"/>
+      <c r="K16" s="26"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="34"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <f>G11</f>
         <v>0.75</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" t="s">
         <v>85</v>
       </c>
       <c r="C17" t="s">
@@ -2042,27 +2028,27 @@
       <c r="E17">
         <v>2</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="11">
         <v>42408</v>
       </c>
-      <c r="G17" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="7" t="str">
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="39" t="str">
         <f t="shared" si="1"/>
         <v>Obstacle Avoidance Planning</v>
       </c>
-      <c r="J17" s="35"/>
-      <c r="K17" s="33"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="23"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
-        <v>0</v>
-      </c>
-      <c r="B18" s="14" t="s">
+      <c r="J17" s="17"/>
+      <c r="K17" s="26"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="34"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <f>G12</f>
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
         <v>86</v>
       </c>
       <c r="C18" t="s">
@@ -2074,26 +2060,26 @@
       <c r="E18">
         <v>2</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="11">
         <v>42422</v>
       </c>
-      <c r="G18" s="12">
-        <f>A21</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="7" t="s">
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="J18" s="35"/>
-      <c r="K18" s="33"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="23"/>
-    </row>
-    <row r="19" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
-        <v>0</v>
-      </c>
-      <c r="B19" s="14" t="s">
+      <c r="J18" s="17"/>
+      <c r="K18" s="26"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="34"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <f>G24</f>
+        <v>0.5</v>
+      </c>
+      <c r="B19" t="s">
         <v>30</v>
       </c>
       <c r="C19" t="s">
@@ -2105,26 +2091,26 @@
       <c r="E19">
         <v>2</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="11">
         <v>42429</v>
       </c>
-      <c r="G19" s="12">
-        <f>A24</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="17" t="s">
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="J19" s="35"/>
-      <c r="K19" s="34"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="23"/>
-    </row>
-    <row r="20" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="J19" s="17"/>
+      <c r="K19" s="27"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="34"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <f>G27</f>
         <v>0.85</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" t="s">
         <v>32</v>
       </c>
       <c r="C20" t="s">
@@ -2133,14 +2119,15 @@
       <c r="D20" t="s">
         <v>31</v>
       </c>
-      <c r="M20" s="21"/>
-      <c r="N20" s="23"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="12">
-        <v>0</v>
-      </c>
-      <c r="B21" s="15" t="s">
+      <c r="M20" s="12"/>
+      <c r="N20" s="34"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <f>G18</f>
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
         <v>33</v>
       </c>
       <c r="C21" t="s">
@@ -2152,33 +2139,33 @@
       <c r="E21">
         <v>4</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="11">
         <v>42429</v>
       </c>
-      <c r="G21" s="12">
-        <f t="shared" ref="G21:H23" si="2">A27</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="8" t="str">
-        <f t="shared" si="2"/>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="41" t="str">
+        <f t="shared" ref="H21:H23" si="2">B27</f>
         <v>Collision Correction Controls</v>
       </c>
-      <c r="J21" s="36">
+      <c r="J21" s="18">
         <f>AVERAGE(AVERAGE(G21:G24),A7,AVERAGE(G21:G24),AVERAGE(G21:G24))</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="37" t="str">
+        <v>9.375E-2</v>
+      </c>
+      <c r="K21" s="28" t="str">
         <f>B7</f>
         <v>Controls Subsystem</v>
       </c>
-      <c r="M21" s="21"/>
-      <c r="N21" s="23"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="12">
-        <v>0</v>
-      </c>
-      <c r="B22" s="14" t="s">
+      <c r="M21" s="12"/>
+      <c r="N21" s="34"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <f>G5</f>
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
         <v>36</v>
       </c>
       <c r="C22" t="s">
@@ -2190,27 +2177,27 @@
       <c r="E22">
         <v>4</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="11">
         <v>42415</v>
       </c>
-      <c r="G22" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="8" t="str">
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="41" t="str">
         <f t="shared" si="2"/>
         <v>Trajectory Test Controls</v>
       </c>
-      <c r="J22" s="36"/>
-      <c r="K22" s="38"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="23"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="12">
-        <v>0</v>
-      </c>
-      <c r="B23" s="14" t="s">
+      <c r="J22" s="18"/>
+      <c r="K22" s="29"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="34"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <f>G6</f>
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
         <v>38</v>
       </c>
       <c r="C23" t="s">
@@ -2222,27 +2209,27 @@
       <c r="E23">
         <v>4</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="11">
         <v>42422</v>
       </c>
-      <c r="G23" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="8" t="str">
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+      <c r="H23" s="41" t="str">
         <f t="shared" si="2"/>
         <v>Obstacle Avoidance Controls</v>
       </c>
-      <c r="J23" s="36"/>
-      <c r="K23" s="38"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="23"/>
-    </row>
-    <row r="24" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
-        <v>0</v>
-      </c>
-      <c r="B24" s="15" t="s">
+      <c r="J23" s="18"/>
+      <c r="K23" s="29"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="34"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <f>G19</f>
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
         <v>41</v>
       </c>
       <c r="C24" t="s">
@@ -2254,27 +2241,27 @@
       <c r="E24">
         <v>3</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="11">
         <v>42408</v>
       </c>
-      <c r="G24" s="12">
-        <f>A19</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="8" t="str">
+      <c r="G24" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H24" s="41" t="str">
         <f>B19</f>
         <v>Autonomous Takeoff &amp; Landing</v>
       </c>
-      <c r="J24" s="36"/>
-      <c r="K24" s="39"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="23"/>
-    </row>
-    <row r="25" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
-        <v>0</v>
-      </c>
-      <c r="B25" s="14" t="s">
+      <c r="J24" s="18"/>
+      <c r="K24" s="30"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="34"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <f>G13</f>
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
         <v>44</v>
       </c>
       <c r="C25" t="s">
@@ -2283,14 +2270,18 @@
       <c r="D25" t="s">
         <v>87</v>
       </c>
-      <c r="M25" s="21"/>
-      <c r="N25" s="23"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="12">
-        <v>0</v>
-      </c>
-      <c r="B26" s="14" t="s">
+      <c r="E25" t="s">
+        <v>50</v>
+      </c>
+      <c r="M25" s="12"/>
+      <c r="N25" s="34"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <f>G7</f>
+        <v>0.75</v>
+      </c>
+      <c r="B26" t="s">
         <v>54</v>
       </c>
       <c r="C26" t="s">
@@ -2302,33 +2293,33 @@
       <c r="E26">
         <v>2</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="11">
         <v>42401</v>
       </c>
-      <c r="G26" s="12">
-        <f>A15</f>
+      <c r="G26" s="6">
         <v>0.85</v>
       </c>
-      <c r="H26" s="9" t="str">
+      <c r="H26" s="42" t="str">
         <f>B15</f>
         <v>Durataion</v>
       </c>
-      <c r="J26" s="26">
+      <c r="J26" s="14">
         <f>AVERAGE(AVERAGE(G26:G27),A8,AVERAGE(G26:G27),AVERAGE(G26:G27))</f>
-        <v>0.63749999999999996</v>
-      </c>
-      <c r="K26" s="40" t="str">
+        <v>0.76250000000000007</v>
+      </c>
+      <c r="K26" s="31" t="str">
         <f>B8</f>
         <v>Hardware Subsystem</v>
       </c>
-      <c r="M26" s="21"/>
-      <c r="N26" s="23"/>
-    </row>
-    <row r="27" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
-        <v>0</v>
-      </c>
-      <c r="B27" s="14" t="s">
+      <c r="M26" s="12"/>
+      <c r="N26" s="34"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <f>G21</f>
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
         <v>57</v>
       </c>
       <c r="C27" t="s">
@@ -2340,27 +2331,27 @@
       <c r="E27">
         <v>2</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="11">
         <v>42401</v>
       </c>
-      <c r="G27" s="12">
-        <f>A20</f>
+      <c r="G27" s="6">
         <v>0.85</v>
       </c>
-      <c r="H27" s="9" t="str">
+      <c r="H27" s="42" t="str">
         <f>B20</f>
         <v>Payload</v>
       </c>
-      <c r="J27" s="26"/>
-      <c r="K27" s="41"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="24"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="19">
-        <v>0</v>
-      </c>
-      <c r="B28" s="14" t="s">
+      <c r="J27" s="14"/>
+      <c r="K27" s="32"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="35"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <f>G22</f>
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
         <v>58</v>
       </c>
       <c r="C28" t="s">
@@ -2369,13 +2360,14 @@
       <c r="D28" t="s">
         <v>75</v>
       </c>
-      <c r="M28" s="18"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="19">
-        <v>0</v>
-      </c>
-      <c r="B29" s="14" t="s">
+      <c r="M28" s="9"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <f>G23</f>
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
         <v>59</v>
       </c>
       <c r="C29" t="s">
@@ -2387,17 +2379,17 @@
       <c r="F29" t="s">
         <v>50</v>
       </c>
-      <c r="M29" s="18"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="M30" s="18"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="M31" s="18"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K32" s="13"/>
-      <c r="N32" s="13"/>
+      <c r="M29" s="9"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M30" s="9"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M31" s="9"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K32" s="7"/>
+      <c r="N32" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2599,33 +2591,33 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="End of Semester test demo"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B6" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B8" r:id="rId6"/>
-    <hyperlink ref="B9" r:id="rId7"/>
-    <hyperlink ref="B10" r:id="rId8"/>
-    <hyperlink ref="B11" r:id="rId9" display="Human Target ID"/>
-    <hyperlink ref="B12" r:id="rId10"/>
-    <hyperlink ref="B13" r:id="rId11"/>
-    <hyperlink ref="B14" r:id="rId12"/>
-    <hyperlink ref="B15" r:id="rId13"/>
-    <hyperlink ref="B16" r:id="rId14" display="Target Estimation"/>
-    <hyperlink ref="B17" r:id="rId15" display="Multiple targets"/>
-    <hyperlink ref="B18" r:id="rId16" display="Target Estimate Update"/>
-    <hyperlink ref="B19" r:id="rId17"/>
-    <hyperlink ref="B20" r:id="rId18"/>
-    <hyperlink ref="B21" r:id="rId19"/>
-    <hyperlink ref="B22" r:id="rId20"/>
-    <hyperlink ref="B23" r:id="rId21"/>
-    <hyperlink ref="B24" r:id="rId22"/>
-    <hyperlink ref="B25" r:id="rId23"/>
-    <hyperlink ref="B26" r:id="rId24"/>
-    <hyperlink ref="B27" r:id="rId25"/>
-    <hyperlink ref="B28" r:id="rId26"/>
-    <hyperlink ref="B29" r:id="rId27"/>
+    <hyperlink ref="H3" r:id="rId1" display="InitialCameraTest.docx"/>
+    <hyperlink ref="H4" r:id="rId2" display="TargetImaging.docx"/>
+    <hyperlink ref="H5" r:id="rId3" display="ObstaclePerceived.docx"/>
+    <hyperlink ref="H6" r:id="rId4" display="ObstacleMap.docx"/>
+    <hyperlink ref="H7" r:id="rId5" display="VisualOdometryVerificationandCharacterization.docx"/>
+    <hyperlink ref="H9" r:id="rId6" display="HumanTargetID.docx"/>
+    <hyperlink ref="H10" r:id="rId7" display="TargetEstimation.docx"/>
+    <hyperlink ref="H11" r:id="rId8" display="MultipleTargets.docx"/>
+    <hyperlink ref="H12" r:id="rId9" display="TargetEstimateUpdate.docx"/>
+    <hyperlink ref="H13" r:id="rId10" display="TargetAccuracy&amp;Range.docx"/>
+    <hyperlink ref="H15" r:id="rId11" display="CollisionCorrectionPlanning.docx"/>
+    <hyperlink ref="H16" r:id="rId12" display="TrajectoryTestPlanning.docx"/>
+    <hyperlink ref="H17" r:id="rId13" display="ObstacleAvoidancePlanning.docx"/>
+    <hyperlink ref="H18" r:id="rId14"/>
+    <hyperlink ref="H19" r:id="rId15"/>
+    <hyperlink ref="H21" r:id="rId16" display="CollisionCorrectionControls.docx"/>
+    <hyperlink ref="H22" r:id="rId17" display="TrajectoryTestControls.docx"/>
+    <hyperlink ref="H23" r:id="rId18" display="ObstacleAvoidanceControls.docx"/>
+    <hyperlink ref="H24" r:id="rId19" display="AutonomousTakeoffLanding.docx"/>
+    <hyperlink ref="H26" r:id="rId20" display="Duration.docx"/>
+    <hyperlink ref="H27" r:id="rId21" display="Payload.docx"/>
+    <hyperlink ref="K3:K7" r:id="rId22" display="GuidanceSubsystem.docx"/>
+    <hyperlink ref="K9:K13" r:id="rId23" display="TrackingIDSubsystem.docx"/>
+    <hyperlink ref="K15:K19" r:id="rId24" display="PlanningSubsystem.docx"/>
+    <hyperlink ref="K21:K24" r:id="rId25" display="ControlsSubsystem.docx"/>
+    <hyperlink ref="K26:K27" r:id="rId26" display="HardwareSubsystem.docx"/>
+    <hyperlink ref="N3:N27" r:id="rId27" display="EndOfSemesterTestDemo.docx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Technical/Testing/TestPlan.xlsx
+++ b/Technical/Testing/TestPlan.xlsx
@@ -715,78 +715,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -796,6 +724,78 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="2" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1486,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1508,14 +1508,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="K1" s="13" t="s">
+      <c r="I1" s="23"/>
+      <c r="K1" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="13"/>
+      <c r="L1" s="23"/>
       <c r="N1" t="s">
         <v>63</v>
       </c>
@@ -1579,23 +1579,23 @@
       <c r="G3" s="6">
         <v>0.75</v>
       </c>
-      <c r="H3" s="36" t="str">
+      <c r="H3" s="12" t="str">
         <f>B9</f>
         <v>Initial Camera Test</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="25">
         <f>AVERAGE(AVERAGE(G3:G7),A5,AVERAGE(G3:G7),AVERAGE(G3:G7))</f>
         <v>0.22499999999999998</v>
       </c>
-      <c r="K3" s="19" t="str">
+      <c r="K3" s="40" t="str">
         <f>B5</f>
         <v>Guidance Subsystem</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="19">
         <f>AVERAGE(AVERAGE(J3,J9,J15,J21,J26),A3,AVERAGE(J3,J9,J15,J21,J26),AVERAGE(J3,J9,J15,J21,J26))</f>
-        <v>0.19593749999999999</v>
-      </c>
-      <c r="N3" s="33" t="str">
+        <v>0.24515624999999996</v>
+      </c>
+      <c r="N3" s="20" t="str">
         <f>B3</f>
         <v>End of Semester Test Demo</v>
       </c>
@@ -1622,14 +1622,14 @@
       <c r="G4" s="6">
         <v>0</v>
       </c>
-      <c r="H4" s="37" t="str">
+      <c r="H4" s="13" t="str">
         <f>B10</f>
         <v>Target Imaging</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="20"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="34"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="41"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="21"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
@@ -1653,15 +1653,15 @@
       <c r="G5" s="6">
         <v>0</v>
       </c>
-      <c r="H5" s="37" t="str">
+      <c r="H5" s="13" t="str">
         <f>B22</f>
         <v>Obstacle Perceived</v>
       </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="20"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="34"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="41"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="21"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
@@ -1685,15 +1685,15 @@
       <c r="G6" s="6">
         <v>0</v>
       </c>
-      <c r="H6" s="37" t="str">
+      <c r="H6" s="13" t="str">
         <f>B23</f>
         <v>Obstacle Map</v>
       </c>
       <c r="I6" s="3"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="20"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="34"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="41"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="21"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
@@ -1717,17 +1717,17 @@
       <c r="G7" s="6">
         <v>0.75</v>
       </c>
-      <c r="H7" s="37" t="str">
+      <c r="H7" s="13" t="str">
         <f>B26</f>
         <v>Visual Odometry Verification and Characterization</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="21"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="34"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="42"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="21"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
@@ -1742,8 +1742,8 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="34"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="21"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -1766,25 +1766,25 @@
         <v>42401</v>
       </c>
       <c r="G9" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="H9" s="38" t="str">
+        <v>1</v>
+      </c>
+      <c r="H9" s="14" t="str">
         <f>B11</f>
         <v>Human Target Probability of Detection</v>
       </c>
       <c r="I9" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="26">
         <f>AVERAGE(AVERAGE(G9:G13),A4,AVERAGE(G9:G13),AVERAGE(G9:G13))</f>
-        <v>0.1875</v>
-      </c>
-      <c r="K9" s="22" t="str">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="K9" s="27" t="str">
         <f>B4</f>
         <v>Tracking/ID Subsystem</v>
       </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="34"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="21"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
@@ -1809,19 +1809,19 @@
       <c r="G10" s="6">
         <v>0</v>
       </c>
-      <c r="H10" s="38" t="str">
+      <c r="H10" s="14" t="str">
         <f t="shared" ref="H10:H12" si="0">B16</f>
         <v>Target Estimation Accuracy</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="23"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="34"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="28"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="21"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <f>G9</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>88</v>
@@ -1839,16 +1839,16 @@
         <v>42408</v>
       </c>
       <c r="G11" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H11" s="38" t="str">
+        <v>1</v>
+      </c>
+      <c r="H11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Multiple Targets Tracking</v>
       </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="23"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="34"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="28"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="21"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
@@ -1873,17 +1873,17 @@
       <c r="G12" s="6">
         <v>0</v>
       </c>
-      <c r="H12" s="38" t="str">
+      <c r="H12" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Target Estimate Update Frequency</v>
       </c>
       <c r="I12" t="s">
         <v>50</v>
       </c>
-      <c r="J12" s="16"/>
-      <c r="K12" s="23"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="34"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="28"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="21"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
@@ -1908,14 +1908,14 @@
       <c r="G13" s="6">
         <v>0</v>
       </c>
-      <c r="H13" s="38" t="str">
+      <c r="H13" s="14" t="str">
         <f>B25</f>
         <v>Target Accuracy and Range</v>
       </c>
-      <c r="J13" s="16"/>
-      <c r="K13" s="24"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="34"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="29"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="21"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
@@ -1938,8 +1938,8 @@
         <v>50</v>
       </c>
       <c r="G14"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="34"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="21"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
@@ -1964,20 +1964,20 @@
       <c r="G15" s="6">
         <v>0</v>
       </c>
-      <c r="H15" s="39" t="str">
+      <c r="H15" s="15" t="str">
         <f t="shared" ref="H15:H17" si="1">B12</f>
         <v>Collision Correction Planning</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="33">
         <f>AVERAGE(AVERAGE(G15:G19),A6,AVERAGE(G15:G19),AVERAGE(G15:G19))</f>
         <v>3.7500000000000006E-2</v>
       </c>
-      <c r="K15" s="25" t="str">
+      <c r="K15" s="30" t="str">
         <f>B6</f>
         <v>Planning Subsystem</v>
       </c>
-      <c r="M15" s="12"/>
-      <c r="N15" s="34"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="21"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
@@ -2002,19 +2002,19 @@
       <c r="G16" s="6">
         <v>0.25</v>
       </c>
-      <c r="H16" s="39" t="str">
+      <c r="H16" s="15" t="str">
         <f t="shared" si="1"/>
         <v>Trajectory Test Planning</v>
       </c>
-      <c r="J16" s="17"/>
-      <c r="K16" s="26"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="34"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="31"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="21"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <f>G11</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -2034,14 +2034,14 @@
       <c r="G17" s="6">
         <v>0</v>
       </c>
-      <c r="H17" s="39" t="str">
+      <c r="H17" s="15" t="str">
         <f t="shared" si="1"/>
         <v>Obstacle Avoidance Planning</v>
       </c>
-      <c r="J17" s="17"/>
-      <c r="K17" s="26"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="34"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="31"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="21"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
@@ -2066,18 +2066,18 @@
       <c r="G18" s="6">
         <v>0</v>
       </c>
-      <c r="H18" s="39" t="s">
+      <c r="H18" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="26"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="34"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="31"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="21"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <f>G24</f>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -2097,13 +2097,13 @@
       <c r="G19" s="6">
         <v>0</v>
       </c>
-      <c r="H19" s="40" t="s">
+      <c r="H19" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="27"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="34"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="32"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="21"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
@@ -2119,8 +2119,8 @@
       <c r="D20" t="s">
         <v>31</v>
       </c>
-      <c r="M20" s="12"/>
-      <c r="N20" s="34"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="21"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
@@ -2145,20 +2145,20 @@
       <c r="G21" s="6">
         <v>0</v>
       </c>
-      <c r="H21" s="41" t="str">
+      <c r="H21" s="17" t="str">
         <f t="shared" ref="H21:H23" si="2">B27</f>
         <v>Collision Correction Controls</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="34">
         <f>AVERAGE(AVERAGE(G21:G24),A7,AVERAGE(G21:G24),AVERAGE(G21:G24))</f>
-        <v>9.375E-2</v>
-      </c>
-      <c r="K21" s="28" t="str">
+        <v>0.30937499999999996</v>
+      </c>
+      <c r="K21" s="35" t="str">
         <f>B7</f>
         <v>Controls Subsystem</v>
       </c>
-      <c r="M21" s="12"/>
-      <c r="N21" s="34"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="21"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
@@ -2181,16 +2181,16 @@
         <v>42415</v>
       </c>
       <c r="G22" s="6">
-        <v>0</v>
-      </c>
-      <c r="H22" s="41" t="str">
+        <v>0.9</v>
+      </c>
+      <c r="H22" s="17" t="str">
         <f t="shared" si="2"/>
         <v>Trajectory Test Controls</v>
       </c>
-      <c r="J22" s="18"/>
-      <c r="K22" s="29"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="36"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="21"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
@@ -2215,14 +2215,14 @@
       <c r="G23" s="6">
         <v>0</v>
       </c>
-      <c r="H23" s="41" t="str">
+      <c r="H23" s="17" t="str">
         <f t="shared" si="2"/>
         <v>Obstacle Avoidance Controls</v>
       </c>
-      <c r="J23" s="18"/>
-      <c r="K23" s="29"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="36"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="21"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
@@ -2245,16 +2245,16 @@
         <v>42408</v>
       </c>
       <c r="G24" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="H24" s="41" t="str">
+        <v>0.75</v>
+      </c>
+      <c r="H24" s="17" t="str">
         <f>B19</f>
         <v>Autonomous Takeoff &amp; Landing</v>
       </c>
-      <c r="J24" s="18"/>
-      <c r="K24" s="30"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="37"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="21"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
@@ -2273,8 +2273,8 @@
       <c r="E25" t="s">
         <v>50</v>
       </c>
-      <c r="M25" s="12"/>
-      <c r="N25" s="34"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="21"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
@@ -2299,20 +2299,20 @@
       <c r="G26" s="6">
         <v>0.85</v>
       </c>
-      <c r="H26" s="42" t="str">
+      <c r="H26" s="18" t="str">
         <f>B15</f>
         <v>Durataion</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="24">
         <f>AVERAGE(AVERAGE(G26:G27),A8,AVERAGE(G26:G27),AVERAGE(G26:G27))</f>
         <v>0.76250000000000007</v>
       </c>
-      <c r="K26" s="31" t="str">
+      <c r="K26" s="38" t="str">
         <f>B8</f>
         <v>Hardware Subsystem</v>
       </c>
-      <c r="M26" s="12"/>
-      <c r="N26" s="34"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="21"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
@@ -2337,19 +2337,19 @@
       <c r="G27" s="6">
         <v>0.85</v>
       </c>
-      <c r="H27" s="42" t="str">
+      <c r="H27" s="18" t="str">
         <f>B20</f>
         <v>Payload</v>
       </c>
-      <c r="J27" s="14"/>
-      <c r="K27" s="32"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="35"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="39"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="22"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <f>G22</f>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="B28" t="s">
         <v>58</v>

--- a/Technical/Testing/TestPlan.xlsx
+++ b/Technical/Testing/TestPlan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="18945" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="16830" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1487,7 +1487,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="M3" s="19">
         <f>AVERAGE(AVERAGE(J3,J9,J15,J21,J26),A3,AVERAGE(J3,J9,J15,J21,J26),AVERAGE(J3,J9,J15,J21,J26))</f>
-        <v>0.24515624999999996</v>
+        <v>0.29915625000000001</v>
       </c>
       <c r="N3" s="20" t="str">
         <f>B3</f>
@@ -1648,7 +1648,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="11">
-        <v>42429</v>
+        <v>42415</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -1680,7 +1680,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="11">
-        <v>42415</v>
+        <v>42429</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="J9" s="26">
         <f>AVERAGE(AVERAGE(G9:G13),A4,AVERAGE(G9:G13),AVERAGE(G9:G13))</f>
-        <v>0.30000000000000004</v>
+        <v>0.66000000000000014</v>
       </c>
       <c r="K9" s="27" t="str">
         <f>B4</f>
@@ -1807,7 +1807,7 @@
         <v>42415</v>
       </c>
       <c r="G10" s="6">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H10" s="14" t="str">
         <f t="shared" ref="H10:H12" si="0">B16</f>
@@ -1871,7 +1871,7 @@
         <v>42422</v>
       </c>
       <c r="G12" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H12" s="14" t="str">
         <f t="shared" si="0"/>
@@ -1906,7 +1906,7 @@
         <v>42429</v>
       </c>
       <c r="G13" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H13" s="14" t="str">
         <f>B25</f>
@@ -1982,7 +1982,7 @@
     <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <f>G10</f>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -2046,7 +2046,7 @@
     <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <f>G12</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="B18" t="s">
         <v>86</v>
@@ -2259,7 +2259,7 @@
     <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <f>G13</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="B25" t="s">
         <v>44</v>

--- a/Technical/Testing/TestPlan.xlsx
+++ b/Technical/Testing/TestPlan.xlsx
@@ -1486,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="M3" s="19">
         <f>AVERAGE(AVERAGE(J3,J9,J15,J21,J26),A3,AVERAGE(J3,J9,J15,J21,J26),AVERAGE(J3,J9,J15,J21,J26))</f>
-        <v>0.29915625000000001</v>
+        <v>0.31790625000000006</v>
       </c>
       <c r="N3" s="20" t="str">
         <f>B3</f>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="J21" s="34">
         <f>AVERAGE(AVERAGE(G21:G24),A7,AVERAGE(G21:G24),AVERAGE(G21:G24))</f>
-        <v>0.30937499999999996</v>
+        <v>0.37187499999999996</v>
       </c>
       <c r="K21" s="35" t="str">
         <f>B7</f>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="J26" s="24">
         <f>AVERAGE(AVERAGE(G26:G27),A8,AVERAGE(G26:G27),AVERAGE(G26:G27))</f>
-        <v>0.76250000000000007</v>
+        <v>0.82500000000000007</v>
       </c>
       <c r="K26" s="38" t="str">
         <f>B8</f>

--- a/Technical/Testing/TestPlan.xlsx
+++ b/Technical/Testing/TestPlan.xlsx
@@ -276,9 +276,6 @@
     <t>Target position update should occur at 10Hz</t>
   </si>
   <si>
-    <t>Correctly locate targets 95% of time with 0.5 m accuracy</t>
-  </si>
-  <si>
     <t>Identify human target 95% of the time</t>
   </si>
   <si>
@@ -301,6 +298,9 @@
   </si>
   <si>
     <t>1.1.3, 1.1.4, 8.3.1, 8.3.2</t>
+  </si>
+  <si>
+    <t>Correctly locate targets in the map 95% of time with 0.5 m accuracy</t>
   </si>
 </sst>
 </file>
@@ -1486,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="M3" s="19">
         <f>AVERAGE(AVERAGE(J3,J9,J15,J21,J26),A3,AVERAGE(J3,J9,J15,J21,J26),AVERAGE(J3,J9,J15,J21,J26))</f>
-        <v>0.31790625000000006</v>
+        <v>0.35306250000000006</v>
       </c>
       <c r="N3" s="20" t="str">
         <f>B3</f>
@@ -1602,7 +1602,7 @@
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="J9" s="26">
         <f>AVERAGE(AVERAGE(G9:G13),A4,AVERAGE(G9:G13),AVERAGE(G9:G13))</f>
-        <v>0.66000000000000014</v>
+        <v>0.72250000000000014</v>
       </c>
       <c r="K9" s="27" t="str">
         <f>B4</f>
@@ -1798,7 +1798,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1824,13 +1824,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
         <v>88</v>
       </c>
-      <c r="C11" t="s">
-        <v>89</v>
-      </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1970,7 +1970,7 @@
       </c>
       <c r="J15" s="33">
         <f>AVERAGE(AVERAGE(G15:G19),A6,AVERAGE(G15:G19),AVERAGE(G15:G19))</f>
-        <v>3.7500000000000006E-2</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="K15" s="30" t="str">
         <f>B6</f>
@@ -1985,7 +1985,7 @@
         <v>0.9</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -2017,13 +2017,13 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -2049,7 +2049,7 @@
         <v>0.75</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
         <v>67</v>
@@ -2077,7 +2077,7 @@
     <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <f>G24</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="J21" s="34">
         <f>AVERAGE(AVERAGE(G21:G24),A7,AVERAGE(G21:G24),AVERAGE(G21:G24))</f>
-        <v>0.37187499999999996</v>
+        <v>0.48124999999999996</v>
       </c>
       <c r="K21" s="35" t="str">
         <f>B7</f>
@@ -2245,7 +2245,7 @@
         <v>42408</v>
       </c>
       <c r="G24" s="6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H24" s="17" t="str">
         <f>B19</f>
@@ -2265,10 +2265,10 @@
         <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E25" t="s">
         <v>50</v>

--- a/Technical/Testing/TestPlan.xlsx
+++ b/Technical/Testing/TestPlan.xlsx
@@ -1486,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="J3" s="25">
         <f>AVERAGE(AVERAGE(G3:G7),A5,AVERAGE(G3:G7),AVERAGE(G3:G7))</f>
-        <v>0.22499999999999998</v>
+        <v>0.28750000000000003</v>
       </c>
       <c r="K3" s="40" t="str">
         <f>B5</f>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="M3" s="19">
         <f>AVERAGE(AVERAGE(J3,J9,J15,J21,J26),A3,AVERAGE(J3,J9,J15,J21,J26),AVERAGE(J3,J9,J15,J21,J26))</f>
-        <v>0.35306250000000006</v>
+        <v>0.37181249999999999</v>
       </c>
       <c r="N3" s="20" t="str">
         <f>B3</f>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1970,7 +1970,7 @@
       </c>
       <c r="J15" s="33">
         <f>AVERAGE(AVERAGE(G15:G19),A6,AVERAGE(G15:G19),AVERAGE(G15:G19))</f>
-        <v>9.9999999999999992E-2</v>
+        <v>0.16250000000000003</v>
       </c>
       <c r="K15" s="30" t="str">
         <f>B6</f>

--- a/Technical/Testing/TestPlan.xlsx
+++ b/Technical/Testing/TestPlan.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FlyNet\Technical\Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Drew/Desktop/FlyNet/Technical/Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="16830" windowHeight="9195"/>
+    <workbookView xWindow="280" yWindow="860" windowWidth="25840" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -1486,28 +1486,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15:K19"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" customWidth="1"/>
-    <col min="14" max="14" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" customWidth="1"/>
+    <col min="14" max="14" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H1" s="23" t="s">
         <v>62</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>0</v>
       </c>
@@ -1593,14 +1593,14 @@
       </c>
       <c r="M3" s="19">
         <f>AVERAGE(AVERAGE(J3,J9,J15,J21,J26),A3,AVERAGE(J3,J9,J15,J21,J26),AVERAGE(J3,J9,J15,J21,J26))</f>
-        <v>0.37181249999999999</v>
+        <v>0.4069687500000001</v>
       </c>
       <c r="N3" s="20" t="str">
         <f>B3</f>
         <v>End of Semester Test Demo</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>0.25</v>
       </c>
@@ -1631,7 +1631,7 @@
       <c r="M4" s="19"/>
       <c r="N4" s="21"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>0.25</v>
       </c>
@@ -1663,7 +1663,7 @@
       <c r="M5" s="19"/>
       <c r="N5" s="21"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>0.5</v>
       </c>
@@ -1695,7 +1695,7 @@
       <c r="M6" s="19"/>
       <c r="N6" s="21"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>0.5</v>
       </c>
@@ -1729,7 +1729,7 @@
       <c r="M7" s="19"/>
       <c r="N7" s="21"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>0.75</v>
       </c>
@@ -1745,7 +1745,7 @@
       <c r="M8" s="19"/>
       <c r="N8" s="21"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f>G3</f>
         <v>0.75</v>
@@ -1786,7 +1786,7 @@
       <c r="M9" s="19"/>
       <c r="N9" s="21"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f>G4</f>
         <v>0</v>
@@ -1818,7 +1818,7 @@
       <c r="M10" s="19"/>
       <c r="N10" s="21"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <f>G9</f>
         <v>1</v>
@@ -1850,7 +1850,7 @@
       <c r="M11" s="19"/>
       <c r="N11" s="21"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <f>G15</f>
         <v>0</v>
@@ -1885,7 +1885,7 @@
       <c r="M12" s="19"/>
       <c r="N12" s="21"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <f>G16</f>
         <v>0.25</v>
@@ -1917,10 +1917,9 @@
       <c r="M13" s="19"/>
       <c r="N13" s="21"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <f>G17</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="B14" t="s">
         <v>61</v>
@@ -1941,7 +1940,7 @@
       <c r="M14" s="19"/>
       <c r="N14" s="21"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <f>G26</f>
         <v>0.85</v>
@@ -1979,7 +1978,7 @@
       <c r="M15" s="19"/>
       <c r="N15" s="21"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <f>G10</f>
         <v>0.9</v>
@@ -2011,7 +2010,7 @@
       <c r="M16" s="19"/>
       <c r="N16" s="21"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <f>G11</f>
         <v>1</v>
@@ -2043,7 +2042,7 @@
       <c r="M17" s="19"/>
       <c r="N17" s="21"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <f>G12</f>
         <v>0.75</v>
@@ -2074,7 +2073,7 @@
       <c r="M18" s="19"/>
       <c r="N18" s="21"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <f>G24</f>
         <v>1</v>
@@ -2105,7 +2104,7 @@
       <c r="M19" s="19"/>
       <c r="N19" s="21"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <f>G27</f>
         <v>0.85</v>
@@ -2122,7 +2121,7 @@
       <c r="M20" s="19"/>
       <c r="N20" s="21"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <f>G18</f>
         <v>0</v>
@@ -2143,7 +2142,7 @@
         <v>42429</v>
       </c>
       <c r="G21" s="6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H21" s="17" t="str">
         <f t="shared" ref="H21:H23" si="2">B27</f>
@@ -2151,7 +2150,7 @@
       </c>
       <c r="J21" s="34">
         <f>AVERAGE(AVERAGE(G21:G24),A7,AVERAGE(G21:G24),AVERAGE(G21:G24))</f>
-        <v>0.48124999999999996</v>
+        <v>0.71562500000000007</v>
       </c>
       <c r="K21" s="35" t="str">
         <f>B7</f>
@@ -2160,7 +2159,7 @@
       <c r="M21" s="19"/>
       <c r="N21" s="21"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <f>G5</f>
         <v>0</v>
@@ -2192,7 +2191,7 @@
       <c r="M22" s="19"/>
       <c r="N22" s="21"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <f>G6</f>
         <v>0</v>
@@ -2213,7 +2212,7 @@
         <v>42422</v>
       </c>
       <c r="G23" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H23" s="17" t="str">
         <f t="shared" si="2"/>
@@ -2224,7 +2223,7 @@
       <c r="M23" s="19"/>
       <c r="N23" s="21"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <f>G19</f>
         <v>0</v>
@@ -2256,7 +2255,7 @@
       <c r="M24" s="19"/>
       <c r="N24" s="21"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <f>G13</f>
         <v>0.75</v>
@@ -2276,7 +2275,7 @@
       <c r="M25" s="19"/>
       <c r="N25" s="21"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <f>G7</f>
         <v>0.75</v>
@@ -2314,10 +2313,9 @@
       <c r="M26" s="19"/>
       <c r="N26" s="21"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <f>G21</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B27" t="s">
         <v>57</v>
@@ -2346,7 +2344,7 @@
       <c r="M27" s="19"/>
       <c r="N27" s="22"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <f>G22</f>
         <v>0.9</v>
@@ -2362,10 +2360,10 @@
       </c>
       <c r="M28" s="9"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <f>G23</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="B29" t="s">
         <v>59</v>
@@ -2381,13 +2379,13 @@
       </c>
       <c r="M29" s="9"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M30" s="9"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M31" s="9"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K32" s="7"/>
       <c r="N32" s="7"/>
     </row>

--- a/Technical/Testing/TestPlan.xlsx
+++ b/Technical/Testing/TestPlan.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Drew/Desktop/FlyNet/Technical/Testing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FlyNet\Technical\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="280" yWindow="860" windowWidth="25840" windowHeight="17460"/>
+    <workbookView xWindow="285" yWindow="855" windowWidth="25845" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -220,12 +220,6 @@
     <t>Now - February 29</t>
   </si>
   <si>
-    <t>April 18 - End Of Semester</t>
-  </si>
-  <si>
-    <t>March 1 - April 17</t>
-  </si>
-  <si>
     <t>Min People 
 Required</t>
   </si>
@@ -301,6 +295,12 @@
   </si>
   <si>
     <t>Correctly locate targets in the map 95% of time with 0.5 m accuracy</t>
+  </si>
+  <si>
+    <t>March 1 - End of Semester</t>
+  </si>
+  <si>
+    <t>Project</t>
   </si>
 </sst>
 </file>
@@ -1486,41 +1486,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.83203125" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" customWidth="1"/>
-    <col min="14" max="14" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H1" s="23" t="s">
         <v>62</v>
       </c>
       <c r="I1" s="23"/>
       <c r="K1" s="23" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="L1" s="23"/>
-      <c r="N1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -1531,13 +1528,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>45</v>
@@ -1557,7 +1554,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>0</v>
       </c>
@@ -1585,22 +1582,21 @@
       </c>
       <c r="J3" s="25">
         <f>AVERAGE(AVERAGE(G3:G7),A5,AVERAGE(G3:G7),AVERAGE(G3:G7))</f>
-        <v>0.28750000000000003</v>
+        <v>0.51249999999999996</v>
       </c>
       <c r="K3" s="40" t="str">
         <f>B5</f>
         <v>Guidance Subsystem</v>
       </c>
       <c r="M3" s="19">
-        <f>AVERAGE(AVERAGE(J3,J9,J15,J21,J26),A3,AVERAGE(J3,J9,J15,J21,J26),AVERAGE(J3,J9,J15,J21,J26))</f>
-        <v>0.4069687500000001</v>
-      </c>
-      <c r="N3" s="20" t="str">
-        <f>B3</f>
-        <v>End of Semester Test Demo</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <f>AVERAGE(AVERAGE(J3,J9,J15,J21,J26),AVERAGE(J3,J9,J15,J21,J26),AVERAGE(J3,J9,J15,J21,J26))</f>
+        <v>0.72450000000000025</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>0.25</v>
       </c>
@@ -1608,7 +1604,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1620,7 +1616,7 @@
         <v>42422</v>
       </c>
       <c r="G4" s="6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H4" s="13" t="str">
         <f>B10</f>
@@ -1631,7 +1627,7 @@
       <c r="M4" s="19"/>
       <c r="N4" s="21"/>
     </row>
-    <row r="5" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>0.25</v>
       </c>
@@ -1639,7 +1635,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1651,7 +1647,7 @@
         <v>42415</v>
       </c>
       <c r="G5" s="6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H5" s="13" t="str">
         <f>B22</f>
@@ -1663,7 +1659,7 @@
       <c r="M5" s="19"/>
       <c r="N5" s="21"/>
     </row>
-    <row r="6" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>0.5</v>
       </c>
@@ -1683,7 +1679,7 @@
         <v>42429</v>
       </c>
       <c r="G6" s="6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H6" s="13" t="str">
         <f>B23</f>
@@ -1695,7 +1691,7 @@
       <c r="M6" s="19"/>
       <c r="N6" s="21"/>
     </row>
-    <row r="7" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>0.5</v>
       </c>
@@ -1729,7 +1725,7 @@
       <c r="M7" s="19"/>
       <c r="N7" s="21"/>
     </row>
-    <row r="8" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>0.75</v>
       </c>
@@ -1745,7 +1741,7 @@
       <c r="M8" s="19"/>
       <c r="N8" s="21"/>
     </row>
-    <row r="9" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f>G3</f>
         <v>0.75</v>
@@ -1754,10 +1750,10 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1786,10 +1782,10 @@
       <c r="M9" s="19"/>
       <c r="N9" s="21"/>
     </row>
-    <row r="10" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <f>G4</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -1798,7 +1794,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1818,19 +1814,19 @@
       <c r="M10" s="19"/>
       <c r="N10" s="21"/>
     </row>
-    <row r="11" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <f>G9</f>
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1850,10 +1846,10 @@
       <c r="M11" s="19"/>
       <c r="N11" s="21"/>
     </row>
-    <row r="12" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <f>G15</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="B12" t="s">
         <v>56</v>
@@ -1885,16 +1881,16 @@
       <c r="M12" s="19"/>
       <c r="N12" s="21"/>
     </row>
-    <row r="13" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <f>G16</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
         <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1917,7 +1913,7 @@
       <c r="M13" s="19"/>
       <c r="N13" s="21"/>
     </row>
-    <row r="14" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>0.75</v>
       </c>
@@ -1940,7 +1936,7 @@
       <c r="M14" s="19"/>
       <c r="N14" s="21"/>
     </row>
-    <row r="15" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <f>G26</f>
         <v>0.85</v>
@@ -1961,7 +1957,7 @@
         <v>42415</v>
       </c>
       <c r="G15" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H15" s="15" t="str">
         <f t="shared" ref="H15:H17" si="1">B12</f>
@@ -1969,7 +1965,7 @@
       </c>
       <c r="J15" s="33">
         <f>AVERAGE(AVERAGE(G15:G19),A6,AVERAGE(G15:G19),AVERAGE(G15:G19))</f>
-        <v>0.16250000000000003</v>
+        <v>0.79999999999999993</v>
       </c>
       <c r="K15" s="30" t="str">
         <f>B6</f>
@@ -1978,13 +1974,13 @@
       <c r="M15" s="19"/>
       <c r="N15" s="21"/>
     </row>
-    <row r="16" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <f>G10</f>
         <v>0.9</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -1999,7 +1995,7 @@
         <v>42401</v>
       </c>
       <c r="G16" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H16" s="15" t="str">
         <f t="shared" si="1"/>
@@ -2010,19 +2006,19 @@
       <c r="M16" s="19"/>
       <c r="N16" s="21"/>
     </row>
-    <row r="17" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <f>G11</f>
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -2031,7 +2027,7 @@
         <v>42408</v>
       </c>
       <c r="G17" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H17" s="15" t="str">
         <f t="shared" si="1"/>
@@ -2042,19 +2038,19 @@
       <c r="M17" s="19"/>
       <c r="N17" s="21"/>
     </row>
-    <row r="18" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <f>G12</f>
         <v>0.75</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -2063,7 +2059,7 @@
         <v>42422</v>
       </c>
       <c r="G18" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="15" t="s">
         <v>53</v>
@@ -2073,7 +2069,7 @@
       <c r="M18" s="19"/>
       <c r="N18" s="21"/>
     </row>
-    <row r="19" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <f>G24</f>
         <v>1</v>
@@ -2082,7 +2078,7 @@
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
         <v>31</v>
@@ -2094,7 +2090,7 @@
         <v>42429</v>
       </c>
       <c r="G19" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="16" t="s">
         <v>41</v>
@@ -2104,7 +2100,7 @@
       <c r="M19" s="19"/>
       <c r="N19" s="21"/>
     </row>
-    <row r="20" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <f>G27</f>
         <v>0.85</v>
@@ -2113,7 +2109,7 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
         <v>31</v>
@@ -2121,10 +2117,10 @@
       <c r="M20" s="19"/>
       <c r="N20" s="21"/>
     </row>
-    <row r="21" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <f>G18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
         <v>33</v>
@@ -2142,7 +2138,7 @@
         <v>42429</v>
       </c>
       <c r="G21" s="6">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H21" s="17" t="str">
         <f t="shared" ref="H21:H23" si="2">B27</f>
@@ -2150,7 +2146,7 @@
       </c>
       <c r="J21" s="34">
         <f>AVERAGE(AVERAGE(G21:G24),A7,AVERAGE(G21:G24),AVERAGE(G21:G24))</f>
-        <v>0.71562500000000007</v>
+        <v>0.76250000000000007</v>
       </c>
       <c r="K21" s="35" t="str">
         <f>B7</f>
@@ -2159,16 +2155,16 @@
       <c r="M21" s="19"/>
       <c r="N21" s="21"/>
     </row>
-    <row r="22" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <f>G5</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B22" t="s">
         <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
         <v>37</v>
@@ -2191,10 +2187,10 @@
       <c r="M22" s="19"/>
       <c r="N22" s="21"/>
     </row>
-    <row r="23" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <f>G6</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B23" t="s">
         <v>38</v>
@@ -2223,10 +2219,10 @@
       <c r="M23" s="19"/>
       <c r="N23" s="21"/>
     </row>
-    <row r="24" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <f>G19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
         <v>41</v>
@@ -2255,7 +2251,7 @@
       <c r="M24" s="19"/>
       <c r="N24" s="21"/>
     </row>
-    <row r="25" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <f>G13</f>
         <v>0.75</v>
@@ -2264,10 +2260,10 @@
         <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E25" t="s">
         <v>50</v>
@@ -2275,7 +2271,7 @@
       <c r="M25" s="19"/>
       <c r="N25" s="21"/>
     </row>
-    <row r="26" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <f>G7</f>
         <v>0.75</v>
@@ -2287,7 +2283,7 @@
         <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -2313,7 +2309,7 @@
       <c r="M26" s="19"/>
       <c r="N26" s="21"/>
     </row>
-    <row r="27" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>0.5</v>
       </c>
@@ -2344,7 +2340,7 @@
       <c r="M27" s="19"/>
       <c r="N27" s="22"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <f>G22</f>
         <v>0.9</v>
@@ -2353,14 +2349,14 @@
         <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M28" s="9"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <f>G23</f>
         <v>0.75</v>
@@ -2379,13 +2375,13 @@
       </c>
       <c r="M29" s="9"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M30" s="9"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M31" s="9"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K32" s="7"/>
       <c r="N32" s="7"/>
     </row>
